--- a/data_clean/Storebrand 16.12.2020.xlsx
+++ b/data_clean/Storebrand 16.12.2020.xlsx
@@ -1392,7 +1392,7 @@
         <v>1.207040659382655</v>
       </c>
       <c r="K2">
-        <v>52.8980154671112</v>
+        <v>0.02898015467111229</v>
       </c>
       <c r="L2">
         <v>0.002183098654828152</v>
@@ -1422,13 +1422,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1463,7 +1463,7 @@
         <v>1.207040659382655</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L3">
         <v>0.02535521771369633</v>
@@ -1493,13 +1493,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1534,7 +1534,7 @@
         <v>0.9500000000000001</v>
       </c>
       <c r="K4">
-        <v>48.71794871794872</v>
+        <v>-0.01282051282051277</v>
       </c>
       <c r="L4">
         <v>0.009266927766570641</v>
@@ -1564,13 +1564,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.9997343110686008</v>
+        <v>-0.0002656889313992217</v>
       </c>
       <c r="V4">
-        <v>0.9997343110686008</v>
+        <v>-0.0002656889313992217</v>
       </c>
       <c r="W4">
-        <v>0.998407136030583</v>
+        <v>-0.001592863969417047</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1605,7 +1605,7 @@
         <v>0.7847826086956328</v>
       </c>
       <c r="K5">
-        <v>43.97076735688125</v>
+        <v>-0.06029232643118754</v>
       </c>
       <c r="L5">
         <v>0.002266271001146204</v>
@@ -1635,13 +1635,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.9997873923673861</v>
+        <v>-0.0002126076326138815</v>
       </c>
       <c r="V5">
-        <v>0.9997873923673861</v>
+        <v>-0.0002126076326138815</v>
       </c>
       <c r="W5">
-        <v>0.9996809189534142</v>
+        <v>-0.0003190810465858451</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1676,7 +1676,7 @@
         <v>0.5065731166912939</v>
       </c>
       <c r="K6">
-        <v>33.62419726457217</v>
+        <v>-0.1637580273542782</v>
       </c>
       <c r="L6">
         <v>-0.002912499459289673</v>
@@ -1706,13 +1706,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.9996810207336522</v>
+        <v>-0.0003189792663478297</v>
       </c>
       <c r="V6">
-        <v>0.9996810207336522</v>
+        <v>-0.0003189792663478297</v>
       </c>
       <c r="W6">
-        <v>0.9990424513246091</v>
+        <v>-0.0009575486753908846</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1747,7 +1747,7 @@
         <v>0.5065731166912939</v>
       </c>
       <c r="K7">
-        <v>33.62419726457217</v>
+        <v>-0.1637580273542782</v>
       </c>
       <c r="L7">
         <v>-0.005979046016495373</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0.9997872793022762</v>
+        <v>-0.0002127206977238227</v>
       </c>
       <c r="V7">
-        <v>0.9997872793022762</v>
+        <v>-0.0002127206977238227</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1818,7 +1818,7 @@
         <v>0.7684421249033377</v>
       </c>
       <c r="K8">
-        <v>43.45305475831393</v>
+        <v>-0.06546945241686075</v>
       </c>
       <c r="L8">
         <v>-0.006991506573683189</v>
@@ -1848,13 +1848,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.9999392097264438</v>
+        <v>-6.079027355621047E-05</v>
       </c>
       <c r="V8">
-        <v>0.9999392097264438</v>
+        <v>-6.079027355621047E-05</v>
       </c>
       <c r="W8">
-        <v>1.000638977635783</v>
+        <v>0.0006389776357826893</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1889,7 +1889,7 @@
         <v>1.181919506290799</v>
       </c>
       <c r="K9">
-        <v>54.16879508538922</v>
+        <v>0.04168795085389221</v>
       </c>
       <c r="L9">
         <v>-0.006284329657762745</v>
@@ -1919,13 +1919,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>1.000074092650009</v>
+        <v>7.409265000912768E-05</v>
       </c>
       <c r="V9">
-        <v>1.000074092650009</v>
+        <v>7.409265000912768E-05</v>
       </c>
       <c r="W9">
-        <v>1.00095785440613</v>
+        <v>0.0009578544061303873</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1960,7 +1960,7 @@
         <v>1.617158855119655</v>
       </c>
       <c r="K10">
-        <v>61.79062657798506</v>
+        <v>0.1179062657798506</v>
       </c>
       <c r="L10">
         <v>-0.004343195994394062</v>
@@ -1990,13 +1990,13 @@
         <v>-0.0002777777777751567</v>
       </c>
       <c r="U10">
-        <v>1.000164004911282</v>
+        <v>0.0001640049112821007</v>
       </c>
       <c r="V10">
-        <v>1.000164004911282</v>
+        <v>0.0001640049112821007</v>
       </c>
       <c r="W10">
-        <v>1.000956937799043</v>
+        <v>0.000956937799043045</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -2031,7 +2031,7 @@
         <v>1.769874416112273</v>
       </c>
       <c r="K11">
-        <v>63.89728017331647</v>
+        <v>0.1389728017331647</v>
       </c>
       <c r="L11">
         <v>-0.00198090163643447</v>
@@ -2061,13 +2061,13 @@
         <v>-0.0105000000000004</v>
       </c>
       <c r="U11">
-        <v>1.000163091650417</v>
+        <v>0.0001630916504167246</v>
       </c>
       <c r="V11">
-        <v>1.000163091650417</v>
+        <v>0.0001630916504167246</v>
       </c>
       <c r="W11">
-        <v>1.00031867431485</v>
+        <v>0.0003186743148502202</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -2102,7 +2102,7 @@
         <v>1.930627638209708</v>
       </c>
       <c r="K12">
-        <v>65.87761655687891</v>
+        <v>0.158776165568789</v>
       </c>
       <c r="L12">
         <v>0.0004603848036987546</v>
@@ -2132,13 +2132,13 @@
         <v>-0.005681818181813014</v>
       </c>
       <c r="U12">
-        <v>1.000162420529955</v>
+        <v>0.0001624205299548542</v>
       </c>
       <c r="V12">
-        <v>1.000162420529955</v>
+        <v>0.0001624205299548542</v>
       </c>
       <c r="W12">
-        <v>1.000318572793883</v>
+        <v>0.0003185727938832539</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2173,7 +2173,7 @@
         <v>1.930627638209708</v>
       </c>
       <c r="K13">
-        <v>65.87761655687891</v>
+        <v>0.158776165568789</v>
       </c>
       <c r="L13">
         <v>0.002655418295577469</v>
@@ -2203,13 +2203,13 @@
         <v>0.003333333333330302</v>
       </c>
       <c r="U13">
-        <v>1.000135328461509</v>
+        <v>0.0001353284615088768</v>
       </c>
       <c r="V13">
-        <v>1.000135328461509</v>
+        <v>0.0001353284615088768</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2244,7 +2244,7 @@
         <v>2.108747551891139</v>
       </c>
       <c r="K14">
-        <v>67.83270486560829</v>
+        <v>0.178327048656083</v>
       </c>
       <c r="L14">
         <v>0.004660710557257098</v>
@@ -2274,13 +2274,13 @@
         <v>0.02211538461538964</v>
       </c>
       <c r="U14">
-        <v>1.000139027462013</v>
+        <v>0.0001390274620127752</v>
       </c>
       <c r="V14">
-        <v>1.000139027462013</v>
+        <v>0.0001390274620127752</v>
       </c>
       <c r="W14">
-        <v>1.00031847133758</v>
+        <v>0.0003184713375796733</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2315,7 +2315,7 @@
         <v>1.775795418555385</v>
       </c>
       <c r="K15">
-        <v>63.97429027675127</v>
+        <v>0.1397429027675127</v>
       </c>
       <c r="L15">
         <v>0.006199105803640598</v>
@@ -2345,13 +2345,13 @@
         <v>0.04107142857142776</v>
       </c>
       <c r="U15">
-        <v>1.000096371186767</v>
+        <v>9.637118676741885E-05</v>
       </c>
       <c r="V15">
-        <v>1.000096371186767</v>
+        <v>9.637118676741885E-05</v>
       </c>
       <c r="W15">
-        <v>0.9996816300541228</v>
+        <v>-0.0003183699458771949</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2386,7 +2386,7 @@
         <v>2.274398387193464</v>
       </c>
       <c r="K16">
-        <v>69.46003870783986</v>
+        <v>0.1946003870783986</v>
       </c>
       <c r="L16">
         <v>0.007782345197328873</v>
@@ -2416,13 +2416,13 @@
         <v>0.05933333333332769</v>
       </c>
       <c r="U16">
-        <v>1.000147287704513</v>
+        <v>0.0001472877045134435</v>
       </c>
       <c r="V16">
-        <v>1.000147287704513</v>
+        <v>0.0001472877045134435</v>
       </c>
       <c r="W16">
-        <v>1.000955414012739</v>
+        <v>0.0009554140127387978</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2457,7 +2457,7 @@
         <v>2.624295207290341</v>
       </c>
       <c r="K17">
-        <v>72.4084285963108</v>
+        <v>0.224084285963108</v>
       </c>
       <c r="L17">
         <v>0.009504657681024846</v>
@@ -2487,13 +2487,13 @@
         <v>0.07375000000000398</v>
       </c>
       <c r="U17">
-        <v>1.000168710678456</v>
+        <v>0.0001687106784560299</v>
       </c>
       <c r="V17">
-        <v>1.000233803774868</v>
+        <v>0.0002338037748681465</v>
       </c>
       <c r="W17">
-        <v>1.000636334712059</v>
+        <v>0.0006363347120585949</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2528,7 +2528,7 @@
         <v>2.624295207290341</v>
       </c>
       <c r="K18">
-        <v>72.4084285963108</v>
+        <v>0.224084285963108</v>
       </c>
       <c r="L18">
         <v>0.01111736398644365</v>
@@ -2558,13 +2558,13 @@
         <v>0.07749999999999346</v>
       </c>
       <c r="U18">
-        <v>1.00014883725291</v>
+        <v>0.000148837252909706</v>
       </c>
       <c r="V18">
-        <v>1.000127499521877</v>
+        <v>0.0001274995218767394</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2599,7 +2599,7 @@
         <v>2.81814386108366</v>
       </c>
       <c r="K19">
-        <v>73.80926344362044</v>
+        <v>0.2380926344362044</v>
       </c>
       <c r="L19">
         <v>0.01262994534907269</v>
@@ -2629,13 +2629,13 @@
         <v>0.08625000000000682</v>
       </c>
       <c r="U19">
-        <v>1.000149986876149</v>
+        <v>0.0001499868761485335</v>
       </c>
       <c r="V19">
-        <v>1.000254966535642</v>
+        <v>0.0002549665356421649</v>
       </c>
       <c r="W19">
-        <v>1.000317965023847</v>
+        <v>0.0003179650238473997</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2670,7 +2670,7 @@
         <v>3.022195075602869</v>
       </c>
       <c r="K20">
-        <v>75.13795374904549</v>
+        <v>0.2513795374904549</v>
       </c>
       <c r="L20">
         <v>0.01404988883759394</v>
@@ -2700,13 +2700,13 @@
         <v>0.08749999999999858</v>
       </c>
       <c r="U20">
-        <v>1.000150950991245</v>
+        <v>0.0001509509912445139</v>
       </c>
       <c r="V20">
-        <v>1.000297385134992</v>
+        <v>0.0002973851349916679</v>
       </c>
       <c r="W20">
-        <v>1.000317863954228</v>
+        <v>0.0003178639542276152</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2741,7 +2741,7 @@
         <v>1.625567560123641</v>
       </c>
       <c r="K21">
-        <v>61.91299682446911</v>
+        <v>0.1191299682446911</v>
       </c>
       <c r="L21">
         <v>0.01473644033503835</v>
@@ -2771,13 +2771,13 @@
         <v>0.08249999999999602</v>
       </c>
       <c r="U21">
-        <v>1.000072110144053</v>
+        <v>7.211014405283933E-05</v>
       </c>
       <c r="V21">
-        <v>1.000276061243125</v>
+        <v>0.0002760612431249587</v>
       </c>
       <c r="W21">
-        <v>0.9987289482046393</v>
+        <v>-0.001271051795360689</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2812,7 +2812,7 @@
         <v>1.625567560123641</v>
       </c>
       <c r="K22">
-        <v>61.91299682446912</v>
+        <v>0.1191299682446911</v>
       </c>
       <c r="L22">
         <v>0.01489543579452615</v>
@@ -2842,13 +2842,13 @@
         <v>0.07124999999999204</v>
       </c>
       <c r="U22">
-        <v>1.000065237806978</v>
+        <v>6.523780697786918E-05</v>
       </c>
       <c r="V22">
-        <v>1.000275985054348</v>
+        <v>0.0002759850543478937</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2883,7 +2883,7 @@
         <v>1.441090581063943</v>
       </c>
       <c r="K23">
-        <v>59.0347032692186</v>
+        <v>0.09034703269218602</v>
       </c>
       <c r="L23">
         <v>0.01455428924318738</v>
@@ -2913,13 +2913,13 @@
         <v>0.06125000000000824</v>
       </c>
       <c r="U23">
-        <v>1.000044822207542</v>
+        <v>4.482220754198352E-05</v>
       </c>
       <c r="V23">
-        <v>1.000212237621241</v>
+        <v>0.000212237621240563</v>
       </c>
       <c r="W23">
-        <v>0.9996818326439708</v>
+        <v>-0.0003181673560291864</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2954,7 +2954,7 @@
         <v>1.56054811608776</v>
       </c>
       <c r="K24">
-        <v>60.94586179743844</v>
+        <v>0.1094586179743844</v>
       </c>
       <c r="L24">
         <v>0.01401281528557621</v>
@@ -2984,13 +2984,13 @@
         <v>0.04750000000000654</v>
       </c>
       <c r="U24">
-        <v>1.000054773580499</v>
+        <v>5.477358049854608E-05</v>
       </c>
       <c r="V24">
-        <v>1.000169754068793</v>
+        <v>0.0001697540687928267</v>
       </c>
       <c r="W24">
-        <v>1.000318268618714</v>
+        <v>0.0003182686187142014</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -3025,7 +3025,7 @@
         <v>1.686292889797086</v>
       </c>
       <c r="K25">
-        <v>62.77397733515436</v>
+        <v>0.1277397733515436</v>
       </c>
       <c r="L25">
         <v>0.01345898240666741</v>
@@ -3055,13 +3055,13 @@
         <v>0.03375000000000483</v>
       </c>
       <c r="U25">
-        <v>1.000063479312669</v>
+        <v>6.347931266903473E-05</v>
       </c>
       <c r="V25">
-        <v>1.00012729394293</v>
+        <v>0.0001272939429297626</v>
       </c>
       <c r="W25">
-        <v>1.000318167356029</v>
+        <v>0.0003181673560292975</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -3096,7 +3096,7 @@
         <v>1.333326826478908</v>
       </c>
       <c r="K26">
-        <v>57.14273762887116</v>
+        <v>0.07142737628871165</v>
       </c>
       <c r="L26">
         <v>0.01263999583433393</v>
@@ -3126,13 +3126,13 @@
         <v>0.02125000000000199</v>
       </c>
       <c r="U26">
-        <v>1.000032914819632</v>
+        <v>3.291481963207943E-05</v>
       </c>
       <c r="V26">
-        <v>1.000063638870622</v>
+        <v>6.363887062232898E-05</v>
       </c>
       <c r="W26">
-        <v>0.9993638676844784</v>
+        <v>-0.0006361323155216203</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -3167,7 +3167,7 @@
         <v>1.443492512046761</v>
       </c>
       <c r="K27">
-        <v>59.07497178444953</v>
+        <v>0.09074971784449526</v>
       </c>
       <c r="L27">
         <v>0.01179156620566662</v>
@@ -3197,13 +3197,13 @@
         <v>0.008749999999999147</v>
       </c>
       <c r="U27">
-        <v>1.000042632680743</v>
+        <v>4.263268074300441E-05</v>
       </c>
       <c r="V27">
-        <v>1.000063634820974</v>
+        <v>6.363482097415663E-05</v>
       </c>
       <c r="W27">
-        <v>1.000318268618714</v>
+        <v>0.0003182686187142014</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3238,7 +3238,7 @@
         <v>1.67542027113702</v>
       </c>
       <c r="K28">
-        <v>62.62269480469277</v>
+        <v>0.1262269480469277</v>
       </c>
       <c r="L28">
         <v>0.01117695205369059</v>
@@ -3268,13 +3268,13 @@
         <v>-0.002500000000004832</v>
       </c>
       <c r="U28">
-        <v>1.000063066091903</v>
+        <v>6.306609190320778E-05</v>
       </c>
       <c r="V28">
-        <v>1.000106051286402</v>
+        <v>0.0001060512864019536</v>
       </c>
       <c r="W28">
-        <v>1.000636334712059</v>
+        <v>0.0006363347120585949</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3309,7 +3309,7 @@
         <v>2.2857564792693</v>
       </c>
       <c r="K29">
-        <v>69.56560821505603</v>
+        <v>0.1956560821505603</v>
       </c>
       <c r="L29">
         <v>0.01129590313171543</v>
@@ -3339,13 +3339,13 @@
         <v>0.002499999999997726</v>
       </c>
       <c r="U29">
-        <v>1.000115430243061</v>
+        <v>0.0001154302430605991</v>
       </c>
       <c r="V29">
-        <v>1.000190872073295</v>
+        <v>0.0001908720732950453</v>
       </c>
       <c r="W29">
-        <v>1.001589825119237</v>
+        <v>0.001589825119236998</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3380,7 +3380,7 @@
         <v>2.414248312560324</v>
       </c>
       <c r="K30">
-        <v>70.71097622509753</v>
+        <v>0.2071097622509752</v>
       </c>
       <c r="L30">
         <v>0.01192038616261035</v>
@@ -3410,13 +3410,13 @@
         <v>0.01000000000000512</v>
       </c>
       <c r="U30">
-        <v>1.000118438153714</v>
+        <v>0.0001184381537138179</v>
       </c>
       <c r="V30">
-        <v>1.000233243569899</v>
+        <v>0.0002332435698986224</v>
       </c>
       <c r="W30">
-        <v>1.00031746031746</v>
+        <v>0.0003174603174602719</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3451,7 +3451,7 @@
         <v>2.126614060612373</v>
       </c>
       <c r="K31">
-        <v>68.01651944838559</v>
+        <v>0.1801651944838559</v>
       </c>
       <c r="L31">
         <v>0.01264299061384585</v>
@@ -3481,13 +3481,13 @@
         <v>0.0175000000000054</v>
       </c>
       <c r="U31">
-        <v>1.000099915456153</v>
+        <v>9.991545615251063E-05</v>
       </c>
       <c r="V31">
-        <v>1.00014839311456</v>
+        <v>0.0001483931145596085</v>
       </c>
       <c r="W31">
-        <v>0.9996826404316089</v>
+        <v>-0.0003173595683910735</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3522,7 +3522,7 @@
         <v>2.126614060612373</v>
       </c>
       <c r="K32">
-        <v>68.01651944838559</v>
+        <v>0.1801651944838559</v>
       </c>
       <c r="L32">
         <v>0.01332995429990889</v>
@@ -3552,13 +3552,13 @@
         <v>0.02625000000000455</v>
       </c>
       <c r="U32">
-        <v>1.000169802710476</v>
+        <v>0.0001698027104757305</v>
       </c>
       <c r="V32">
-        <v>1.000105979355222</v>
+        <v>0.0001059793552216082</v>
       </c>
       <c r="W32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3593,7 +3593,7 @@
         <v>1.878615401501496</v>
       </c>
       <c r="K33">
-        <v>65.26107657596786</v>
+        <v>0.1526107657596786</v>
       </c>
       <c r="L33">
         <v>0.01378364437581921</v>
@@ -3623,13 +3623,13 @@
         <v>0.03374999999999773</v>
       </c>
       <c r="U33">
-        <v>1.000106108676506</v>
+        <v>0.0001061086765064001</v>
       </c>
       <c r="V33">
-        <v>1.00008477449983</v>
+        <v>8.477449983046448E-05</v>
       </c>
       <c r="W33">
-        <v>0.9996825396825396</v>
+        <v>-0.0003174603174603829</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3664,7 +3664,7 @@
         <v>1.259955236030126</v>
       </c>
       <c r="K34">
-        <v>55.75133595315736</v>
+        <v>0.05751335953157355</v>
       </c>
       <c r="L34">
         <v>0.01354737906032216</v>
@@ -3694,13 +3694,13 @@
         <v>0.04125000000000512</v>
       </c>
       <c r="U34">
-        <v>1.000116707160515</v>
+        <v>0.0001167071605148173</v>
       </c>
       <c r="V34">
-        <v>0.9999788081715691</v>
+        <v>-2.119182843085543E-05</v>
       </c>
       <c r="W34">
-        <v>0.9987297554779295</v>
+        <v>-0.001270244522070474</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3735,7 +3735,7 @@
         <v>1.159472568342137</v>
       </c>
       <c r="K35">
-        <v>53.69239625175156</v>
+        <v>0.03692396251751562</v>
       </c>
       <c r="L35">
         <v>0.01274425588985307</v>
@@ -3765,13 +3765,13 @@
         <v>0.04625000000000057</v>
       </c>
       <c r="U35">
-        <v>1.000116693541543</v>
+        <v>0.0001166935415428672</v>
       </c>
       <c r="V35">
-        <v>0.9999364231673977</v>
+        <v>-6.357683260227454E-05</v>
       </c>
       <c r="W35">
-        <v>0.9996820349761527</v>
+        <v>-0.0003179650238472886</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3806,7 +3806,7 @@
         <v>0.7710846310473721</v>
       </c>
       <c r="K36">
-        <v>43.53742432914532</v>
+        <v>-0.06462575670854681</v>
       </c>
       <c r="L36">
         <v>0.01090337540376921</v>
@@ -3836,13 +3836,13 @@
         <v>0.04000000000000625</v>
       </c>
       <c r="U36">
-        <v>1.000084858127817</v>
+        <v>8.485812781744428E-05</v>
       </c>
       <c r="V36">
-        <v>0.999894031875212</v>
+        <v>-0.0001059681247880251</v>
       </c>
       <c r="W36">
-        <v>0.998091603053435</v>
+        <v>-0.001908396946564972</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3877,7 +3877,7 @@
         <v>1.123684096391569</v>
       </c>
       <c r="K37">
-        <v>52.91201729583333</v>
+        <v>0.02912017295833325</v>
       </c>
       <c r="L37">
         <v>0.009215834451079067</v>
@@ -3907,13 +3907,13 @@
         <v>0.02374999999999972</v>
       </c>
       <c r="U37">
-        <v>1.000148489123172</v>
+        <v>0.000148489123172002</v>
       </c>
       <c r="V37">
-        <v>1.000021195871044</v>
+        <v>2.119587104432163E-05</v>
       </c>
       <c r="W37">
-        <v>1.001912045889101</v>
+        <v>0.001912045889101321</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3948,7 +3948,7 @@
         <v>1.247403207038648</v>
       </c>
       <c r="K38">
-        <v>55.50420161063678</v>
+        <v>0.05504201610636783</v>
       </c>
       <c r="L38">
         <v>0.007928502336400784</v>
@@ -3978,13 +3978,13 @@
         <v>0.007500000000000284</v>
       </c>
       <c r="U38">
-        <v>1.000148467077425</v>
+        <v>0.0001484670774254404</v>
       </c>
       <c r="V38">
-        <v>1.000084781687156</v>
+        <v>8.478168715586598E-05</v>
       </c>
       <c r="W38">
-        <v>1.000636132315522</v>
+        <v>0.0006361323155215093</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -4019,7 +4019,7 @@
         <v>1.043549938192802</v>
       </c>
       <c r="K39">
-        <v>51.06554621883415</v>
+        <v>0.01065546218834146</v>
       </c>
       <c r="L39">
         <v>0.006586881970505378</v>
@@ -4049,13 +4049,13 @@
         <v>-0.01125000000001108</v>
       </c>
       <c r="U39">
-        <v>1.000084825736128</v>
+        <v>8.482573612833555E-05</v>
       </c>
       <c r="V39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W39">
-        <v>0.9990464081373172</v>
+        <v>-0.0009535918626828455</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -4090,7 +4090,7 @@
         <v>1.100891030751594</v>
       </c>
       <c r="K40">
-        <v>52.40114859064109</v>
+        <v>0.02401148590641089</v>
       </c>
       <c r="L40">
         <v>0.005390704832325693</v>
@@ -4120,13 +4120,13 @@
         <v>-0.02750000000000341</v>
       </c>
       <c r="U40">
-        <v>1.000063613906</v>
+        <v>6.36139059997376E-05</v>
       </c>
       <c r="V40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W40">
-        <v>1.000318167356029</v>
+        <v>0.0003181673560292975</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -4161,7 +4161,7 @@
         <v>1.221609120349028</v>
       </c>
       <c r="K41">
-        <v>54.98758126078931</v>
+        <v>0.04987581260789309</v>
       </c>
       <c r="L41">
         <v>0.004571798944571219</v>
@@ -4191,13 +4191,13 @@
         <v>-0.03750000000000142</v>
       </c>
       <c r="U41">
-        <v>1.000074211502783</v>
+        <v>7.421150278297262E-05</v>
       </c>
       <c r="V41">
-        <v>1.00008477449983</v>
+        <v>8.477449983024243E-05</v>
       </c>
       <c r="W41">
-        <v>1.000636132315522</v>
+        <v>0.0006361323155215093</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4232,7 +4232,7 @@
         <v>1.221609120349029</v>
       </c>
       <c r="K42">
-        <v>54.98758126078931</v>
+        <v>0.04987581260789309</v>
       </c>
       <c r="L42">
         <v>0.004016605700414362</v>
@@ -4262,13 +4262,13 @@
         <v>-0.04000000000000625</v>
       </c>
       <c r="U42">
-        <v>1.000063605139295</v>
+        <v>6.360513929526412E-05</v>
       </c>
       <c r="V42">
-        <v>1.000063575485293</v>
+        <v>6.357548529289936E-05</v>
       </c>
       <c r="W42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4303,7 +4303,7 @@
         <v>1.221609120349029</v>
       </c>
       <c r="K43">
-        <v>54.98758126078931</v>
+        <v>0.04987581260789309</v>
       </c>
       <c r="L43">
         <v>0.003641686628820901</v>
@@ -4333,13 +4333,13 @@
         <v>-0.03875000000000028</v>
       </c>
       <c r="U43">
-        <v>1.000063601093939</v>
+        <v>6.360109393876989E-05</v>
       </c>
       <c r="V43">
-        <v>1.000021190481236</v>
+        <v>2.119048123594425E-05</v>
       </c>
       <c r="W43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4374,7 +4374,7 @@
         <v>1.292008939329879</v>
       </c>
       <c r="K44">
-        <v>56.37015271448405</v>
+        <v>0.06370152714484045</v>
       </c>
       <c r="L44">
         <v>0.003502533260582946</v>
@@ -4404,13 +4404,13 @@
         <v>-0.01874999999999716</v>
       </c>
       <c r="U44">
-        <v>1.000063597049097</v>
+        <v>6.359704909697506E-05</v>
       </c>
       <c r="V44">
-        <v>0.9999364299033734</v>
+        <v>-6.35700966266084E-05</v>
       </c>
       <c r="W44">
-        <v>1.000317863954228</v>
+        <v>0.0003178639542276152</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4445,7 +4445,7 @@
         <v>1.057017797437777</v>
       </c>
       <c r="K45">
-        <v>51.38593349821276</v>
+        <v>0.01385933498212766</v>
       </c>
       <c r="L45">
         <v>0.003154019597379178</v>
@@ -4475,13 +4475,13 @@
         <v>-0.01125000000000398</v>
       </c>
       <c r="U45">
-        <v>1.000042395336513</v>
+        <v>4.239533651295702E-05</v>
       </c>
       <c r="V45">
-        <v>0.999851660344572</v>
+        <v>-0.0001483396554280425</v>
       </c>
       <c r="W45">
-        <v>0.9990467111534795</v>
+        <v>-0.0009532888465204614</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4516,7 +4516,7 @@
         <v>1.057017797437777</v>
       </c>
       <c r="K46">
-        <v>51.38593349821276</v>
+        <v>0.01385933498212766</v>
       </c>
       <c r="L46">
         <v>0.002689572361166964</v>
@@ -4546,13 +4546,13 @@
         <v>-0.00750000000000739</v>
       </c>
       <c r="U46">
-        <v>1.000010598384806</v>
+        <v>1.059838480599318E-05</v>
       </c>
       <c r="V46">
-        <v>0.999872832859989</v>
+        <v>-0.0001271671400110419</v>
       </c>
       <c r="W46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4587,7 +4587,7 @@
         <v>1.124194318340015</v>
       </c>
       <c r="K47">
-        <v>52.92332761809354</v>
+        <v>0.02923327618093541</v>
       </c>
       <c r="L47">
         <v>0.002290762183487046</v>
@@ -4617,13 +4617,13 @@
         <v>0.003749999999996589</v>
       </c>
       <c r="U47">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V47">
-        <v>0.9998940139053756</v>
+        <v>-0.0001059860946244218</v>
       </c>
       <c r="W47">
-        <v>1.000318066157761</v>
+        <v>0.0003180661577606436</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4658,7 +4658,7 @@
         <v>1.194906445605554</v>
       </c>
       <c r="K48">
-        <v>54.43997159869338</v>
+        <v>0.04439971598693371</v>
       </c>
       <c r="L48">
         <v>0.002064712340308817</v>
@@ -4688,13 +4688,13 @@
         <v>0.0137499999999946</v>
       </c>
       <c r="U48">
-        <v>1.000010598272482</v>
+        <v>1.059827248162115E-05</v>
       </c>
       <c r="V48">
-        <v>0.9999364016026795</v>
+        <v>-6.359839732050787E-05</v>
       </c>
       <c r="W48">
-        <v>1.000317965023847</v>
+        <v>0.0003179650238473997</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -4729,7 +4729,7 @@
         <v>1.343774081954029</v>
       </c>
       <c r="K49">
-        <v>57.33377172742308</v>
+        <v>0.07333771727423088</v>
       </c>
       <c r="L49">
         <v>0.0021819579146376</v>
@@ -4759,13 +4759,13 @@
         <v>0.02000000000000313</v>
       </c>
       <c r="U49">
-        <v>1.000021196320319</v>
+        <v>2.11963203187171E-05</v>
       </c>
       <c r="V49">
-        <v>1.000063602442334</v>
+        <v>6.360244233394319E-05</v>
       </c>
       <c r="W49">
-        <v>1.000635727908455</v>
+        <v>0.0006357279084552303</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4800,7 +4800,7 @@
         <v>1.343774081954029</v>
       </c>
       <c r="K50">
-        <v>57.33377172742308</v>
+        <v>0.07333771727423088</v>
       </c>
       <c r="L50">
         <v>0.002491608085142309</v>
@@ -4830,13 +4830,13 @@
         <v>0.02124999999999488</v>
       </c>
       <c r="U50">
-        <v>1.000010597935522</v>
+        <v>1.059793552227184E-05</v>
       </c>
       <c r="V50">
-        <v>1.000084797863094</v>
+        <v>8.479786309378845E-05</v>
       </c>
       <c r="W50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4871,7 +4871,7 @@
         <v>1.508724371536828</v>
       </c>
       <c r="K51">
-        <v>60.13910450483619</v>
+        <v>0.1013910450483619</v>
       </c>
       <c r="L51">
         <v>0.003120653164110381</v>
@@ -4901,13 +4901,13 @@
         <v>0.02374999999999972</v>
       </c>
       <c r="U51">
-        <v>1.00007418476245</v>
+        <v>7.418476244969163E-05</v>
       </c>
       <c r="V51">
-        <v>1.000254372019078</v>
+        <v>0.0002543720190779641</v>
       </c>
       <c r="W51">
-        <v>1.000635324015248</v>
+        <v>0.0006353240152476847</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4942,7 +4942,7 @@
         <v>1.682356255308195</v>
       </c>
       <c r="K52">
-        <v>62.71934430704087</v>
+        <v>0.1271934430704087</v>
       </c>
       <c r="L52">
         <v>0.004123288760528289</v>
@@ -4972,13 +4972,13 @@
         <v>0.01874999999999716</v>
       </c>
       <c r="U52">
-        <v>1.000095373333616</v>
+        <v>9.537333361597788E-05</v>
       </c>
       <c r="V52">
-        <v>1.000169538220272</v>
+        <v>0.000169538220272436</v>
       </c>
       <c r="W52">
-        <v>1.000634920634921</v>
+        <v>0.0006349206349205438</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -5013,7 +5013,7 @@
         <v>1.773741457293142</v>
       </c>
       <c r="K53">
-        <v>63.9476131644985</v>
+        <v>0.139476131644985</v>
       </c>
       <c r="L53">
         <v>0.005388967234422173</v>
@@ -5043,13 +5043,13 @@
         <v>0.03000000000000114</v>
       </c>
       <c r="U53">
-        <v>1.000116556291391</v>
+        <v>0.0001165562913907348</v>
       </c>
       <c r="V53">
-        <v>1.000148320796695</v>
+        <v>0.0001483207966945788</v>
       </c>
       <c r="W53">
-        <v>1.000317258883249</v>
+        <v>0.0003172588832487389</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -5084,7 +5084,7 @@
         <v>1.869936406750946</v>
       </c>
       <c r="K54">
-        <v>65.15602235479149</v>
+        <v>0.1515602235479149</v>
       </c>
       <c r="L54">
         <v>0.006829316299994634</v>
@@ -5114,13 +5114,13 @@
         <v>0.04500000000000171</v>
       </c>
       <c r="U54">
-        <v>1.000116542707605</v>
+        <v>0.0001165427076048609</v>
       </c>
       <c r="V54">
-        <v>1.00023304097284</v>
+        <v>0.0002330409728401595</v>
       </c>
       <c r="W54">
-        <v>1.000317158261973</v>
+        <v>0.0003171582619727609</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -5155,7 +5155,7 @@
         <v>2.173709931354609</v>
       </c>
       <c r="K55">
-        <v>68.49113429930952</v>
+        <v>0.1849113429930952</v>
       </c>
       <c r="L55">
         <v>0.008605998560245902</v>
@@ -5185,13 +5185,13 @@
         <v>0.05749999999999744</v>
       </c>
       <c r="U55">
-        <v>1.000137716240982</v>
+        <v>0.0001377162409823551</v>
       </c>
       <c r="V55">
-        <v>1.000275347891471</v>
+        <v>0.0002753478914705454</v>
       </c>
       <c r="W55">
-        <v>1.000951173113507</v>
+        <v>0.0009511731135067869</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -5226,7 +5226,7 @@
         <v>1.647047408693419</v>
       </c>
       <c r="K56">
-        <v>62.22205931348999</v>
+        <v>0.1222205931349</v>
       </c>
       <c r="L56">
         <v>0.01009411830643725</v>
@@ -5256,13 +5256,13 @@
         <v>0.06499999999999773</v>
       </c>
       <c r="U56">
-        <v>1.000127105179536</v>
+        <v>0.0001271051795359579</v>
       </c>
       <c r="V56">
-        <v>1.000169398212849</v>
+        <v>0.0001693982128490035</v>
       </c>
       <c r="W56">
-        <v>0.9990497307570478</v>
+        <v>-0.000950269242952162</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -5297,7 +5297,7 @@
         <v>1.407701252106166</v>
       </c>
       <c r="K57">
-        <v>58.46660796785989</v>
+        <v>0.08466607967859896</v>
       </c>
       <c r="L57">
         <v>0.01104408686557602</v>
@@ -5327,13 +5327,13 @@
         <v>0.06749999999999545</v>
       </c>
       <c r="U57">
-        <v>1.000095316769397</v>
+        <v>9.531676939689149E-05</v>
       </c>
       <c r="V57">
-        <v>1.000127027141466</v>
+        <v>0.0001270271414657298</v>
       </c>
       <c r="W57">
-        <v>0.9993658845909956</v>
+        <v>-0.0006341154090043766</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5368,7 +5368,7 @@
         <v>1.637151225489114</v>
       </c>
       <c r="K58">
-        <v>62.08029367695706</v>
+        <v>0.1208029367695705</v>
       </c>
       <c r="L58">
         <v>0.01191450361632552</v>
@@ -5398,13 +5398,13 @@
         <v>0.07375000000000398</v>
       </c>
       <c r="U58">
-        <v>1.000105897427751</v>
+        <v>0.0001058974277514668</v>
       </c>
       <c r="V58">
-        <v>1.000190516511431</v>
+        <v>0.0001905165114310936</v>
       </c>
       <c r="W58">
-        <v>1.000951776649746</v>
+        <v>0.0009517766497462166</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5439,7 +5439,7 @@
         <v>1.798168750670121</v>
       </c>
       <c r="K59">
-        <v>64.26234122725748</v>
+        <v>0.1426234122725748</v>
       </c>
       <c r="L59">
         <v>0.01286915634580732</v>
@@ -5469,13 +5469,13 @@
         <v>0.07750000000000057</v>
       </c>
       <c r="U59">
-        <v>1.000074120350272</v>
+        <v>7.412035027165587E-05</v>
       </c>
       <c r="V59">
-        <v>1.000211644690893</v>
+        <v>0.0002116446908930758</v>
       </c>
       <c r="W59">
-        <v>1.000633914421553</v>
+        <v>0.0006339144215530279</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5510,7 +5510,7 @@
         <v>1.79816875067012</v>
       </c>
       <c r="K60">
-        <v>64.26234122725748</v>
+        <v>0.1426234122725748</v>
       </c>
       <c r="L60">
         <v>0.01376686041672531</v>
@@ -5540,13 +5540,13 @@
         <v>0.07749999999999346</v>
       </c>
       <c r="U60">
-        <v>1.000063527020159</v>
+        <v>6.35270201592153E-05</v>
       </c>
       <c r="V60">
-        <v>1.000275079878965</v>
+        <v>0.0002750798789645792</v>
       </c>
       <c r="W60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5581,7 +5581,7 @@
         <v>1.887375135811937</v>
       </c>
       <c r="K61">
-        <v>65.36646770982193</v>
+        <v>0.1536646770982193</v>
       </c>
       <c r="L61">
         <v>0.01463818427734113</v>
@@ -5611,13 +5611,13 @@
         <v>0.07249999999999801</v>
       </c>
       <c r="U61">
-        <v>1.000084697312978</v>
+        <v>8.469731297755523E-05</v>
       </c>
       <c r="V61">
-        <v>1.000296158402437</v>
+        <v>0.000296158402437019</v>
       </c>
       <c r="W61">
-        <v>1.000316756414317</v>
+        <v>0.0003167564143173873</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5652,7 +5652,7 @@
         <v>1.981276593855987</v>
       </c>
       <c r="K62">
-        <v>66.45732227392566</v>
+        <v>0.1645732227392566</v>
       </c>
       <c r="L62">
         <v>0.01550010996084849</v>
@@ -5682,13 +5682,13 @@
         <v>0.06625000000000369</v>
       </c>
       <c r="U62">
-        <v>1.000095276407444</v>
+        <v>9.527640744444454E-05</v>
       </c>
       <c r="V62">
-        <v>1.000296070718606</v>
+        <v>0.0002960707186061562</v>
       </c>
       <c r="W62">
-        <v>1.000316656111463</v>
+        <v>0.0003166561114629207</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -5723,7 +5723,7 @@
         <v>2.080120233902356</v>
       </c>
       <c r="K63">
-        <v>67.53373491744993</v>
+        <v>0.1753373491744994</v>
       </c>
       <c r="L63">
         <v>0.01636034059604331</v>
@@ -5753,13 +5753,13 @@
         <v>0.05500000000000682</v>
       </c>
       <c r="U63">
-        <v>1.000116437848652</v>
+        <v>0.0001164378486520068</v>
       </c>
       <c r="V63">
-        <v>1.000295983086681</v>
+        <v>0.0002959830866806623</v>
       </c>
       <c r="W63">
-        <v>1.000316555872111</v>
+        <v>0.0003165558721114348</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -5794,7 +5794,7 @@
         <v>1.721822883710587</v>
       </c>
       <c r="K64">
-        <v>63.25991650725167</v>
+        <v>0.1325991650725168</v>
       </c>
       <c r="L64">
         <v>0.01687354669777158</v>
@@ -5824,13 +5824,13 @@
         <v>0.04999999999999716</v>
       </c>
       <c r="U64">
-        <v>1.000137592345632</v>
+        <v>0.0001375923456317096</v>
       </c>
       <c r="V64">
-        <v>1.000211353933297</v>
+        <v>0.0002113539332966319</v>
       </c>
       <c r="W64">
-        <v>0.9993670886075948</v>
+        <v>-0.0006329113924051777</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5865,7 +5865,7 @@
         <v>1.721822883710587</v>
       </c>
       <c r="K65">
-        <v>63.25991650725167</v>
+        <v>0.1325991650725168</v>
       </c>
       <c r="L65">
         <v>0.01708224655983357</v>
@@ -5895,13 +5895,13 @@
         <v>0.05250000000000199</v>
       </c>
       <c r="U65">
-        <v>1.000148155987089</v>
+        <v>0.0001481559870892823</v>
       </c>
       <c r="V65">
-        <v>1.000211309272251</v>
+        <v>0.0002113092722508814</v>
       </c>
       <c r="W65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5936,7 +5936,7 @@
         <v>1.912679819623813</v>
       </c>
       <c r="K66">
-        <v>65.66735577104541</v>
+        <v>0.1566735577104541</v>
       </c>
       <c r="L66">
         <v>0.01726208122139011</v>
@@ -5966,13 +5966,13 @@
         <v>0.04999999999999005</v>
       </c>
       <c r="U66">
-        <v>1.000232782063084</v>
+        <v>0.0002327820630840804</v>
       </c>
       <c r="V66">
-        <v>1.000211264630076</v>
+        <v>0.0002112646300758136</v>
       </c>
       <c r="W66">
-        <v>1.000633312222926</v>
+        <v>0.0006333122229260635</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -6007,7 +6007,7 @@
         <v>1.912679819623813</v>
       </c>
       <c r="K67">
-        <v>65.66735577104541</v>
+        <v>0.1566735577104541</v>
       </c>
       <c r="L67">
         <v>0.01734990905930458</v>
@@ -6037,13 +6037,13 @@
         <v>0.0449999999999946</v>
       </c>
       <c r="U67">
-        <v>1.000169256645968</v>
+        <v>0.0001692566459678968</v>
       </c>
       <c r="V67">
-        <v>1.000168976005407</v>
+        <v>0.0001689760054071066</v>
       </c>
       <c r="W67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -6078,7 +6078,7 @@
         <v>1.729776825332076</v>
       </c>
       <c r="K68">
-        <v>63.36696865765389</v>
+        <v>0.1336696865765389</v>
       </c>
       <c r="L68">
         <v>0.0171975046864089</v>
@@ -6108,13 +6108,13 @@
         <v>0.04124999999999801</v>
       </c>
       <c r="U68">
-        <v>1.00013749775244</v>
+        <v>0.0001374977524404297</v>
       </c>
       <c r="V68">
-        <v>1.000126710593006</v>
+        <v>0.000126710593005841</v>
       </c>
       <c r="W68">
-        <v>0.9996835443037975</v>
+        <v>-0.0003164556962025333</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -6149,7 +6149,7 @@
         <v>1.729776825332076</v>
       </c>
       <c r="K69">
-        <v>63.36696865765389</v>
+        <v>0.1336696865765389</v>
       </c>
       <c r="L69">
         <v>0.0168466006975017</v>
@@ -6179,13 +6179,13 @@
         <v>0.03624999999999545</v>
       </c>
       <c r="U69">
-        <v>1.000169204737733</v>
+        <v>0.0001692047377326311</v>
       </c>
       <c r="V69">
-        <v>1.000105578782888</v>
+        <v>0.0001055787828876387</v>
       </c>
       <c r="W69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -6220,7 +6220,7 @@
         <v>1.835734234133007</v>
       </c>
       <c r="K70">
-        <v>64.73576444635552</v>
+        <v>0.1473576444635551</v>
       </c>
       <c r="L70">
         <v>0.01645194459260258</v>
@@ -6250,13 +6250,13 @@
         <v>0.03124999999999289</v>
       </c>
       <c r="U70">
-        <v>1.000169176112333</v>
+        <v>0.0001691761123330249</v>
       </c>
       <c r="V70">
-        <v>1.000063340582311</v>
+        <v>6.334058231116657E-05</v>
       </c>
       <c r="W70">
-        <v>1.000316555872111</v>
+        <v>0.0003165558721114348</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6291,7 +6291,7 @@
         <v>2.170336577714815</v>
       </c>
       <c r="K71">
-        <v>68.45760771808014</v>
+        <v>0.1845760771808014</v>
       </c>
       <c r="L71">
         <v>0.01634243513646438</v>
@@ -6321,13 +6321,13 @@
         <v>0.03124999999999289</v>
       </c>
       <c r="U71">
-        <v>1.000179719215156</v>
+        <v>0.0001797192151555826</v>
       </c>
       <c r="V71">
-        <v>1.000190009711607</v>
+        <v>0.0001900097116074306</v>
       </c>
       <c r="W71">
-        <v>1.000949367088608</v>
+        <v>0.0009493670886076</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6362,7 +6362,7 @@
         <v>1.942301920035123</v>
       </c>
       <c r="K72">
-        <v>66.01300521912236</v>
+        <v>0.1601300521912237</v>
       </c>
       <c r="L72">
         <v>0.01623740487176189</v>
@@ -6392,13 +6392,13 @@
         <v>0.03125</v>
       </c>
       <c r="U72">
-        <v>1.000169117103024</v>
+        <v>0.0001691171030240302</v>
       </c>
       <c r="V72">
-        <v>1.000211081794195</v>
+        <v>0.000211081794195378</v>
       </c>
       <c r="W72">
-        <v>0.9996838444514702</v>
+        <v>-0.0003161555485298173</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6433,7 +6433,7 @@
         <v>1.942301920035123</v>
       </c>
       <c r="K73">
-        <v>66.01300521912236</v>
+        <v>0.1601300521912237</v>
       </c>
       <c r="L73">
         <v>0.01608251044130198</v>
@@ -6463,13 +6463,13 @@
         <v>0.02874999999999517</v>
       </c>
       <c r="U73">
-        <v>1.000169088507266</v>
+        <v>0.0001690885072656023</v>
       </c>
       <c r="V73">
-        <v>1.000147726073652</v>
+        <v>0.0001477260736519881</v>
       </c>
       <c r="W73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6504,7 +6504,7 @@
         <v>1.942301920035123</v>
       </c>
       <c r="K74">
-        <v>66.01300521912236</v>
+        <v>0.1601300521912237</v>
       </c>
       <c r="L74">
         <v>0.01584860339307627</v>
@@ -6534,13 +6534,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U74">
-        <v>1.000158493676102</v>
+        <v>0.0001584936761023226</v>
       </c>
       <c r="V74">
-        <v>1.000105503038488</v>
+        <v>0.0001055030384875533</v>
       </c>
       <c r="W74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6575,7 +6575,7 @@
         <v>1.942301920035123</v>
       </c>
       <c r="K75">
-        <v>66.01300521912236</v>
+        <v>0.1601300521912237</v>
       </c>
       <c r="L75">
         <v>0.01552393917529455</v>
@@ -6605,13 +6605,13 @@
         <v>0.02375000000000682</v>
       </c>
       <c r="U75">
-        <v>1.000190162271805</v>
+        <v>0.0001901622718052387</v>
       </c>
       <c r="V75">
-        <v>1.00010549190877</v>
+        <v>0.0001054919087704054</v>
       </c>
       <c r="W75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6646,7 +6646,7 @@
         <v>2.329292685356128</v>
       </c>
       <c r="K76">
-        <v>69.96359003224639</v>
+        <v>0.1996359003224639</v>
       </c>
       <c r="L76">
         <v>0.01545460357791275</v>
@@ -6676,13 +6676,13 @@
         <v>0.02875000000000227</v>
       </c>
       <c r="U76">
-        <v>1.000221813803156</v>
+        <v>0.0002218138031562233</v>
       </c>
       <c r="V76">
-        <v>1.000147673093962</v>
+        <v>0.0001476730939622417</v>
       </c>
       <c r="W76">
-        <v>1.000948766603416</v>
+        <v>0.0009487666034155851</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -6717,7 +6717,7 @@
         <v>1.83182063626269</v>
       </c>
       <c r="K77">
-        <v>64.68702900195842</v>
+        <v>0.1468702900195842</v>
       </c>
       <c r="L77">
         <v>0.01525709227073645</v>
@@ -6747,13 +6747,13 @@
         <v>0.03249999999999886</v>
       </c>
       <c r="U77">
-        <v>1.000190083953746</v>
+        <v>0.0001900839537463117</v>
       </c>
       <c r="V77">
-        <v>1.000084372165623</v>
+        <v>8.437216562251493E-05</v>
       </c>
       <c r="W77">
-        <v>0.9993680884676146</v>
+        <v>-0.0006319115323853985</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -6788,7 +6788,7 @@
         <v>1.495592347213764</v>
       </c>
       <c r="K78">
-        <v>59.92935300044245</v>
+        <v>0.09929353000442442</v>
       </c>
       <c r="L78">
         <v>0.01470815931018357</v>
@@ -6818,13 +6818,13 @@
         <v>0.03249999999999886</v>
       </c>
       <c r="U78">
-        <v>1.000158373190586</v>
+        <v>0.0001583731905863139</v>
       </c>
       <c r="V78">
-        <v>1.00002109126189</v>
+        <v>2.109126189031585E-05</v>
       </c>
       <c r="W78">
-        <v>0.9993676889029403</v>
+        <v>-0.0006323110970597456</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6859,7 +6859,7 @@
         <v>1.495592347213763</v>
       </c>
       <c r="K79">
-        <v>59.92935300044243</v>
+        <v>0.09929353000442431</v>
       </c>
       <c r="L79">
         <v>0.0139278250345998</v>
@@ -6889,13 +6889,13 @@
         <v>0.02625000000000455</v>
       </c>
       <c r="U79">
-        <v>1.000137235030825</v>
+        <v>0.000137235030825078</v>
       </c>
       <c r="V79">
-        <v>1.000063272451175</v>
+        <v>6.32724511746563E-05</v>
       </c>
       <c r="W79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6930,7 +6930,7 @@
         <v>1.35754492318087</v>
       </c>
       <c r="K80">
-        <v>57.58299279189259</v>
+        <v>0.07582992791892595</v>
       </c>
       <c r="L80">
         <v>0.01289104215327977</v>
@@ -6960,13 +6960,13 @@
         <v>0.01875000000000426</v>
       </c>
       <c r="U80">
-        <v>1.000126661107651</v>
+        <v>0.0001266611076513602</v>
       </c>
       <c r="V80">
-        <v>1.00004217896535</v>
+        <v>4.217896534997045E-05</v>
       </c>
       <c r="W80">
-        <v>0.999683644416324</v>
+        <v>-0.0003163555836760423</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -7001,7 +7001,7 @@
         <v>1.45470580943445</v>
       </c>
       <c r="K81">
-        <v>59.26192066859556</v>
+        <v>0.09261920668595569</v>
       </c>
       <c r="L81">
         <v>0.01183344774856895</v>
@@ -7031,13 +7031,13 @@
         <v>0.01249999999999574</v>
       </c>
       <c r="U81">
-        <v>1.000116091311093</v>
+        <v>0.0001160913110931361</v>
       </c>
       <c r="V81">
-        <v>1.00002108859318</v>
+        <v>2.108859318017409E-05</v>
       </c>
       <c r="W81">
-        <v>1.000316455696203</v>
+        <v>0.0003164556962025333</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -7072,7 +7072,7 @@
         <v>1.319730842800092</v>
       </c>
       <c r="K82">
-        <v>56.89155045277047</v>
+        <v>0.06891550452770467</v>
       </c>
       <c r="L82">
         <v>0.01067227273290295</v>
@@ -7102,13 +7102,13 @@
         <v>0.007500000000000284</v>
       </c>
       <c r="U82">
-        <v>1.000084420243974</v>
+        <v>8.442024397448122E-05</v>
       </c>
       <c r="V82">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W82">
-        <v>0.999683644416324</v>
+        <v>-0.0003163555836760423</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -7143,7 +7143,7 @@
         <v>1.417399327606604</v>
       </c>
       <c r="K83">
-        <v>58.63323082040936</v>
+        <v>0.08633230820409354</v>
       </c>
       <c r="L83">
         <v>0.009598837500563742</v>
@@ -7173,13 +7173,13 @@
         <v>0.003749999999996589</v>
       </c>
       <c r="U83">
-        <v>1.000084413117798</v>
+        <v>8.441311779838756E-05</v>
       </c>
       <c r="V83">
-        <v>1.000042176296921</v>
+        <v>4.217629692115921E-05</v>
       </c>
       <c r="W83">
-        <v>1.000316455696203</v>
+        <v>0.0003164556962025333</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -7214,7 +7214,7 @@
         <v>1.175662182354234</v>
       </c>
       <c r="K84">
-        <v>54.0369820227365</v>
+        <v>0.04036982022736491</v>
       </c>
       <c r="L84">
         <v>0.008381448167763046</v>
@@ -7244,13 +7244,13 @@
         <v>-0.01125000000000398</v>
       </c>
       <c r="U84">
-        <v>1.000052753745516</v>
+        <v>5.27537455161653E-05</v>
       </c>
       <c r="V84">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W84">
-        <v>0.9993672888326479</v>
+        <v>-0.0006327111673520847</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -7285,7 +7285,7 @@
         <v>0.8650603762052069</v>
       </c>
       <c r="K85">
-        <v>46.38243282854597</v>
+        <v>-0.03617567171454028</v>
       </c>
       <c r="L85">
         <v>0.006662882975648702</v>
@@ -7315,13 +7315,13 @@
         <v>-0.02624999999999744</v>
       </c>
       <c r="U85">
-        <v>0.9999788996149178</v>
+        <v>-2.110038508218448E-05</v>
       </c>
       <c r="V85">
-        <v>0.9998945637046095</v>
+        <v>-0.0001054362953905041</v>
       </c>
       <c r="W85">
-        <v>0.9987337765115543</v>
+        <v>-0.001266223488445739</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7356,7 +7356,7 @@
         <v>0.8650603762052069</v>
       </c>
       <c r="K86">
-        <v>46.38243282854597</v>
+        <v>-0.03617567171454028</v>
       </c>
       <c r="L86">
         <v>0.004726092225670943</v>
@@ -7386,13 +7386,13 @@
         <v>-0.03499999999999659</v>
       </c>
       <c r="U86">
-        <v>1.000010550415159</v>
+        <v>1.055041515907185E-05</v>
       </c>
       <c r="V86">
-        <v>0.9998312841386001</v>
+        <v>-0.0001687158613998818</v>
       </c>
       <c r="W86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7427,7 +7427,7 @@
         <v>1.011427730319521</v>
       </c>
       <c r="K87">
-        <v>50.28407011962855</v>
+        <v>0.002840701196285544</v>
       </c>
       <c r="L87">
         <v>0.002993883490028293</v>
@@ -7457,13 +7457,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U87">
-        <v>1.000052751519244</v>
+        <v>5.275151924366561E-05</v>
       </c>
       <c r="V87">
-        <v>0.9998945347929717</v>
+        <v>-0.0001054652070282547</v>
       </c>
       <c r="W87">
-        <v>1.000633914421553</v>
+        <v>0.0006339144215530279</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7498,7 +7498,7 @@
         <v>1.011427730319521</v>
       </c>
       <c r="K88">
-        <v>50.28407011962855</v>
+        <v>0.002840701196285544</v>
       </c>
       <c r="L88">
         <v>0.001485071811222802</v>
@@ -7528,13 +7528,13 @@
         <v>-0.03874999999999318</v>
       </c>
       <c r="U88">
-        <v>1.000021099494667</v>
+        <v>2.10994946672205E-05</v>
       </c>
       <c r="V88">
-        <v>0.9998945236688886</v>
+        <v>-0.0001054763311113538</v>
       </c>
       <c r="W88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7569,7 +7569,7 @@
         <v>0.8702850012756541</v>
       </c>
       <c r="K89">
-        <v>46.53221304143829</v>
+        <v>-0.03467786958561708</v>
       </c>
       <c r="L89">
         <v>-2.820231788213077E-05</v>
@@ -7599,13 +7599,13 @@
         <v>-0.04499999999998749</v>
       </c>
       <c r="U89">
-        <v>0.9999789009505121</v>
+        <v>-2.109904948788266E-05</v>
       </c>
       <c r="V89">
-        <v>0.9998523175594424</v>
+        <v>-0.0001476824405576282</v>
       </c>
       <c r="W89">
-        <v>0.9993664871713652</v>
+        <v>-0.0006335128286347746</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7640,7 +7640,7 @@
         <v>0.8702850012756542</v>
       </c>
       <c r="K90">
-        <v>46.53221304143829</v>
+        <v>-0.03467786958561708</v>
       </c>
       <c r="L90">
         <v>-0.001447680605441178</v>
@@ -7670,13 +7670,13 @@
         <v>-0.04874999999999829</v>
       </c>
       <c r="U90">
-        <v>0.9999789005053329</v>
+        <v>-2.109949466710948E-05</v>
       </c>
       <c r="V90">
-        <v>0.9998522957461174</v>
+        <v>-0.0001477042538825524</v>
       </c>
       <c r="W90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -7711,7 +7711,7 @@
         <v>0.8702850012756542</v>
       </c>
       <c r="K91">
-        <v>46.53221304143829</v>
+        <v>-0.03467786958561708</v>
       </c>
       <c r="L91">
         <v>-0.002714661972521937</v>
@@ -7741,13 +7741,13 @@
         <v>-0.05499999999999972</v>
       </c>
       <c r="U91">
-        <v>0.9999683500902024</v>
+        <v>-3.164990979764859E-05</v>
       </c>
       <c r="V91">
-        <v>0.9997889627519256</v>
+        <v>-0.0002110372480743639</v>
       </c>
       <c r="W91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -7782,7 +7782,7 @@
         <v>0.8702850012756542</v>
       </c>
       <c r="K92">
-        <v>46.53221304143829</v>
+        <v>-0.03467786958561708</v>
       </c>
       <c r="L92">
         <v>-0.003798693877877706</v>
@@ -7812,13 +7812,13 @@
         <v>-0.05250000000000199</v>
       </c>
       <c r="U92">
-        <v>0.9999577987846048</v>
+        <v>-4.220121539522115E-05</v>
       </c>
       <c r="V92">
-        <v>0.9998311345646438</v>
+        <v>-0.0001688654353562136</v>
       </c>
       <c r="W92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7853,7 +7853,7 @@
         <v>1.127277526494721</v>
       </c>
       <c r="K93">
-        <v>52.99155904458893</v>
+        <v>0.02991559044588932</v>
       </c>
       <c r="L93">
         <v>-0.004343244514698552</v>
@@ -7883,13 +7883,13 @@
         <v>-0.03875000000000028</v>
       </c>
       <c r="U93">
-        <v>0.9999788985017937</v>
+        <v>-2.110149820633289E-05</v>
       </c>
       <c r="V93">
-        <v>0.9999366647666097</v>
+        <v>-6.333523339030478E-05</v>
       </c>
       <c r="W93">
-        <v>1.00095087163233</v>
+        <v>0.0009508716323296529</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7924,7 +7924,7 @@
         <v>1.397795974093771</v>
       </c>
       <c r="K94">
-        <v>58.29503382255272</v>
+        <v>0.08295033822552722</v>
       </c>
       <c r="L94">
         <v>-0.004164634062388862</v>
@@ -7954,13 +7954,13 @@
         <v>-0.02374999999999972</v>
       </c>
       <c r="U94">
-        <v>1.000031652915234</v>
+        <v>3.165291523354874E-05</v>
       </c>
       <c r="V94">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W94">
-        <v>1.000949968334389</v>
+        <v>0.0009499683343889842</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7995,7 +7995,7 @@
         <v>1.397795974093771</v>
       </c>
       <c r="K95">
-        <v>58.29503382255271</v>
+        <v>0.08295033822552711</v>
       </c>
       <c r="L95">
         <v>-0.003544060480036893</v>
@@ -8025,13 +8025,13 @@
         <v>-0.01375000000000171</v>
       </c>
       <c r="U95">
-        <v>1.000031651913358</v>
+        <v>3.165191335829931E-05</v>
       </c>
       <c r="V95">
-        <v>1.000021113081665</v>
+        <v>2.111308166519166E-05</v>
       </c>
       <c r="W95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -8066,7 +8066,7 @@
         <v>1.164996034200232</v>
       </c>
       <c r="K96">
-        <v>53.81053894773491</v>
+        <v>0.03810538947734909</v>
       </c>
       <c r="L96">
         <v>-0.002912875946369726</v>
@@ -8096,13 +8096,13 @@
         <v>-0.007500000000000284</v>
       </c>
       <c r="U96">
-        <v>0.9999894496961511</v>
+        <v>-1.055030384888855E-05</v>
       </c>
       <c r="V96">
-        <v>0.9999577747281748</v>
+        <v>-4.222527182518032E-05</v>
       </c>
       <c r="W96">
-        <v>0.9993672888326479</v>
+        <v>-0.0006327111673520847</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -8137,7 +8137,7 @@
         <v>1.164996034200232</v>
       </c>
       <c r="K97">
-        <v>53.81053894773491</v>
+        <v>0.03810538947734909</v>
       </c>
       <c r="L97">
         <v>-0.002304869275694591</v>
@@ -8167,13 +8167,13 @@
         <v>0.005000000000009663</v>
       </c>
       <c r="U97">
-        <v>0.9999894495848412</v>
+        <v>-1.05504151588498E-05</v>
       </c>
       <c r="V97">
-        <v>0.9999788864725629</v>
+        <v>-2.111352743705552E-05</v>
       </c>
       <c r="W97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -8208,7 +8208,7 @@
         <v>0.9835003202189689</v>
       </c>
       <c r="K98">
-        <v>49.58407670488277</v>
+        <v>-0.00415923295117232</v>
       </c>
       <c r="L98">
         <v>-0.001971819787683134</v>
@@ -8238,13 +8238,13 @@
         <v>0.01375000000000171</v>
       </c>
       <c r="U98">
-        <v>0.9999788989470576</v>
+        <v>-2.110105294239606E-05</v>
       </c>
       <c r="V98">
-        <v>0.99991554410709</v>
+        <v>-8.445589290995148E-05</v>
       </c>
       <c r="W98">
-        <v>0.9993668882557771</v>
+        <v>-0.0006331117442228695</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -8279,7 +8279,7 @@
         <v>0.9835003202189689</v>
       </c>
       <c r="K99">
-        <v>49.58407670488277</v>
+        <v>-0.00415923295117232</v>
       </c>
       <c r="L99">
         <v>-0.001819403323357002</v>
@@ -8309,13 +8309,13 @@
         <v>0.02374999999999261</v>
       </c>
       <c r="U99">
-        <v>0.9999788985017934</v>
+        <v>-2.110149820655494E-05</v>
       </c>
       <c r="V99">
-        <v>0.9999577684868449</v>
+        <v>-4.223151315507767E-05</v>
       </c>
       <c r="W99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8350,7 +8350,7 @@
         <v>0.9835003202189689</v>
       </c>
       <c r="K100">
-        <v>49.58407670488277</v>
+        <v>-0.00415923295117232</v>
       </c>
       <c r="L100">
         <v>-0.001779515059286516</v>
@@ -8380,13 +8380,13 @@
         <v>0.03125</v>
       </c>
       <c r="U100">
-        <v>0.9999683470847665</v>
+        <v>-3.165291523354874E-05</v>
       </c>
       <c r="V100">
-        <v>1.000042233296731</v>
+        <v>4.223329673114229E-05</v>
       </c>
       <c r="W100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8421,7 +8421,7 @@
         <v>0.7213514388441259</v>
       </c>
       <c r="K101">
-        <v>41.90611066201029</v>
+        <v>-0.08093889337989707</v>
       </c>
       <c r="L101">
         <v>-0.002265028285087798</v>
@@ -8451,13 +8451,13 @@
         <v>0.02124999999999488</v>
       </c>
       <c r="U101">
-        <v>0.9998944869427592</v>
+        <v>-0.0001055130572408247</v>
       </c>
       <c r="V101">
-        <v>0.9999577684868448</v>
+        <v>-4.223151315518869E-05</v>
       </c>
       <c r="W101">
-        <v>0.9987329743427305</v>
+        <v>-0.001267025657269549</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8492,7 +8492,7 @@
         <v>0.8616392380689653</v>
       </c>
       <c r="K102">
-        <v>46.28389971854715</v>
+        <v>-0.03716100281452844</v>
       </c>
       <c r="L102">
         <v>-0.002799111943952799</v>
@@ -8522,13 +8522,13 @@
         <v>0.006250000000001421</v>
       </c>
       <c r="U102">
-        <v>0.9999261330660054</v>
+        <v>-7.386693399458188E-05</v>
       </c>
       <c r="V102">
-        <v>0.999957766703269</v>
+        <v>-4.223329673103127E-05</v>
       </c>
       <c r="W102">
-        <v>1.000634316523946</v>
+        <v>0.0006343165239455217</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8563,7 +8563,7 @@
         <v>0.7507717473748545</v>
       </c>
       <c r="K103">
-        <v>42.88233166319814</v>
+        <v>-0.07117668336801863</v>
       </c>
       <c r="L103">
         <v>-0.003549013088716903</v>
@@ -8593,13 +8593,13 @@
         <v>-0.008750000000006253</v>
       </c>
       <c r="U103">
-        <v>0.9999050212119295</v>
+        <v>-9.497878807052107E-05</v>
       </c>
       <c r="V103">
-        <v>0.9999155298390843</v>
+        <v>-8.447016091572834E-05</v>
       </c>
       <c r="W103">
-        <v>0.999366085578447</v>
+        <v>-0.0006339144215530279</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8634,7 +8634,7 @@
         <v>0.8862143045694629</v>
       </c>
       <c r="K104">
-        <v>46.98375483753663</v>
+        <v>-0.03016245162463371</v>
       </c>
       <c r="L104">
         <v>-0.004138408888881876</v>
@@ -8664,13 +8664,13 @@
         <v>-0.01624999999999943</v>
       </c>
       <c r="U104">
-        <v>0.9999261205923017</v>
+        <v>-7.387940769831847E-05</v>
       </c>
       <c r="V104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W104">
-        <v>1.000634316523946</v>
+        <v>0.0006343165239455217</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -8705,7 +8705,7 @@
         <v>1.028785417405893</v>
       </c>
       <c r="K105">
-        <v>50.70942488936803</v>
+        <v>0.007094248893680266</v>
       </c>
       <c r="L105">
         <v>-0.004347355661288365</v>
@@ -8735,13 +8735,13 @@
         <v>-0.02374999999999972</v>
       </c>
       <c r="U105">
-        <v>0.9999472250955226</v>
+        <v>-5.277490447741506E-05</v>
       </c>
       <c r="V105">
-        <v>1.000042238648363</v>
+        <v>4.223864836316871E-05</v>
       </c>
       <c r="W105">
-        <v>1.000633914421553</v>
+        <v>0.0006339144215530279</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -8776,7 +8776,7 @@
         <v>1.028785417405893</v>
       </c>
       <c r="K106">
-        <v>50.70942488936803</v>
+        <v>0.007094248893680266</v>
       </c>
       <c r="L106">
         <v>-0.004296655767063287</v>
@@ -8806,13 +8806,13 @@
         <v>-0.02625000000000455</v>
       </c>
       <c r="U106">
-        <v>0.999915555696296</v>
+        <v>-8.444430370402323E-05</v>
       </c>
       <c r="V106">
-        <v>1.000042236864335</v>
+        <v>4.223686433535434E-05</v>
       </c>
       <c r="W106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8847,7 +8847,7 @@
         <v>1.107772183520245</v>
       </c>
       <c r="K107">
-        <v>52.55654250404451</v>
+        <v>0.02556542504044512</v>
       </c>
       <c r="L107">
         <v>-0.003960907482283818</v>
@@ -8877,13 +8877,13 @@
         <v>-0.02749999999999631</v>
       </c>
       <c r="U107">
-        <v>0.9999472178530334</v>
+        <v>-5.278214696657901E-05</v>
       </c>
       <c r="V107">
-        <v>1.000063352620687</v>
+        <v>6.335262068657421E-05</v>
       </c>
       <c r="W107">
-        <v>1.000316756414317</v>
+        <v>0.0003167564143173873</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8918,7 +8918,7 @@
         <v>1.274060112182096</v>
       </c>
       <c r="K108">
-        <v>56.0257886481092</v>
+        <v>0.06025788648109198</v>
       </c>
       <c r="L108">
         <v>-0.003228770809583071</v>
@@ -8948,13 +8948,13 @@
         <v>-0.02624999999999034</v>
       </c>
       <c r="U108">
-        <v>0.9999894430133863</v>
+        <v>-1.055698661367455E-05</v>
       </c>
       <c r="V108">
-        <v>1.000042232404924</v>
+        <v>4.22324049242917E-05</v>
       </c>
       <c r="W108">
-        <v>1.000633312222926</v>
+        <v>0.0006333122229260635</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8989,7 +8989,7 @@
         <v>1.274060112182096</v>
       </c>
       <c r="K109">
-        <v>56.0257886481092</v>
+        <v>0.06025788648109198</v>
       </c>
       <c r="L109">
         <v>-0.00229134076646303</v>
@@ -9019,13 +9019,13 @@
         <v>-0.01124999999999687</v>
       </c>
       <c r="U109">
-        <v>0.9999894429019351</v>
+        <v>-1.055709806485616E-05</v>
       </c>
       <c r="V109">
-        <v>0.9999788846892882</v>
+        <v>-2.111531071180561E-05</v>
       </c>
       <c r="W109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -9060,7 +9060,7 @@
         <v>1.075834803527364</v>
       </c>
       <c r="K110">
-        <v>51.82660979087791</v>
+        <v>0.01826609790877909</v>
       </c>
       <c r="L110">
         <v>-0.001511560685435819</v>
@@ -9090,13 +9090,13 @@
         <v>7.105427357601002E-15</v>
       </c>
       <c r="U110">
-        <v>0.9999788855809633</v>
+        <v>-2.11144190367385E-05</v>
       </c>
       <c r="V110">
-        <v>0.9999366527302673</v>
+        <v>-6.334726973267202E-05</v>
       </c>
       <c r="W110">
-        <v>0.9993670886075948</v>
+        <v>-0.0006329113924051777</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -9131,7 +9131,7 @@
         <v>0.9944057807433578</v>
       </c>
       <c r="K111">
-        <v>49.85975223019668</v>
+        <v>-0.001402477698033144</v>
       </c>
       <c r="L111">
         <v>-0.0009868109897244487</v>
@@ -9161,13 +9161,13 @@
         <v>0.01500000000000057</v>
       </c>
       <c r="U111">
-        <v>0.9999577702702703</v>
+        <v>-4.222972972967032E-05</v>
       </c>
       <c r="V111">
-        <v>0.9999577658114243</v>
+        <v>-4.223418857574046E-05</v>
       </c>
       <c r="W111">
-        <v>0.9996833438885371</v>
+        <v>-0.0003166561114629207</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -9202,7 +9202,7 @@
         <v>1.233424151995863</v>
       </c>
       <c r="K112">
-        <v>55.22570134712808</v>
+        <v>0.05225701347128076</v>
       </c>
       <c r="L112">
         <v>-0.0003004349992574404</v>
@@ -9232,13 +9232,13 @@
         <v>0.02624999999999744</v>
       </c>
       <c r="U112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V112">
-        <v>1.000021117986189</v>
+        <v>2.111798618886773E-05</v>
       </c>
       <c r="W112">
-        <v>1.000950269242952</v>
+        <v>0.000950269242952162</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -9273,7 +9273,7 @@
         <v>1.233424151995863</v>
       </c>
       <c r="K113">
-        <v>55.22570134712808</v>
+        <v>0.05225701347128076</v>
       </c>
       <c r="L113">
         <v>0.0004412136514324034</v>
@@ -9303,13 +9303,13 @@
         <v>0.03249999999999176</v>
       </c>
       <c r="U113">
-        <v>0.9999894421217111</v>
+        <v>-1.055787828885268E-05</v>
       </c>
       <c r="V113">
-        <v>1.000063352620687</v>
+        <v>6.335262068679626E-05</v>
       </c>
       <c r="W113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9344,7 +9344,7 @@
         <v>1.133370123909736</v>
       </c>
       <c r="K114">
-        <v>53.12580837274768</v>
+        <v>0.03125808372747685</v>
       </c>
       <c r="L114">
         <v>0.001052141666133721</v>
@@ -9374,13 +9374,13 @@
         <v>0.03499999999999659</v>
       </c>
       <c r="U114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V114">
-        <v>1.000042232404924</v>
+        <v>4.22324049242917E-05</v>
       </c>
       <c r="W114">
-        <v>0.9996835443037975</v>
+        <v>-0.0003164556962025333</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9415,7 +9415,7 @@
         <v>1.218758454755959</v>
       </c>
       <c r="K115">
-        <v>54.92974920922656</v>
+        <v>0.04929749209226553</v>
       </c>
       <c r="L115">
         <v>0.001656429670236574</v>
@@ -9445,13 +9445,13 @@
         <v>0.03625000000000256</v>
       </c>
       <c r="U115">
-        <v>1.000052789948794</v>
+        <v>5.278994879387433E-05</v>
       </c>
       <c r="V115">
-        <v>1.000063345932135</v>
+        <v>6.334593213530582E-05</v>
       </c>
       <c r="W115">
-        <v>1.000316555872111</v>
+        <v>0.0003165558721114348</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9486,7 +9486,7 @@
         <v>1.033051964402772</v>
       </c>
       <c r="K116">
-        <v>50.81286570588178</v>
+        <v>0.008128657058817823</v>
       </c>
       <c r="L116">
         <v>0.001981488617171034</v>
@@ -9516,13 +9516,13 @@
         <v>0.03000000000000114</v>
       </c>
       <c r="U116">
-        <v>1.000031672297297</v>
+        <v>3.167229729728049E-05</v>
       </c>
       <c r="V116">
-        <v>1.000105569866137</v>
+        <v>0.0001055698661374116</v>
       </c>
       <c r="W116">
-        <v>0.9993670886075948</v>
+        <v>-0.0006329113924051777</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9557,7 +9557,7 @@
         <v>0.9563555235883076</v>
       </c>
       <c r="K117">
-        <v>48.88454639544145</v>
+        <v>-0.01115453604558553</v>
       </c>
       <c r="L117">
         <v>0.001994131044024627</v>
@@ -9587,13 +9587,13 @@
         <v>0.01749999999999829</v>
       </c>
       <c r="U117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V117">
-        <v>1.000042223488927</v>
+        <v>4.222348892701788E-05</v>
       </c>
       <c r="W117">
-        <v>0.9996833438885371</v>
+        <v>-0.0003166561114629207</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9628,7 +9628,7 @@
         <v>1.268955851068875</v>
       </c>
       <c r="K118">
-        <v>55.92686391280319</v>
+        <v>0.05926863912803182</v>
       </c>
       <c r="L118">
         <v>0.002270731283009204</v>
@@ -9658,13 +9658,13 @@
         <v>0.01749999999999829</v>
       </c>
       <c r="U118">
-        <v>1.000042228392259</v>
+        <v>4.222839225942465E-05</v>
       </c>
       <c r="V118">
-        <v>1.000168886824716</v>
+        <v>0.0001688868247164965</v>
       </c>
       <c r="W118">
-        <v>1.00126702565727</v>
+        <v>0.001267025657269549</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -9699,7 +9699,7 @@
         <v>1.268955851068875</v>
       </c>
       <c r="K119">
-        <v>55.92686391280319</v>
+        <v>0.05926863912803182</v>
       </c>
       <c r="L119">
         <v>0.002681326514044733</v>
@@ -9729,13 +9729,13 @@
         <v>0.01749999999999829</v>
       </c>
       <c r="U119">
-        <v>1.000063339913647</v>
+        <v>6.333991364670943E-05</v>
       </c>
       <c r="V119">
-        <v>1.00012664373008</v>
+        <v>0.0001266437300799783</v>
       </c>
       <c r="W119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -9770,7 +9770,7 @@
         <v>1.167830071869946</v>
       </c>
       <c r="K120">
-        <v>53.87092314217178</v>
+        <v>0.03870923142171778</v>
       </c>
       <c r="L120">
         <v>0.003021831408699438</v>
@@ -9800,13 +9800,13 @@
         <v>0.01124999999999687</v>
       </c>
       <c r="U120">
-        <v>1.000052779918297</v>
+        <v>5.277991829655271E-05</v>
       </c>
       <c r="V120">
-        <v>1.000063313846738</v>
+        <v>6.331384673829987E-05</v>
       </c>
       <c r="W120">
-        <v>0.999683644416324</v>
+        <v>-0.0003163555836760423</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9841,7 +9841,7 @@
         <v>0.822744526032907</v>
       </c>
       <c r="K121">
-        <v>45.13767641500264</v>
+        <v>-0.04862323584997363</v>
       </c>
       <c r="L121">
         <v>0.002710601300459896</v>
@@ -9871,13 +9871,13 @@
         <v>0.001249999999998863</v>
       </c>
       <c r="U121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V121">
-        <v>0.9999577934411007</v>
+        <v>-4.22065588993048E-05</v>
       </c>
       <c r="W121">
-        <v>0.9984177215189873</v>
+        <v>-0.001582278481012667</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9912,7 +9912,7 @@
         <v>0.822744526032907</v>
       </c>
       <c r="K122">
-        <v>45.13767641500264</v>
+        <v>-0.04862323584997363</v>
       </c>
       <c r="L122">
         <v>0.002014544392776125</v>
@@ -9942,13 +9942,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V122">
-        <v>0.999936687489448</v>
+        <v>-6.331251055202713E-05</v>
       </c>
       <c r="W122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9983,7 +9983,7 @@
         <v>0.8227445260329072</v>
       </c>
       <c r="K123">
-        <v>45.13767641500264</v>
+        <v>-0.04862323584997363</v>
       </c>
       <c r="L123">
         <v>0.001122399013315434</v>
@@ -10013,13 +10013,13 @@
         <v>-0.01500000000000767</v>
       </c>
       <c r="U123">
-        <v>0.9999683337203656</v>
+        <v>-3.166627963435698E-05</v>
       </c>
       <c r="V123">
-        <v>0.999894472467867</v>
+        <v>-0.0001055275321329985</v>
       </c>
       <c r="W123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -10054,7 +10054,7 @@
         <v>1.098463266454285</v>
       </c>
       <c r="K124">
-        <v>52.34608029667004</v>
+        <v>0.02346080296670039</v>
       </c>
       <c r="L124">
         <v>0.0006254485447646976</v>
@@ -10084,13 +10084,13 @@
         <v>-0.01125000000000398</v>
       </c>
       <c r="U124">
-        <v>0.9999788884783871</v>
+        <v>-2.11115216128821E-05</v>
       </c>
       <c r="V124">
-        <v>0.9999788922661261</v>
+        <v>-2.110773387387077E-05</v>
       </c>
       <c r="W124">
-        <v>1.001267828843106</v>
+        <v>0.001267828843106056</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -10125,7 +10125,7 @@
         <v>1.098463266454285</v>
       </c>
       <c r="K125">
-        <v>52.34608029667004</v>
+        <v>0.02346080296670039</v>
       </c>
       <c r="L125">
         <v>0.0003972936070137519</v>
@@ -10155,13 +10155,13 @@
         <v>-0.005000000000002558</v>
       </c>
       <c r="U125">
-        <v>0.9999788880326812</v>
+        <v>-2.111196731879872E-05</v>
       </c>
       <c r="V125">
-        <v>1.00002110817942</v>
+        <v>2.110817941969323E-05</v>
       </c>
       <c r="W125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -10196,7 +10196,7 @@
         <v>0.7949038604256659</v>
       </c>
       <c r="K126">
-        <v>44.28670960890086</v>
+        <v>-0.05713290391099135</v>
       </c>
       <c r="L126">
         <v>-0.0002314489676636688</v>
@@ -10226,13 +10226,13 @@
         <v>-0.0175000000000054</v>
       </c>
       <c r="U126">
-        <v>0.999947218967392</v>
+        <v>-5.278103260797362E-05</v>
       </c>
       <c r="V126">
-        <v>0.9999366767983788</v>
+        <v>-6.332320162116822E-05</v>
       </c>
       <c r="W126">
-        <v>0.9984172206394428</v>
+        <v>-0.001582779360557174</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -10267,7 +10267,7 @@
         <v>0.6157778626208685</v>
       </c>
       <c r="K127">
-        <v>38.11030444630845</v>
+        <v>-0.1188969555369155</v>
       </c>
       <c r="L127">
         <v>-0.001638492205412992</v>
@@ -10297,13 +10297,13 @@
         <v>-0.03750000000000142</v>
       </c>
       <c r="U127">
-        <v>0.9998944323628148</v>
+        <v>-0.0001055676371851666</v>
       </c>
       <c r="V127">
-        <v>0.9997678002237561</v>
+        <v>-0.000232199776243891</v>
       </c>
       <c r="W127">
-        <v>0.9984147114774888</v>
+        <v>-0.001585288522511163</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10338,7 +10338,7 @@
         <v>0.6632184881573564</v>
       </c>
       <c r="K128">
-        <v>39.87560821862446</v>
+        <v>-0.1012439178137554</v>
       </c>
       <c r="L128">
         <v>-0.003306172153959708</v>
@@ -10368,13 +10368,13 @@
         <v>-0.04999999999999716</v>
       </c>
       <c r="U128">
-        <v>0.9999260948519784</v>
+        <v>-7.390514802163572E-05</v>
       </c>
       <c r="V128">
-        <v>0.9997888602677252</v>
+        <v>-0.0002111397322748232</v>
       </c>
       <c r="W128">
-        <v>1.000317561130518</v>
+        <v>0.0003175611305177295</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10409,7 +10409,7 @@
         <v>0.7630934892867869</v>
       </c>
       <c r="K129">
-        <v>43.28151025022935</v>
+        <v>-0.06718489749770656</v>
       </c>
       <c r="L129">
         <v>-0.004782935250360552</v>
@@ -10439,13 +10439,13 @@
         <v>-0.04749999999999233</v>
       </c>
       <c r="U129">
-        <v>0.9999472067068601</v>
+        <v>-5.279329313989667E-05</v>
       </c>
       <c r="V129">
-        <v>0.9998521709748269</v>
+        <v>-0.0001478290251730741</v>
       </c>
       <c r="W129">
-        <v>1.000634920634921</v>
+        <v>0.0006349206349205438</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10480,7 +10480,7 @@
         <v>0.8682250694230295</v>
       </c>
       <c r="K130">
-        <v>46.47325868992682</v>
+        <v>-0.03526741310073178</v>
       </c>
       <c r="L130">
         <v>-0.005801988096245336</v>
@@ -10510,13 +10510,13 @@
         <v>-0.04375000000000284</v>
       </c>
       <c r="U130">
-        <v>0.9999683223517486</v>
+        <v>-3.167764825140473E-05</v>
       </c>
       <c r="V130">
-        <v>0.9998732706727215</v>
+        <v>-0.0001267293272785297</v>
       </c>
       <c r="W130">
-        <v>1.000634517766497</v>
+        <v>0.0006345177664974777</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10551,7 +10551,7 @@
         <v>0.8682250694230295</v>
       </c>
       <c r="K131">
-        <v>46.47325868992682</v>
+        <v>-0.03526741310073178</v>
       </c>
       <c r="L131">
         <v>-0.006457729112477047</v>
@@ -10581,13 +10581,13 @@
         <v>-0.03875000000000028</v>
       </c>
       <c r="U131">
-        <v>1.000010559550585</v>
+        <v>1.055955058548719E-05</v>
       </c>
       <c r="V131">
-        <v>0.9999155030735758</v>
+        <v>-8.449692642420459E-05</v>
       </c>
       <c r="W131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10622,7 +10622,7 @@
         <v>0.8682250694230295</v>
       </c>
       <c r="K132">
-        <v>46.47325868992682</v>
+        <v>-0.03526741310073178</v>
       </c>
       <c r="L132">
         <v>-0.006828090233720567</v>
@@ -10652,13 +10652,13 @@
         <v>-0.04625000000000057</v>
       </c>
       <c r="U132">
-        <v>0.9999894405609175</v>
+        <v>-1.055943908245816E-05</v>
       </c>
       <c r="V132">
-        <v>0.9999366219499313</v>
+        <v>-6.337805006872976E-05</v>
       </c>
       <c r="W132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10693,7 +10693,7 @@
         <v>0.9295352196701564</v>
       </c>
       <c r="K133">
-        <v>48.17404783256848</v>
+        <v>-0.01825952167431522</v>
       </c>
       <c r="L133">
         <v>-0.006861771250759915</v>
@@ -10723,13 +10723,13 @@
         <v>-0.05375000000000085</v>
       </c>
       <c r="U133">
-        <v>1.000021119101171</v>
+        <v>2.111910117075233E-05</v>
       </c>
       <c r="V133">
-        <v>0.999873235865799</v>
+        <v>-0.0001267641342009851</v>
       </c>
       <c r="W133">
-        <v>1.000317057704502</v>
+        <v>0.0003170577045021883</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -10764,7 +10764,7 @@
         <v>0.9295352196701564</v>
       </c>
       <c r="K134">
-        <v>48.17404783256848</v>
+        <v>-0.01825952167431522</v>
       </c>
       <c r="L134">
         <v>-0.006664326058255374</v>
@@ -10794,13 +10794,13 @@
         <v>-0.04374999999999574</v>
       </c>
       <c r="U134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V134">
-        <v>0.9998732197946162</v>
+        <v>-0.0001267802053838141</v>
       </c>
       <c r="W134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10835,7 +10835,7 @@
         <v>0.9295352196701564</v>
       </c>
       <c r="K135">
-        <v>48.17404783256848</v>
+        <v>-0.01825952167431522</v>
       </c>
       <c r="L135">
         <v>-0.006315149238037786</v>
@@ -10865,13 +10865,13 @@
         <v>-0.02125000000000199</v>
       </c>
       <c r="U135">
-        <v>0.999978881344836</v>
+        <v>-2.111865516396527E-05</v>
       </c>
       <c r="V135">
-        <v>0.999894336432798</v>
+        <v>-0.0001056635672019857</v>
       </c>
       <c r="W135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10906,7 +10906,7 @@
         <v>1.072553502795081</v>
       </c>
       <c r="K136">
-        <v>51.75034088860033</v>
+        <v>0.01750340888600332</v>
       </c>
       <c r="L136">
         <v>-0.005642563737325097</v>
@@ -10936,13 +10936,13 @@
         <v>0</v>
       </c>
       <c r="U136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V136">
-        <v>1.000042269893268</v>
+        <v>4.226989326849839E-05</v>
       </c>
       <c r="W136">
-        <v>1.000633914421553</v>
+        <v>0.0006339144215530279</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10977,7 +10977,7 @@
         <v>0.7792659343130023</v>
       </c>
       <c r="K137">
-        <v>43.79704682054102</v>
+        <v>-0.06202953179458981</v>
       </c>
       <c r="L137">
         <v>-0.005373132477586333</v>
@@ -11007,13 +11007,13 @@
         <v>0.003749999999996589</v>
       </c>
       <c r="U137">
-        <v>0.9999366426964869</v>
+        <v>-6.335730351314517E-05</v>
       </c>
       <c r="V137">
-        <v>0.9999365978400997</v>
+        <v>-6.34021599003054E-05</v>
       </c>
       <c r="W137">
-        <v>0.9984162179284131</v>
+        <v>-0.001583782071586937</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -11048,7 +11048,7 @@
         <v>0.6988079891299338</v>
       </c>
       <c r="K138">
-        <v>41.13519559605069</v>
+        <v>-0.08864804403949306</v>
       </c>
       <c r="L138">
         <v>-0.005576352615163708</v>
@@ -11078,13 +11078,13 @@
         <v>0</v>
       </c>
       <c r="U138">
-        <v>0.9998943978034743</v>
+        <v>-0.000105602196525667</v>
       </c>
       <c r="V138">
-        <v>0.9998943230333517</v>
+        <v>-0.0001056769666483159</v>
       </c>
       <c r="W138">
-        <v>0.9993654822335025</v>
+        <v>-0.0006345177664974777</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -11119,7 +11119,7 @@
         <v>0.7531492416778163</v>
       </c>
       <c r="K139">
-        <v>42.95979051715129</v>
+        <v>-0.07040209482848708</v>
       </c>
       <c r="L139">
         <v>-0.005917375806694371</v>
@@ -11149,13 +11149,13 @@
         <v>-0.002499999999990621</v>
       </c>
       <c r="U139">
-        <v>0.9999049479854254</v>
+        <v>-9.505201457460366E-05</v>
       </c>
       <c r="V139">
-        <v>0.9998308989832801</v>
+        <v>-0.0001691010167198526</v>
       </c>
       <c r="W139">
-        <v>1.00031746031746</v>
+        <v>0.0003174603174602719</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -11190,7 +11190,7 @@
         <v>0.8103505601492513</v>
       </c>
       <c r="K140">
-        <v>44.76207967601829</v>
+        <v>-0.0523792032398171</v>
       </c>
       <c r="L140">
         <v>-0.006183280683680029</v>
@@ -11220,13 +11220,13 @@
         <v>0.001249999999998863</v>
       </c>
       <c r="U140">
-        <v>0.9999366259664541</v>
+        <v>-6.337403354594873E-05</v>
       </c>
       <c r="V140">
-        <v>0.9998520115853788</v>
+        <v>-0.0001479884146211585</v>
       </c>
       <c r="W140">
-        <v>1.000317359568391</v>
+        <v>0.0003173595683909625</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -11261,7 +11261,7 @@
         <v>0.9307743885101887</v>
       </c>
       <c r="K141">
-        <v>48.20730967062322</v>
+        <v>-0.01792690329376773</v>
       </c>
       <c r="L141">
         <v>-0.006133460657990503</v>
@@ -11291,13 +11291,13 @@
         <v>0.005000000000002558</v>
       </c>
       <c r="U141">
-        <v>0.9999683109749655</v>
+        <v>-3.16890250344759E-05</v>
       </c>
       <c r="V141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W141">
-        <v>1.000634517766497</v>
+        <v>0.0006345177664974777</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11332,7 +11332,7 @@
         <v>0.7820694462543096</v>
       </c>
       <c r="K142">
-        <v>43.88546405405936</v>
+        <v>-0.06114535945940647</v>
       </c>
       <c r="L142">
         <v>-0.006219380429201818</v>
@@ -11362,13 +11362,13 @@
         <v>-0.001249999999998863</v>
       </c>
       <c r="U142">
-        <v>0.9999049299122186</v>
+        <v>-9.507008778142367E-05</v>
       </c>
       <c r="V142">
-        <v>1.00004228866241</v>
+        <v>4.228866240962859E-05</v>
       </c>
       <c r="W142">
-        <v>0.9990488268864934</v>
+        <v>-0.0009511731135065649</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11403,7 +11403,7 @@
         <v>1.062358490331242</v>
       </c>
       <c r="K143">
-        <v>51.51182470515167</v>
+        <v>0.01511824705151676</v>
       </c>
       <c r="L143">
         <v>-0.005782424907879277</v>
@@ -11433,13 +11433,13 @@
         <v>-0.007499999999993179</v>
       </c>
       <c r="U143">
-        <v>0.9999577426102392</v>
+        <v>-4.225738976082472E-05</v>
       </c>
       <c r="V143">
-        <v>1.000126860622463</v>
+        <v>0.000126860622462921</v>
       </c>
       <c r="W143">
-        <v>1.001586797841955</v>
+        <v>0.001586797841954812</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11474,7 +11474,7 @@
         <v>1.062358490331242</v>
       </c>
       <c r="K144">
-        <v>51.51182470515168</v>
+        <v>0.01511824705151676</v>
       </c>
       <c r="L144">
         <v>-0.005035405725031899</v>
@@ -11504,13 +11504,13 @@
         <v>-0.01749999999999119</v>
       </c>
       <c r="U144">
-        <v>0.9999683056183574</v>
+        <v>-3.169438164263294E-05</v>
       </c>
       <c r="V144">
-        <v>1.000084563020591</v>
+        <v>8.456302059101084E-05</v>
       </c>
       <c r="W144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11545,7 +11545,7 @@
         <v>1.062358490331242</v>
       </c>
       <c r="K145">
-        <v>51.51182470515168</v>
+        <v>0.01511824705151676</v>
       </c>
       <c r="L145">
         <v>-0.004129750772293281</v>
@@ -11575,13 +11575,13 @@
         <v>-0.01250000000000284</v>
       </c>
       <c r="U145">
-        <v>0.9999577394850556</v>
+        <v>-4.22605149443811E-05</v>
       </c>
       <c r="V145">
-        <v>1.000042277935146</v>
+        <v>4.227793514566258E-05</v>
       </c>
       <c r="W145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11616,7 +11616,7 @@
         <v>1.127741559368009</v>
       </c>
       <c r="K146">
-        <v>53.00181097665713</v>
+        <v>0.03001810976657138</v>
       </c>
       <c r="L146">
         <v>-0.003055204275497607</v>
@@ -11646,13 +11646,13 @@
         <v>0.001250000000005969</v>
       </c>
       <c r="U146">
-        <v>0.9999894344247574</v>
+        <v>-1.056557524259372E-05</v>
       </c>
       <c r="V146">
-        <v>1.000063414221696</v>
+        <v>6.341422169597877E-05</v>
       </c>
       <c r="W146">
-        <v>1.000316856780735</v>
+        <v>0.0003168567807352307</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11687,7 +11687,7 @@
         <v>1.196565842564582</v>
       </c>
       <c r="K147">
-        <v>54.47438994897332</v>
+        <v>0.04474389948973323</v>
       </c>
       <c r="L147">
         <v>-0.001820231703695501</v>
@@ -11717,13 +11717,13 @@
         <v>0.0137499999999946</v>
       </c>
       <c r="U147">
-        <v>1.000010565686875</v>
+        <v>1.056568687518578E-05</v>
       </c>
       <c r="V147">
-        <v>1.000084546934117</v>
+        <v>8.454693411708014E-05</v>
       </c>
       <c r="W147">
-        <v>1.000316756414317</v>
+        <v>0.0003167564143173873</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -11758,7 +11758,7 @@
         <v>1.115734645497284</v>
       </c>
       <c r="K148">
-        <v>52.73509359369784</v>
+        <v>0.02735093593697835</v>
       </c>
       <c r="L148">
         <v>-0.0006755569793081831</v>
@@ -11788,13 +11788,13 @@
         <v>0.02249999999999375</v>
       </c>
       <c r="U148">
-        <v>0.999957737699029</v>
+        <v>-4.2262300971041E-05</v>
       </c>
       <c r="V148">
-        <v>1.000042269893268</v>
+        <v>4.226989326849839E-05</v>
       </c>
       <c r="W148">
-        <v>0.9996833438885371</v>
+        <v>-0.0003166561114629207</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11829,7 +11829,7 @@
         <v>1.400166868348667</v>
       </c>
       <c r="K149">
-        <v>58.33623015186409</v>
+        <v>0.08336230151864088</v>
       </c>
       <c r="L149">
         <v>0.0008056379324787931</v>
@@ -11859,13 +11859,13 @@
         <v>0.03250000000000597</v>
       </c>
       <c r="U149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V149">
-        <v>1.0001268043198</v>
+        <v>0.0001268043198003888</v>
       </c>
       <c r="W149">
-        <v>1.00126702565727</v>
+        <v>0.001267025657269549</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11900,7 +11900,7 @@
         <v>1.475017453309571</v>
       </c>
       <c r="K150">
-        <v>59.59624451686961</v>
+        <v>0.09596244516869612</v>
       </c>
       <c r="L150">
         <v>0.00250877852802158</v>
@@ -11930,13 +11930,13 @@
         <v>0.05125000000000313</v>
       </c>
       <c r="U150">
-        <v>1.000021132043574</v>
+        <v>2.113204357434562E-05</v>
       </c>
       <c r="V150">
-        <v>1.000147919616254</v>
+        <v>0.0001479196162541552</v>
       </c>
       <c r="W150">
-        <v>1.000316355583676</v>
+        <v>0.0003163555836760423</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11971,7 +11971,7 @@
         <v>1.711387721607105</v>
       </c>
       <c r="K151">
-        <v>63.11851705932798</v>
+        <v>0.1311851705932798</v>
       </c>
       <c r="L151">
         <v>0.00457490473011</v>
@@ -12001,13 +12001,13 @@
         <v>0.06124999999999403</v>
       </c>
       <c r="U151">
-        <v>1.000105657985102</v>
+        <v>0.0001056579851022033</v>
       </c>
       <c r="V151">
-        <v>1.000169025987746</v>
+        <v>0.0001690259877458189</v>
       </c>
       <c r="W151">
-        <v>1.000948766603416</v>
+        <v>0.0009487666034155851</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -12042,7 +12042,7 @@
         <v>1.711387721607105</v>
       </c>
       <c r="K152">
-        <v>63.11851705932798</v>
+        <v>0.1311851705932798</v>
       </c>
       <c r="L152">
         <v>0.006712429990327397</v>
@@ -12072,13 +12072,13 @@
         <v>0.07374999999999687</v>
       </c>
       <c r="U152">
-        <v>1.000105646822672</v>
+        <v>0.0001056468226718899</v>
       </c>
       <c r="V152">
-        <v>1.000274620812033</v>
+        <v>0.0002746208120325555</v>
       </c>
       <c r="W152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -12113,7 +12113,7 @@
         <v>1.573976375980359</v>
       </c>
       <c r="K153">
-        <v>61.14960458333164</v>
+        <v>0.1114960458333164</v>
       </c>
       <c r="L153">
         <v>0.008616899950074502</v>
@@ -12143,13 +12143,13 @@
         <v>0.07875000000000654</v>
       </c>
       <c r="U153">
-        <v>1.00009507209634</v>
+        <v>9.507209633952129E-05</v>
       </c>
       <c r="V153">
-        <v>1.000295664294313</v>
+        <v>0.0002956642943126031</v>
       </c>
       <c r="W153">
-        <v>0.9996840442338073</v>
+        <v>-0.0003159557661926993</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -12184,7 +12184,7 @@
         <v>1.346387674315223</v>
       </c>
       <c r="K154">
-        <v>57.38129675046802</v>
+        <v>0.07381296750468014</v>
       </c>
       <c r="L154">
         <v>0.009996408046663042</v>
@@ -12214,13 +12214,13 @@
         <v>0.07625000000000171</v>
       </c>
       <c r="U154">
-        <v>1.000031687686165</v>
+        <v>3.16876861652382E-05</v>
       </c>
       <c r="V154">
-        <v>1.000232238995039</v>
+        <v>0.0002322389950386583</v>
       </c>
       <c r="W154">
-        <v>0.9993678887484198</v>
+        <v>-0.0006321112515802474</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -12255,7 +12255,7 @@
         <v>1.574695155329788</v>
       </c>
       <c r="K155">
-        <v>61.16045047391594</v>
+        <v>0.1116045047391594</v>
       </c>
       <c r="L155">
         <v>0.01127963019360669</v>
@@ -12285,13 +12285,13 @@
         <v>0.0762499999999946</v>
       </c>
       <c r="U155">
-        <v>1.000063373364175</v>
+        <v>6.337336417505668E-05</v>
       </c>
       <c r="V155">
-        <v>1.000274400540358</v>
+        <v>0.0002744005403578775</v>
       </c>
       <c r="W155">
-        <v>1.000948766603416</v>
+        <v>0.0009487666034155851</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -12326,7 +12326,7 @@
         <v>1.654803043405093</v>
       </c>
       <c r="K156">
-        <v>62.33242226823034</v>
+        <v>0.1233242226823034</v>
       </c>
       <c r="L156">
         <v>0.01249683360720684</v>
@@ -12356,13 +12356,13 @@
         <v>0.08125000000001137</v>
       </c>
       <c r="U156">
-        <v>1.000126738696492</v>
+        <v>0.0001267386964924899</v>
       </c>
       <c r="V156">
-        <v>1.000253223321868</v>
+        <v>0.0002532233218679458</v>
       </c>
       <c r="W156">
-        <v>1.000315955766193</v>
+        <v>0.0003159557661926993</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12397,7 +12397,7 @@
         <v>1.654803043405093</v>
       </c>
       <c r="K157">
-        <v>62.33242226823034</v>
+        <v>0.1233242226823034</v>
       </c>
       <c r="L157">
         <v>0.01355072269787417</v>
@@ -12427,13 +12427,13 @@
         <v>0.07874999999999943</v>
       </c>
       <c r="U157">
-        <v>1.000179523734094</v>
+        <v>0.0001795237340938005</v>
       </c>
       <c r="V157">
-        <v>1.000316449020063</v>
+        <v>0.0003164490200628922</v>
       </c>
       <c r="W157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12468,7 +12468,7 @@
         <v>1.654803043405093</v>
       </c>
       <c r="K158">
-        <v>62.33242226823034</v>
+        <v>0.1233242226823034</v>
       </c>
       <c r="L158">
         <v>0.01438895155616892</v>
@@ -12498,13 +12498,13 @@
         <v>0.07000000000000028</v>
       </c>
       <c r="U158">
-        <v>1.000168933186925</v>
+        <v>0.0001689331869245692</v>
       </c>
       <c r="V158">
-        <v>1.000210899274506</v>
+        <v>0.0002108992745064597</v>
       </c>
       <c r="W158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12539,7 +12539,7 @@
         <v>1.748236941145644</v>
       </c>
       <c r="K159">
-        <v>63.6130355054781</v>
+        <v>0.136130355054781</v>
       </c>
       <c r="L159">
         <v>0.01510586619824825</v>
@@ -12569,13 +12569,13 @@
         <v>0.06125000000000114</v>
       </c>
       <c r="U159">
-        <v>1.00015834811249</v>
+        <v>0.0001583481124904917</v>
       </c>
       <c r="V159">
-        <v>1.000231940285919</v>
+        <v>0.0002319402859192188</v>
       </c>
       <c r="W159">
-        <v>1.000315855969678</v>
+        <v>0.0003158559696778696</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12610,7 +12610,7 @@
         <v>1.460877949652476</v>
       </c>
       <c r="K160">
-        <v>59.36409604786699</v>
+        <v>0.09364096047866999</v>
       </c>
       <c r="L160">
         <v>0.01541775411878034</v>
@@ -12640,13 +12640,13 @@
         <v>0.05000000000000426</v>
       </c>
       <c r="U160">
-        <v>1.00011610356438</v>
+        <v>0.0001161035643795216</v>
       </c>
       <c r="V160">
-        <v>1.000189725319898</v>
+        <v>0.0001897253198981375</v>
       </c>
       <c r="W160">
-        <v>0.9993684875276285</v>
+        <v>-0.000631512472371476</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12681,7 +12681,7 @@
         <v>1.460877949652476</v>
       </c>
       <c r="K161">
-        <v>59.36409604786699</v>
+        <v>0.09364096047866999</v>
       </c>
       <c r="L161">
         <v>0.01540820504335964</v>
@@ -12711,13 +12711,13 @@
         <v>0.04124999999999801</v>
       </c>
       <c r="U161">
-        <v>1.000116090085907</v>
+        <v>0.0001160900859065173</v>
       </c>
       <c r="V161">
-        <v>1.000168612738692</v>
+        <v>0.0001686127386923975</v>
       </c>
       <c r="W161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -12752,7 +12752,7 @@
         <v>1.643006188211041</v>
       </c>
       <c r="K162">
-        <v>62.16429592709864</v>
+        <v>0.1216429592709863</v>
       </c>
       <c r="L162">
         <v>0.01537896155953236</v>
@@ -12782,13 +12782,13 @@
         <v>0.04124999999999091</v>
       </c>
       <c r="U162">
-        <v>1.000137181448847</v>
+        <v>0.0001371814488471124</v>
       </c>
       <c r="V162">
-        <v>1.000189657352383</v>
+        <v>0.0001896573523831879</v>
       </c>
       <c r="W162">
-        <v>1.000631911532386</v>
+        <v>0.0006319115323856206</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12823,7 +12823,7 @@
         <v>1.378691764448684</v>
       </c>
       <c r="K163">
-        <v>57.96008482705733</v>
+        <v>0.07960084827057334</v>
       </c>
       <c r="L163">
         <v>0.01505299515983003</v>
@@ -12853,13 +12853,13 @@
         <v>0.03250000000000597</v>
       </c>
       <c r="U163">
-        <v>1.000105509717445</v>
+        <v>0.0001055097174449404</v>
       </c>
       <c r="V163">
-        <v>1.000168552346038</v>
+        <v>0.0001685523460379645</v>
       </c>
       <c r="W163">
-        <v>0.9993684875276285</v>
+        <v>-0.000631512472371476</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12894,7 +12894,7 @@
         <v>1.179034713950757</v>
       </c>
       <c r="K164">
-        <v>54.10811982031607</v>
+        <v>0.0410811982031607</v>
       </c>
       <c r="L164">
         <v>0.01428275637134301</v>
@@ -12924,13 +12924,13 @@
         <v>0.0175000000000054</v>
       </c>
       <c r="U164">
-        <v>1.000084398869055</v>
+        <v>8.43988690550912E-05</v>
       </c>
       <c r="V164">
-        <v>1.000042130985233</v>
+        <v>4.213098523320191E-05</v>
       </c>
       <c r="W164">
-        <v>0.9993680884676146</v>
+        <v>-0.0006319115323853985</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12965,7 +12965,7 @@
         <v>1.179034713950757</v>
       </c>
       <c r="K165">
-        <v>54.10811982031606</v>
+        <v>0.04108119820316058</v>
       </c>
       <c r="L165">
         <v>0.01324058017790772</v>
@@ -12995,13 +12995,13 @@
         <v>0.007499999999993179</v>
       </c>
       <c r="U165">
-        <v>1.000084391746487</v>
+        <v>8.439174648722236E-05</v>
       </c>
       <c r="V165">
-        <v>1.000021064605144</v>
+        <v>2.106460514395003E-05</v>
       </c>
       <c r="W165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -13036,7 +13036,7 @@
         <v>1.091465719361983</v>
       </c>
       <c r="K166">
-        <v>52.18664161012128</v>
+        <v>0.02186641610121287</v>
       </c>
       <c r="L166">
         <v>0.01193675208816988</v>
@@ -13066,13 +13066,13 @@
         <v>-0.002500000000004832</v>
       </c>
       <c r="U166">
-        <v>1.000052740390701</v>
+        <v>5.274039070091163E-05</v>
       </c>
       <c r="V166">
-        <v>0.9999368075156927</v>
+        <v>-6.319248430730617E-05</v>
       </c>
       <c r="W166">
-        <v>0.9996838444514702</v>
+        <v>-0.0003161555485298173</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -13107,7 +13107,7 @@
         <v>1.091465719361983</v>
       </c>
       <c r="K167">
-        <v>52.18664161012128</v>
+        <v>0.02186641610121276</v>
       </c>
       <c r="L167">
         <v>0.01051415596078988</v>
@@ -13137,13 +13137,13 @@
         <v>-0.01124999999999687</v>
       </c>
       <c r="U167">
-        <v>1.000105475218597</v>
+        <v>0.000105475218597384</v>
       </c>
       <c r="V167">
-        <v>0.9999368035221504</v>
+        <v>-6.319647784958082E-05</v>
       </c>
       <c r="W167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -13178,7 +13178,7 @@
         <v>1.173761308912471</v>
       </c>
       <c r="K168">
-        <v>53.99678907247188</v>
+        <v>0.03996789072471874</v>
       </c>
       <c r="L168">
         <v>0.009187248537072175</v>
@@ -13208,13 +13208,13 @@
         <v>-0.01375000000000171</v>
       </c>
       <c r="U168">
-        <v>1.000137103323174</v>
+        <v>0.0001371033231736263</v>
       </c>
       <c r="V168">
-        <v>0.9999789331760345</v>
+        <v>-2.106682396552095E-05</v>
       </c>
       <c r="W168">
-        <v>1.000316255534472</v>
+        <v>0.0003162555344717877</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -13249,7 +13249,7 @@
         <v>1.347015181650371</v>
       </c>
       <c r="K169">
-        <v>57.39269145686473</v>
+        <v>0.07392691456864731</v>
       </c>
       <c r="L169">
         <v>0.008199785424567962</v>
@@ -13279,13 +13279,13 @@
         <v>-0.01500000000000057</v>
       </c>
       <c r="U169">
-        <v>1.000147629492155</v>
+        <v>0.0001476294921545218</v>
       </c>
       <c r="V169">
-        <v>1.000063201803358</v>
+        <v>6.320180335794845E-05</v>
       </c>
       <c r="W169">
-        <v>1.00063231109706</v>
+        <v>0.0006323110970596346</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -13320,7 +13320,7 @@
         <v>1.234450290333205</v>
       </c>
       <c r="K170">
-        <v>55.24626328335646</v>
+        <v>0.05246263283356456</v>
       </c>
       <c r="L170">
         <v>0.00733581245892098</v>
@@ -13350,13 +13350,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U170">
-        <v>1.00012652088649</v>
+        <v>0.0001265208864895673</v>
       </c>
       <c r="V170">
-        <v>0.9999789340636193</v>
+        <v>-2.10659363807375E-05</v>
       </c>
       <c r="W170">
-        <v>0.9996840442338073</v>
+        <v>-0.0003159557661926993</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13391,7 +13391,7 @@
         <v>1.134642190200555</v>
       </c>
       <c r="K171">
-        <v>53.15374142839146</v>
+        <v>0.03153741428391454</v>
       </c>
       <c r="L171">
         <v>0.006459831263152332</v>
@@ -13421,13 +13421,13 @@
         <v>-0.02749999999999631</v>
       </c>
       <c r="U171">
-        <v>1.000094878660735</v>
+        <v>9.487866073509821E-05</v>
       </c>
       <c r="V171">
-        <v>0.9999368008595083</v>
+        <v>-6.319914049168762E-05</v>
       </c>
       <c r="W171">
-        <v>0.9996839443742098</v>
+        <v>-0.0003160556257901792</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -13462,7 +13462,7 @@
         <v>1.219749835973809</v>
       </c>
       <c r="K172">
-        <v>54.9498784145062</v>
+        <v>0.04949878414506204</v>
       </c>
       <c r="L172">
         <v>0.005724046534303848</v>
@@ -13492,13 +13492,13 @@
         <v>-0.02250000000000085</v>
       </c>
       <c r="U172">
-        <v>1.000137033952797</v>
+        <v>0.0001370339527970721</v>
       </c>
       <c r="V172">
-        <v>0.9999578645767496</v>
+        <v>-4.213542325037789E-05</v>
       </c>
       <c r="W172">
-        <v>1.00031615554853</v>
+        <v>0.0003161555485298173</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -13533,7 +13533,7 @@
         <v>1.30933683152457</v>
       </c>
       <c r="K173">
-        <v>56.69752517913017</v>
+        <v>0.0669752517913017</v>
       </c>
       <c r="L173">
         <v>0.005214376237439507</v>
@@ -13563,13 +13563,13 @@
         <v>-0.01624999999999233</v>
       </c>
       <c r="U173">
-        <v>1.000094856661045</v>
+        <v>9.485666104547263E-05</v>
       </c>
       <c r="V173">
-        <v>0.9999789314006404</v>
+        <v>-2.106859935957495E-05</v>
       </c>
       <c r="W173">
-        <v>1.00031605562579</v>
+        <v>0.0003160556257901792</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -13604,7 +13604,7 @@
         <v>1.196503991750449</v>
       </c>
       <c r="K174">
-        <v>54.47310800454885</v>
+        <v>0.04473108004548854</v>
       </c>
       <c r="L174">
         <v>0.004740017393058278</v>
@@ -13634,13 +13634,13 @@
         <v>-0.008750000000006253</v>
       </c>
       <c r="U174">
-        <v>1.000084309034767</v>
+        <v>8.430903476708274E-05</v>
       </c>
       <c r="V174">
-        <v>0.9999367928702358</v>
+        <v>-6.320712976415344E-05</v>
       </c>
       <c r="W174">
-        <v>0.9996840442338073</v>
+        <v>-0.0003159557661926993</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -13675,7 +13675,7 @@
         <v>1.196503991750449</v>
       </c>
       <c r="K175">
-        <v>54.47310800454885</v>
+        <v>0.04473108004548854</v>
       </c>
       <c r="L175">
         <v>0.004300019752161681</v>
@@ -13705,13 +13705,13 @@
         <v>0</v>
       </c>
       <c r="U175">
-        <v>1.000084301927353</v>
+        <v>8.430192735264797E-05</v>
       </c>
       <c r="V175">
-        <v>0.9999789296249474</v>
+        <v>-2.1070375052612E-05</v>
       </c>
       <c r="W175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -13746,7 +13746,7 @@
         <v>1.387474770446545</v>
       </c>
       <c r="K176">
-        <v>58.11474062978418</v>
+        <v>0.08114740629784178</v>
       </c>
       <c r="L176">
         <v>0.004123477130456556</v>
@@ -13776,13 +13776,13 @@
         <v>0.006250000000001421</v>
       </c>
       <c r="U176">
-        <v>1.000094831673779</v>
+        <v>9.483167377899449E-05</v>
       </c>
       <c r="V176">
-        <v>1.000021070819022</v>
+        <v>2.107081902247288E-05</v>
       </c>
       <c r="W176">
-        <v>1.00063211125158</v>
+        <v>0.0006321112515803584</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -13817,7 +13817,7 @@
         <v>1.487985706602403</v>
       </c>
       <c r="K177">
-        <v>59.80684304792082</v>
+        <v>0.09806843047920821</v>
       </c>
       <c r="L177">
         <v>0.004217869556070995</v>
@@ -13847,13 +13847,13 @@
         <v>0.008749999999999147</v>
       </c>
       <c r="U177">
-        <v>1.000094822681586</v>
+        <v>9.482268158556018E-05</v>
       </c>
       <c r="V177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W177">
-        <v>1.000315855969678</v>
+        <v>0.0003158559696778696</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13888,7 +13888,7 @@
         <v>1.593786692029584</v>
       </c>
       <c r="K178">
-        <v>61.4463285252836</v>
+        <v>0.114463285252836</v>
       </c>
       <c r="L178">
         <v>0.004570104676984912</v>
@@ -13918,13 +13918,13 @@
         <v>0.0175000000000054</v>
       </c>
       <c r="U178">
-        <v>1.00011588340023</v>
+        <v>0.0001158834002297215</v>
       </c>
       <c r="V178">
-        <v>1.000063211125158</v>
+        <v>6.321112515816907E-05</v>
       </c>
       <c r="W178">
-        <v>1.000315756236186</v>
+        <v>0.000315756236185516</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13959,7 +13959,7 @@
         <v>1.816525608718427</v>
       </c>
       <c r="K179">
-        <v>64.49526335196295</v>
+        <v>0.1449526335196295</v>
       </c>
       <c r="L179">
         <v>0.005269631612390854</v>
@@ -13989,13 +13989,13 @@
         <v>0.02874999999999517</v>
       </c>
       <c r="U179">
-        <v>1.000094802705037</v>
+        <v>9.480270503714472E-05</v>
       </c>
       <c r="V179">
-        <v>1.000147483302783</v>
+        <v>0.0001474833027832467</v>
       </c>
       <c r="W179">
-        <v>1.000631313131313</v>
+        <v>0.0006313131313131493</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -14030,7 +14030,7 @@
         <v>1.816525608718426</v>
       </c>
       <c r="K180">
-        <v>64.49526335196293</v>
+        <v>0.1449526335196293</v>
       </c>
       <c r="L180">
         <v>0.006115694178001836</v>
@@ -14060,13 +14060,13 @@
         <v>0.03500000000000369</v>
       </c>
       <c r="U180">
-        <v>1.000084261082965</v>
+        <v>8.426108296544221E-05</v>
       </c>
       <c r="V180">
-        <v>1.000147461554666</v>
+        <v>0.0001474615546661617</v>
       </c>
       <c r="W180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -14101,7 +14101,7 @@
         <v>1.456947797977485</v>
       </c>
       <c r="K181">
-        <v>59.29909455857459</v>
+        <v>0.09299094558574594</v>
       </c>
       <c r="L181">
         <v>0.006744045082372016</v>
@@ -14131,13 +14131,13 @@
         <v>0.03625000000000256</v>
       </c>
       <c r="U181">
-        <v>1.000031595243863</v>
+        <v>3.159524386275869E-05</v>
       </c>
       <c r="V181">
-        <v>1.000126376982539</v>
+        <v>0.0001263769825388117</v>
       </c>
       <c r="W181">
-        <v>0.9993690851735015</v>
+        <v>-0.0006309148264984632</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -14172,7 +14172,7 @@
         <v>1.456947797977485</v>
       </c>
       <c r="K182">
-        <v>59.29909455857459</v>
+        <v>0.09299094558574594</v>
       </c>
       <c r="L182">
         <v>0.007175858646202679</v>
@@ -14202,13 +14202,13 @@
         <v>0.03875000000000028</v>
       </c>
       <c r="U182">
-        <v>1.000031594245635</v>
+        <v>3.15942456345919E-05</v>
       </c>
       <c r="V182">
-        <v>1.000126361013415</v>
+        <v>0.0001263610134154547</v>
       </c>
       <c r="W182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -14243,7 +14243,7 @@
         <v>1.676280883684472</v>
       </c>
       <c r="K183">
-        <v>62.63471423734542</v>
+        <v>0.1263471423734542</v>
       </c>
       <c r="L183">
         <v>0.00766509455624514</v>
@@ -14273,13 +14273,13 @@
         <v>0.04375000000000284</v>
       </c>
       <c r="U183">
-        <v>1.00006318649494</v>
+        <v>6.318649493985973E-05</v>
       </c>
       <c r="V183">
-        <v>1.000147402556381</v>
+        <v>0.0001474025563814596</v>
       </c>
       <c r="W183">
-        <v>1.000631313131313</v>
+        <v>0.0006313131313131493</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -14314,7 +14314,7 @@
         <v>1.502799961214259</v>
       </c>
       <c r="K184">
-        <v>60.04474926095013</v>
+        <v>0.1004474926095014</v>
       </c>
       <c r="L184">
         <v>0.008014869968396397</v>
@@ -14344,13 +14344,13 @@
         <v>0.04375000000000284</v>
       </c>
       <c r="U184">
-        <v>1.000073712919769</v>
+        <v>7.371291976854266E-05</v>
       </c>
       <c r="V184">
-        <v>1.000084217618326</v>
+        <v>8.421761832577701E-05</v>
       </c>
       <c r="W184">
-        <v>0.9996845425867509</v>
+        <v>-0.0003154574132491206</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -14385,7 +14385,7 @@
         <v>1.502799961214259</v>
       </c>
       <c r="K185">
-        <v>60.04474926095013</v>
+        <v>0.1004474926095014</v>
       </c>
       <c r="L185">
         <v>0.00822864022240429</v>
@@ -14415,13 +14415,13 @@
         <v>0.04374999999999574</v>
       </c>
       <c r="U185">
-        <v>1.000042118563757</v>
+        <v>4.211856375713197E-05</v>
       </c>
       <c r="V185">
-        <v>1.000105263157895</v>
+        <v>0.0001052631578946084</v>
       </c>
       <c r="W185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -14456,7 +14456,7 @@
         <v>1.502799961214259</v>
       </c>
       <c r="K186">
-        <v>60.04474926095013</v>
+        <v>0.1004474926095014</v>
       </c>
       <c r="L186">
         <v>0.008316396979528646</v>
@@ -14486,13 +14486,13 @@
         <v>0.03999999999999915</v>
       </c>
       <c r="U186">
-        <v>1.000031587592394</v>
+        <v>3.158759239374476E-05</v>
       </c>
       <c r="V186">
-        <v>1.000126302494474</v>
+        <v>0.0001263024944742064</v>
       </c>
       <c r="W186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -14527,7 +14527,7 @@
         <v>1.210554130456604</v>
       </c>
       <c r="K187">
-        <v>54.76247397780557</v>
+        <v>0.0476247397780557</v>
       </c>
       <c r="L187">
         <v>0.008061817672254825</v>
@@ -14557,13 +14557,13 @@
         <v>0.02750000000000341</v>
       </c>
       <c r="U187">
-        <v>1.000010528864883</v>
+        <v>1.052886488328575E-05</v>
       </c>
       <c r="V187">
-        <v>1.000063143272084</v>
+        <v>6.314327208434278E-05</v>
       </c>
       <c r="W187">
-        <v>0.9993688860839381</v>
+        <v>-0.000631113916061854</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -14598,7 +14598,7 @@
         <v>0.9261699226163452</v>
       </c>
       <c r="K188">
-        <v>48.0835004088484</v>
+        <v>-0.01916499591151599</v>
       </c>
       <c r="L188">
         <v>0.007241643640184339</v>
@@ -14628,13 +14628,13 @@
         <v>0.01249999999999574</v>
       </c>
       <c r="U188">
-        <v>0.9999789424919454</v>
+        <v>-2.105750805458939E-05</v>
       </c>
       <c r="V188">
-        <v>0.9999789535715791</v>
+        <v>-2.10464284209344E-05</v>
       </c>
       <c r="W188">
-        <v>0.999052731291443</v>
+        <v>-0.000947268708556992</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -14669,7 +14669,7 @@
         <v>1.42073978974597</v>
       </c>
       <c r="K189">
-        <v>58.69031424873059</v>
+        <v>0.08690314248730591</v>
       </c>
       <c r="L189">
         <v>0.006795020443941146</v>
@@ -14699,13 +14699,13 @@
         <v>0.01124999999998977</v>
       </c>
       <c r="U189">
-        <v>1.000031586927224</v>
+        <v>3.158692722382561E-05</v>
       </c>
       <c r="V189">
-        <v>1.000126281228295</v>
+        <v>0.0001262812282951664</v>
       </c>
       <c r="W189">
-        <v>1.001896333754741</v>
+        <v>0.001896333754740853</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -14740,7 +14740,7 @@
         <v>1.210651462410931</v>
       </c>
       <c r="K190">
-        <v>54.76446572408106</v>
+        <v>0.04764465724081068</v>
       </c>
       <c r="L190">
         <v>0.006348309351236148</v>
@@ -14770,13 +14770,13 @@
         <v>0.006250000000001421</v>
       </c>
       <c r="U190">
-        <v>1.000031585929521</v>
+        <v>3.15859295212384E-05</v>
       </c>
       <c r="V190">
-        <v>1.000084176855574</v>
+        <v>8.417685557371435E-05</v>
       </c>
       <c r="W190">
-        <v>0.9993690851735015</v>
+        <v>-0.0006309148264984632</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -14811,7 +14811,7 @@
         <v>1.123232912302002</v>
       </c>
       <c r="K191">
-        <v>52.90201116391874</v>
+        <v>0.02902011163918738</v>
       </c>
       <c r="L191">
         <v>0.005791880802592606</v>
@@ -14841,13 +14841,13 @@
         <v>-0.004999999999995453</v>
       </c>
       <c r="U191">
-        <v>1.000021056621255</v>
+        <v>2.10566212546226E-05</v>
       </c>
       <c r="V191">
-        <v>1.000021042442607</v>
+        <v>2.104244260658916E-05</v>
       </c>
       <c r="W191">
-        <v>0.9996843434343435</v>
+        <v>-0.0003156565656564636</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14882,7 +14882,7 @@
         <v>0.9750145663257782</v>
       </c>
       <c r="K192">
-        <v>49.36746204052805</v>
+        <v>-0.006325379594719516</v>
       </c>
       <c r="L192">
         <v>0.004953358026864029</v>
@@ -14912,13 +14912,13 @@
         <v>-0.01375000000000881</v>
       </c>
       <c r="U192">
-        <v>0.9999789438221173</v>
+        <v>-2.105617788272784E-05</v>
       </c>
       <c r="V192">
-        <v>0.9999579160003367</v>
+        <v>-4.208399966332266E-05</v>
       </c>
       <c r="W192">
-        <v>0.9993684875276285</v>
+        <v>-0.000631512472371476</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14953,7 +14953,7 @@
         <v>1.044465572366087</v>
       </c>
       <c r="K193">
-        <v>51.08746199904521</v>
+        <v>0.01087461999045214</v>
       </c>
       <c r="L193">
         <v>0.004094390712433939</v>
@@ -14983,13 +14983,13 @@
         <v>-0.01999999999999602</v>
       </c>
       <c r="U193">
-        <v>1.000010528310627</v>
+        <v>1.05283106273113E-05</v>
       </c>
       <c r="V193">
-        <v>0.9999579142291991</v>
+        <v>-4.20857708008926E-05</v>
       </c>
       <c r="W193">
-        <v>1.000315955766193</v>
+        <v>0.0003159557661926993</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -15024,7 +15024,7 @@
         <v>1.117571894513781</v>
       </c>
       <c r="K194">
-        <v>52.77610160057344</v>
+        <v>0.02776101600573444</v>
       </c>
       <c r="L194">
         <v>0.003377878805617457</v>
@@ -15054,13 +15054,13 @@
         <v>-0.02374999999999972</v>
       </c>
       <c r="U194">
-        <v>1.000042112799132</v>
+        <v>4.211279913235444E-05</v>
       </c>
       <c r="V194">
-        <v>0.9999368686868687</v>
+        <v>-6.313131313129272E-05</v>
       </c>
       <c r="W194">
-        <v>1.000315855969678</v>
+        <v>0.0003158559696778696</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -15095,7 +15095,7 @@
         <v>1.037715510895678</v>
       </c>
       <c r="K195">
-        <v>50.92543612427773</v>
+        <v>0.009254361242777343</v>
       </c>
       <c r="L195">
         <v>0.002666029441088501</v>
@@ -15125,13 +15125,13 @@
         <v>-0.02125000000000909</v>
       </c>
       <c r="U195">
-        <v>1.000031583269289</v>
+        <v>3.158326928942579E-05</v>
       </c>
       <c r="V195">
-        <v>0.999915819601406</v>
+        <v>-8.418039859403592E-05</v>
       </c>
       <c r="W195">
-        <v>0.9996842437638143</v>
+        <v>-0.000315756236185738</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -15166,7 +15166,7 @@
         <v>1.037715510895678</v>
       </c>
       <c r="K196">
-        <v>50.92543612427772</v>
+        <v>0.00925436124277712</v>
       </c>
       <c r="L196">
         <v>0.001992664845774866</v>
@@ -15196,13 +15196,13 @@
         <v>-0.01125000000000398</v>
       </c>
       <c r="U196">
-        <v>1.000042109695757</v>
+        <v>4.210969575746404E-05</v>
       </c>
       <c r="V196">
-        <v>0.9999579062572347</v>
+        <v>-4.209374276531452E-05</v>
       </c>
       <c r="W196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -15237,7 +15237,7 @@
         <v>1.116890307603661</v>
       </c>
       <c r="K197">
-        <v>52.76089666015766</v>
+        <v>0.02760896660157663</v>
       </c>
       <c r="L197">
         <v>0.001493258336226721</v>
@@ -15267,13 +15267,13 @@
         <v>-0.0175000000000054</v>
       </c>
       <c r="U197">
-        <v>1.000052634903257</v>
+        <v>5.263490325702058E-05</v>
       </c>
       <c r="V197">
-        <v>0.9999789522426387</v>
+        <v>-2.104775736133657E-05</v>
       </c>
       <c r="W197">
-        <v>1.000315855969678</v>
+        <v>0.0003158559696778696</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -15308,7 +15308,7 @@
         <v>0.9573205047635762</v>
       </c>
       <c r="K198">
-        <v>48.90974689294488</v>
+        <v>-0.01090253107055117</v>
       </c>
       <c r="L198">
         <v>0.0008956463227947544</v>
@@ -15338,13 +15338,13 @@
         <v>-0.02124999999999488</v>
       </c>
       <c r="U198">
-        <v>1.000021052853188</v>
+        <v>2.105285318787509E-05</v>
       </c>
       <c r="V198">
-        <v>0.9998947589981056</v>
+        <v>-0.0001052410018943517</v>
       </c>
       <c r="W198">
-        <v>0.9993684875276285</v>
+        <v>-0.000631512472371476</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -15379,7 +15379,7 @@
         <v>1.107709681187053</v>
       </c>
       <c r="K199">
-        <v>52.55513560877112</v>
+        <v>0.0255513560877112</v>
       </c>
       <c r="L199">
         <v>0.0005033340545712359</v>
@@ -15409,13 +15409,13 @@
         <v>-0.0175000000000054</v>
       </c>
       <c r="U199">
-        <v>1.000021052409975</v>
+        <v>2.105240997485325E-05</v>
       </c>
       <c r="V199">
-        <v>0.9999578991685086</v>
+        <v>-4.210083149136512E-05</v>
       </c>
       <c r="W199">
-        <v>1.000631911532386</v>
+        <v>0.0006319115323856206</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -15450,7 +15450,7 @@
         <v>1.107709681187054</v>
       </c>
       <c r="K200">
-        <v>52.55513560877113</v>
+        <v>0.02555135608771131</v>
       </c>
       <c r="L200">
         <v>0.0002585586648926709</v>
@@ -15480,13 +15480,13 @@
         <v>-0.01000000000000512</v>
       </c>
       <c r="U200">
-        <v>1.00003157795017</v>
+        <v>3.15779501700586E-05</v>
       </c>
       <c r="V200">
-        <v>0.9999578973959539</v>
+        <v>-4.210260404613475E-05</v>
       </c>
       <c r="W200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -15521,7 +15521,7 @@
         <v>1.0225156192179</v>
       </c>
       <c r="K201">
-        <v>50.55662411216896</v>
+        <v>0.005566241121689575</v>
       </c>
       <c r="L201">
         <v>2.834082183560347E-06</v>
@@ -15551,13 +15551,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U201">
-        <v>1.000031576953035</v>
+        <v>3.157695303457331E-05</v>
       </c>
       <c r="V201">
-        <v>0.9999368434348749</v>
+        <v>-6.315656512512202E-05</v>
       </c>
       <c r="W201">
-        <v>0.9996842437638143</v>
+        <v>-0.000315756236185738</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -15592,7 +15592,7 @@
         <v>1.184431618492029</v>
       </c>
       <c r="K202">
-        <v>54.22150130337673</v>
+        <v>0.04221501303376729</v>
       </c>
       <c r="L202">
         <v>-1.326976428264453E-05</v>
@@ -15622,13 +15622,13 @@
         <v>-0.002499999999997726</v>
       </c>
       <c r="U202">
-        <v>1.000042101274616</v>
+        <v>4.210127461612423E-05</v>
       </c>
       <c r="V202">
-        <v>1.000021053518043</v>
+        <v>2.105351804293498E-05</v>
       </c>
       <c r="W202">
-        <v>1.000631711939356</v>
+        <v>0.0006317119393557391</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -15663,7 +15663,7 @@
         <v>1.091421801822731</v>
       </c>
       <c r="K203">
-        <v>52.18563758260181</v>
+        <v>0.02185637582601807</v>
       </c>
       <c r="L203">
         <v>1.884171898629167E-06</v>
@@ -15693,13 +15693,13 @@
         <v>0</v>
       </c>
       <c r="U203">
-        <v>1.000021049751087</v>
+        <v>2.104975108663254E-05</v>
       </c>
       <c r="V203">
-        <v>1.000063159224405</v>
+        <v>6.315922440469635E-05</v>
       </c>
       <c r="W203">
-        <v>0.9996843434343435</v>
+        <v>-0.0003156565656564636</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -15734,7 +15734,7 @@
         <v>1.091421801822731</v>
       </c>
       <c r="K204">
-        <v>52.18563758260181</v>
+        <v>0.02185637582601807</v>
       </c>
       <c r="L204">
         <v>3.500237370523912E-05</v>
@@ -15764,13 +15764,13 @@
         <v>-0.001249999999991758</v>
       </c>
       <c r="U204">
-        <v>1.000031573962006</v>
+        <v>3.15739620058153E-05</v>
       </c>
       <c r="V204">
-        <v>0.999936844764431</v>
+        <v>-6.315523556899016E-05</v>
       </c>
       <c r="W204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -15805,7 +15805,7 @@
         <v>1.178432286007415</v>
       </c>
       <c r="K205">
-        <v>54.09542878962839</v>
+        <v>0.04095428789628386</v>
       </c>
       <c r="L205">
         <v>0.0001917507070919338</v>
@@ -15835,13 +15835,13 @@
         <v>0.003749999999996589</v>
       </c>
       <c r="U205">
-        <v>1.00004209728683</v>
+        <v>4.20972868300229E-05</v>
       </c>
       <c r="V205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W205">
-        <v>1.000315756236186</v>
+        <v>0.000315756236185516</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15876,7 +15876,7 @@
         <v>1.07955578924279</v>
       </c>
       <c r="K206">
-        <v>51.91280728447678</v>
+        <v>0.01912807284476781</v>
       </c>
       <c r="L206">
         <v>0.0002977253244062012</v>
@@ -15906,13 +15906,13 @@
         <v>0.01000000000000512</v>
       </c>
       <c r="U206">
-        <v>1.000010523878681</v>
+        <v>1.05238786807238E-05</v>
       </c>
       <c r="V206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W206">
-        <v>0.9996843434343435</v>
+        <v>-0.0003156565656564636</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15947,7 +15947,7 @@
         <v>1.256198137124788</v>
       </c>
       <c r="K207">
-        <v>55.67765155260869</v>
+        <v>0.05677651552608687</v>
       </c>
       <c r="L207">
         <v>0.0005950708486472449</v>
@@ -15977,13 +15977,13 @@
         <v>0.01250000000000284</v>
       </c>
       <c r="U207">
-        <v>1.00002104753586</v>
+        <v>2.104753585974173E-05</v>
       </c>
       <c r="V207">
-        <v>1.000084212299206</v>
+        <v>8.421229920618778E-05</v>
       </c>
       <c r="W207">
-        <v>1.000631512472371</v>
+        <v>0.000631512472371254</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -16018,7 +16018,7 @@
         <v>1.256198137124788</v>
       </c>
       <c r="K208">
-        <v>55.67765155260869</v>
+        <v>0.05677651552608687</v>
       </c>
       <c r="L208">
         <v>0.0009872346540800384</v>
@@ -16048,13 +16048,13 @@
         <v>0.01249999999999574</v>
       </c>
       <c r="U208">
-        <v>1.000010523546435</v>
+        <v>1.05235464351594E-05</v>
       </c>
       <c r="V208">
-        <v>1.000063153906069</v>
+        <v>6.315390606936866E-05</v>
       </c>
       <c r="W208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -16089,7 +16089,7 @@
         <v>1.354060933735296</v>
       </c>
       <c r="K209">
-        <v>57.52021599486576</v>
+        <v>0.07520215994865753</v>
       </c>
       <c r="L209">
         <v>0.001523231553050779</v>
@@ -16119,13 +16119,13 @@
         <v>0.01749999999999119</v>
       </c>
       <c r="U209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V209">
-        <v>1.000063149917905</v>
+        <v>6.314991790512536E-05</v>
       </c>
       <c r="W209">
-        <v>1.000315556958031</v>
+        <v>0.0003155569580308715</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -16160,7 +16160,7 @@
         <v>1.354060933735296</v>
       </c>
       <c r="K210">
-        <v>57.52021599486576</v>
+        <v>0.07520215994865753</v>
       </c>
       <c r="L210">
         <v>0.002106647382143732</v>
@@ -16190,13 +16190,13 @@
         <v>0.01874999999999716</v>
       </c>
       <c r="U210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V210">
-        <v>1.00008419457366</v>
+        <v>8.419457365982375E-05</v>
       </c>
       <c r="W210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -16231,7 +16231,7 @@
         <v>1.570931397138122</v>
       </c>
       <c r="K211">
-        <v>61.10359066316714</v>
+        <v>0.1110359066316714</v>
       </c>
       <c r="L211">
         <v>0.002903877649074427</v>
@@ -16261,13 +16261,13 @@
         <v>0.02375000000000682</v>
       </c>
       <c r="U211">
-        <v>1.000042093742765</v>
+        <v>4.209374276498146E-05</v>
       </c>
       <c r="V211">
-        <v>1.000126281228295</v>
+        <v>0.0001262812282953885</v>
       </c>
       <c r="W211">
-        <v>1.000630914826498</v>
+        <v>0.0006309148264984632</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -16302,7 +16302,7 @@
         <v>1.685073746297525</v>
       </c>
       <c r="K212">
-        <v>62.75707505691753</v>
+        <v>0.1275707505691753</v>
       </c>
       <c r="L212">
         <v>0.003884193474652698</v>
@@ -16332,13 +16332,13 @@
         <v>0.03000000000000114</v>
       </c>
       <c r="U212">
-        <v>1.000052614963696</v>
+        <v>5.261496369568519E-05</v>
       </c>
       <c r="V212">
-        <v>1.00012626528336</v>
+        <v>0.0001262652833604605</v>
       </c>
       <c r="W212">
-        <v>1.00031525851198</v>
+        <v>0.0003152585119798879</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -16373,7 +16373,7 @@
         <v>1.805223587517906</v>
       </c>
       <c r="K213">
-        <v>64.352217611117</v>
+        <v>0.14352217611117</v>
       </c>
       <c r="L213">
         <v>0.00501371209904671</v>
@@ -16403,13 +16403,13 @@
         <v>0.03625000000000256</v>
       </c>
       <c r="U213">
-        <v>1.000042089756406</v>
+        <v>4.208975640551671E-05</v>
       </c>
       <c r="V213">
-        <v>1.000189374013677</v>
+        <v>0.0001893740136769129</v>
       </c>
       <c r="W213">
-        <v>1.000315159155373</v>
+        <v>0.0003151591553733901</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -16444,7 +16444,7 @@
         <v>1.805223587517906</v>
       </c>
       <c r="K214">
-        <v>64.352217611117</v>
+        <v>0.14352217611117</v>
       </c>
       <c r="L214">
         <v>0.006143285118884369</v>
@@ -16474,13 +16474,13 @@
         <v>0.04249999999998977</v>
       </c>
       <c r="U214">
-        <v>1.000052609981166</v>
+        <v>5.2609981165741E-05</v>
       </c>
       <c r="V214">
-        <v>1.000147263011739</v>
+        <v>0.0001472630117389517</v>
       </c>
       <c r="W214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -16515,7 +16515,7 @@
         <v>1.593130142953608</v>
       </c>
       <c r="K215">
-        <v>61.43656720364265</v>
+        <v>0.1143656720364264</v>
       </c>
       <c r="L215">
         <v>0.007063473235989011</v>
@@ -16545,13 +16545,13 @@
         <v>0.04500000000000171</v>
       </c>
       <c r="U215">
-        <v>1.000042085770801</v>
+        <v>4.208577080078157E-05</v>
       </c>
       <c r="V215">
-        <v>1.000126206853032</v>
+        <v>0.0001262068530318849</v>
       </c>
       <c r="W215">
-        <v>0.9996849401386264</v>
+        <v>-0.00031505986137359</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -16586,7 +16586,7 @@
         <v>1.417788852671947</v>
       </c>
       <c r="K216">
-        <v>58.6398953368124</v>
+        <v>0.08639895336812398</v>
       </c>
       <c r="L216">
         <v>0.007657425924851791</v>
@@ -16616,13 +16616,13 @@
         <v>0.04625000000000057</v>
       </c>
       <c r="U216">
-        <v>1.000031562999748</v>
+        <v>3.156299974760302E-05</v>
       </c>
       <c r="V216">
-        <v>1.000126190926873</v>
+        <v>0.0001261909268726047</v>
       </c>
       <c r="W216">
-        <v>0.9996848408446265</v>
+        <v>-0.0003151591553735011</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -16657,7 +16657,7 @@
         <v>1.533642400519374</v>
       </c>
       <c r="K217">
-        <v>60.53113099958348</v>
+        <v>0.1053113099958348</v>
       </c>
       <c r="L217">
         <v>0.008102913979107782</v>
@@ -16687,13 +16687,13 @@
         <v>0.0449999999999946</v>
       </c>
       <c r="U217">
-        <v>1.000063124007112</v>
+        <v>6.312400711183663E-05</v>
       </c>
       <c r="V217">
-        <v>1.000105145837276</v>
+        <v>0.000105145837276277</v>
       </c>
       <c r="W217">
-        <v>1.00031525851198</v>
+        <v>0.0003152585119798879</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -16728,7 +16728,7 @@
         <v>0.95271759359828</v>
       </c>
       <c r="K218">
-        <v>48.78931785741243</v>
+        <v>-0.01210682142587566</v>
       </c>
       <c r="L218">
         <v>0.007825856896489966</v>
@@ -16758,13 +16758,13 @@
         <v>0.03999999999999915</v>
       </c>
       <c r="U218">
-        <v>1.000042080015149</v>
+        <v>4.208001514882653E-05</v>
       </c>
       <c r="V218">
-        <v>1.000021026956558</v>
+        <v>2.102695655814557E-05</v>
       </c>
       <c r="W218">
-        <v>0.9984242042231326</v>
+        <v>-0.001575795776867395</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -16799,7 +16799,7 @@
         <v>1.032462362855057</v>
       </c>
       <c r="K219">
-        <v>50.79859690020179</v>
+        <v>0.007985969002017868</v>
       </c>
       <c r="L219">
         <v>0.007215267377990429</v>
@@ -16829,13 +16829,13 @@
         <v>0.03000000000000114</v>
       </c>
       <c r="U219">
-        <v>0.999989480438876</v>
+        <v>-1.051956112396724E-05</v>
       </c>
       <c r="V219">
-        <v>1.000042053028869</v>
+        <v>4.205302886939322E-05</v>
       </c>
       <c r="W219">
-        <v>1.000315656565657</v>
+        <v>0.0003156565656565746</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16870,7 +16870,7 @@
         <v>1.368229812357215</v>
       </c>
       <c r="K220">
-        <v>57.77436823140693</v>
+        <v>0.07774368231406936</v>
       </c>
       <c r="L220">
         <v>0.006874977787132214</v>
@@ -16900,13 +16900,13 @@
         <v>0.02250000000000085</v>
       </c>
       <c r="U220">
-        <v>1.000052598358931</v>
+        <v>5.259835893123288E-05</v>
       </c>
       <c r="V220">
-        <v>1.000105128151216</v>
+        <v>0.0001051281512163271</v>
       </c>
       <c r="W220">
-        <v>1.001262227832124</v>
+        <v>0.001262227832123708</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16941,7 +16941,7 @@
         <v>1.081536568752048</v>
       </c>
       <c r="K221">
-        <v>51.9585668101169</v>
+        <v>0.01958566810116902</v>
       </c>
       <c r="L221">
         <v>0.006350319511054948</v>
@@ -16971,13 +16971,13 @@
         <v>0.01000000000000512</v>
       </c>
       <c r="U221">
-        <v>1.000031557355494</v>
+        <v>3.155735549364991E-05</v>
       </c>
       <c r="V221">
-        <v>1.00006307026027</v>
+        <v>6.307026026997065E-05</v>
       </c>
       <c r="W221">
-        <v>0.9990545225338796</v>
+        <v>-0.0009454774661203924</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -17012,7 +17012,7 @@
         <v>1.155057931650816</v>
       </c>
       <c r="K222">
-        <v>53.59753511433539</v>
+        <v>0.03597535114335382</v>
       </c>
       <c r="L222">
         <v>0.005839209888364756</v>
@@ -17042,13 +17042,13 @@
         <v>-0.002500000000004832</v>
       </c>
       <c r="U222">
-        <v>1.000063112719317</v>
+        <v>6.31127193166936E-05</v>
       </c>
       <c r="V222">
-        <v>1.000042044188442</v>
+        <v>4.204418844211411E-05</v>
       </c>
       <c r="W222">
-        <v>1.000315457413249</v>
+        <v>0.0003154574132493426</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -17083,7 +17083,7 @@
         <v>1.00023910579287</v>
       </c>
       <c r="K223">
-        <v>50.00597693026243</v>
+        <v>5.97693026243018E-05</v>
       </c>
       <c r="L223">
         <v>0.005117834202427396</v>
@@ -17113,13 +17113,13 @@
         <v>-0.01250000000000284</v>
       </c>
       <c r="U223">
-        <v>1.000031554368176</v>
+        <v>3.155436817636748E-05</v>
       </c>
       <c r="V223">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W223">
-        <v>0.999369284137496</v>
+        <v>-0.0006307158625039611</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -17154,7 +17154,7 @@
         <v>1.00023910579287</v>
       </c>
       <c r="K224">
-        <v>50.00597693026243</v>
+        <v>5.97693026243018E-05</v>
       </c>
       <c r="L224">
         <v>0.004296450059483804</v>
@@ -17184,13 +17184,13 @@
         <v>-0.02000000000000313</v>
       </c>
       <c r="U224">
-        <v>1.000021035581686</v>
+        <v>2.103558168631281E-05</v>
       </c>
       <c r="V224">
-        <v>0.9999789787895986</v>
+        <v>-2.102121040137295E-05</v>
       </c>
       <c r="W224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -17225,7 +17225,7 @@
         <v>1.00023910579287</v>
       </c>
       <c r="K225">
-        <v>50.00597693026243</v>
+        <v>5.97693026243018E-05</v>
       </c>
       <c r="L225">
         <v>0.003451201370263482</v>
@@ -17255,13 +17255,13 @@
         <v>-0.02874999999999517</v>
       </c>
       <c r="U225">
-        <v>1.0000315527088</v>
+        <v>3.155270880017547E-05</v>
       </c>
       <c r="V225">
-        <v>0.9999789783476982</v>
+        <v>-2.10216523017781E-05</v>
       </c>
       <c r="W225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -17296,7 +17296,7 @@
         <v>0.9277225290354733</v>
       </c>
       <c r="K226">
-        <v>48.12531446108351</v>
+        <v>-0.01874685538916493</v>
       </c>
       <c r="L226">
         <v>0.00251792629945401</v>
@@ -17326,13 +17326,13 @@
         <v>-0.02624999999999744</v>
       </c>
       <c r="U226">
-        <v>1.000021034475505</v>
+        <v>2.103447550516613E-05</v>
       </c>
       <c r="V226">
-        <v>0.9999159116231159</v>
+        <v>-8.408837688411719E-05</v>
       </c>
       <c r="W226">
-        <v>0.999684443041969</v>
+        <v>-0.0003155569580309825</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -17367,7 +17367,7 @@
         <v>1.080352511706418</v>
       </c>
       <c r="K227">
-        <v>51.93122346463554</v>
+        <v>0.01931223464635534</v>
       </c>
       <c r="L227">
         <v>0.001811388647664815</v>
@@ -17397,13 +17397,13 @@
         <v>-0.02125000000000199</v>
       </c>
       <c r="U227">
-        <v>1.000031551049599</v>
+        <v>3.155104959851052E-05</v>
       </c>
       <c r="V227">
-        <v>0.9999369284137496</v>
+        <v>-6.307158625040721E-05</v>
       </c>
       <c r="W227">
-        <v>1.000631313131313</v>
+        <v>0.0006313131313131493</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -17438,7 +17438,7 @@
         <v>1.160684081533245</v>
       </c>
       <c r="K228">
-        <v>53.71836130294489</v>
+        <v>0.03718361302944895</v>
       </c>
       <c r="L228">
         <v>0.001395502075483688</v>
@@ -17468,13 +17468,13 @@
         <v>-0.02374999999999261</v>
       </c>
       <c r="U228">
-        <v>1.000063100108322</v>
+        <v>6.310010832200064E-05</v>
       </c>
       <c r="V228">
-        <v>0.9999369244354737</v>
+        <v>-6.307556452633811E-05</v>
       </c>
       <c r="W228">
-        <v>1.000315457413249</v>
+        <v>0.0003154574132493426</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -17509,7 +17509,7 @@
         <v>1.160684081533245</v>
       </c>
       <c r="K229">
-        <v>53.71836130294489</v>
+        <v>0.03718361302944895</v>
       </c>
       <c r="L229">
         <v>0.001177107696669807</v>
@@ -17539,13 +17539,13 @@
         <v>-0.0175000000000054</v>
       </c>
       <c r="U229">
-        <v>1.000042064084633</v>
+        <v>4.206408463280908E-05</v>
       </c>
       <c r="V229">
-        <v>0.9999369204566959</v>
+        <v>-6.307954330408982E-05</v>
       </c>
       <c r="W229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -17580,7 +17580,7 @@
         <v>1.065815767159701</v>
       </c>
       <c r="K230">
-        <v>51.59297281504904</v>
+        <v>0.01592972815049043</v>
       </c>
       <c r="L230">
         <v>0.000973114170296744</v>
@@ -17610,13 +17610,13 @@
         <v>-0.01499999999999346</v>
       </c>
       <c r="U230">
-        <v>1.00003154673649</v>
+        <v>3.154673649019557E-05</v>
       </c>
       <c r="V230">
-        <v>0.9999369164774161</v>
+        <v>-6.308352258388439E-05</v>
       </c>
       <c r="W230">
-        <v>0.999684642068748</v>
+        <v>-0.000315357931252036</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -17651,7 +17651,7 @@
         <v>0.909342228047655</v>
       </c>
       <c r="K231">
-        <v>47.62594231090137</v>
+        <v>-0.0237405768909863</v>
       </c>
       <c r="L231">
         <v>0.0005575643978117332</v>
@@ -17681,13 +17681,13 @@
         <v>-0.01125000000000398</v>
       </c>
       <c r="U231">
-        <v>1.000021030494217</v>
+        <v>2.103049421653402E-05</v>
       </c>
       <c r="V231">
-        <v>0.999915883330179</v>
+        <v>-8.411666982099941E-05</v>
       </c>
       <c r="W231">
-        <v>0.9993690851735015</v>
+        <v>-0.0006309148264984632</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -17722,7 +17722,7 @@
         <v>0.8441180867991848</v>
       </c>
       <c r="K232">
-        <v>45.77353765150208</v>
+        <v>-0.04226462348497917</v>
       </c>
       <c r="L232">
         <v>-7.656468864172465E-05</v>
@@ -17752,13 +17752,13 @@
         <v>-0.01000000000000512</v>
       </c>
       <c r="U232">
-        <v>0.9999894849740278</v>
+        <v>-1.051502597215759E-05</v>
       </c>
       <c r="V232">
-        <v>0.9998738143809544</v>
+        <v>-0.000126185619045649</v>
       </c>
       <c r="W232">
-        <v>0.9996843434343435</v>
+        <v>-0.0003156565656564636</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -17793,7 +17793,7 @@
         <v>0.6882301953408513</v>
       </c>
       <c r="K233">
-        <v>40.76637162634676</v>
+        <v>-0.09233628373653241</v>
       </c>
       <c r="L233">
         <v>-0.001147033637061639</v>
@@ -17823,13 +17823,13 @@
         <v>-0.01124999999999687</v>
       </c>
       <c r="U233">
-        <v>0.999968454590383</v>
+        <v>-3.154540961702867E-05</v>
       </c>
       <c r="V233">
-        <v>0.9999158656374231</v>
+        <v>-8.413436257692641E-05</v>
       </c>
       <c r="W233">
-        <v>0.999052731291443</v>
+        <v>-0.000947268708556992</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17864,7 +17864,7 @@
         <v>0.6882301953408514</v>
       </c>
       <c r="K234">
-        <v>40.76637162634676</v>
+        <v>-0.09233628373653241</v>
       </c>
       <c r="L234">
         <v>-0.002409487313338744</v>
@@ -17894,13 +17894,13 @@
         <v>-0.01625000000000654</v>
       </c>
       <c r="U234">
-        <v>0.9999684535952386</v>
+        <v>-3.154640476143999E-05</v>
       </c>
       <c r="V234">
-        <v>0.9998948231977953</v>
+        <v>-0.0001051768022046762</v>
       </c>
       <c r="W234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17935,7 +17935,7 @@
         <v>0.6882301953408514</v>
       </c>
       <c r="K235">
-        <v>40.76637162634676</v>
+        <v>-0.09233628373653241</v>
       </c>
       <c r="L235">
         <v>-0.003699090391229603</v>
@@ -17965,13 +17965,13 @@
         <v>-0.02499999999999858</v>
       </c>
       <c r="U235">
-        <v>0.999957936800042</v>
+        <v>-4.206319995803121E-05</v>
       </c>
       <c r="V235">
-        <v>0.9998106618420499</v>
+        <v>-0.0001893381579500808</v>
       </c>
       <c r="W235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -18006,7 +18006,7 @@
         <v>0.7600289822001358</v>
       </c>
       <c r="K236">
-        <v>43.18275380045484</v>
+        <v>-0.06817246199545157</v>
       </c>
       <c r="L236">
         <v>-0.004794699451912176</v>
@@ -18036,13 +18036,13 @@
         <v>-0.03000000000000824</v>
       </c>
       <c r="U236">
-        <v>0.9999789675153274</v>
+        <v>-2.103248467255625E-05</v>
       </c>
       <c r="V236">
-        <v>0.999894792214624</v>
+        <v>-0.000105207785376038</v>
       </c>
       <c r="W236">
-        <v>1.00031605562579</v>
+        <v>0.0003160556257901792</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -18077,7 +18077,7 @@
         <v>0.8356066525783569</v>
       </c>
       <c r="K237">
-        <v>45.52209763484104</v>
+        <v>-0.04477902365158959</v>
       </c>
       <c r="L237">
         <v>-0.00557069322470635</v>
@@ -18107,13 +18107,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U237">
-        <v>0.9999684506094292</v>
+        <v>-3.154939057081751E-05</v>
       </c>
       <c r="V237">
-        <v>0.999894781144781</v>
+        <v>-0.0001052188552189692</v>
       </c>
       <c r="W237">
-        <v>1.000315955766193</v>
+        <v>0.0003159557661926993</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -18148,7 +18148,7 @@
         <v>0.7740284747587038</v>
       </c>
       <c r="K238">
-        <v>43.63111899114156</v>
+        <v>-0.0636888100885844</v>
       </c>
       <c r="L238">
         <v>-0.006198245602591713</v>
@@ -18178,13 +18178,13 @@
         <v>-0.04250000000000398</v>
       </c>
       <c r="U238">
-        <v>0.9999579328187116</v>
+        <v>-4.20671812884077E-05</v>
       </c>
       <c r="V238">
-        <v>0.9999158160580869</v>
+        <v>-8.418394191311851E-05</v>
       </c>
       <c r="W238">
-        <v>0.9996841440303221</v>
+        <v>-0.0003158559696778696</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -18219,7 +18219,7 @@
         <v>0.7740284747587038</v>
       </c>
       <c r="K239">
-        <v>43.63111899114156</v>
+        <v>-0.0636888100885844</v>
       </c>
       <c r="L239">
         <v>-0.006673356918321579</v>
@@ -18249,13 +18249,13 @@
         <v>-0.04500000000000171</v>
       </c>
       <c r="U239">
-        <v>0.9999474138112365</v>
+        <v>-5.258618876347043E-05</v>
       </c>
       <c r="V239">
-        <v>0.9999158089705542</v>
+        <v>-8.419102944579038E-05</v>
       </c>
       <c r="W239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -18290,7 +18290,7 @@
         <v>0.5834607426102039</v>
       </c>
       <c r="K240">
-        <v>36.84718710793027</v>
+        <v>-0.1315281289206973</v>
       </c>
       <c r="L240">
         <v>-0.007461190484675869</v>
@@ -18320,13 +18320,13 @@
         <v>-0.05000000000000426</v>
       </c>
       <c r="U240">
-        <v>0.9999053398824111</v>
+        <v>-9.466011758885173E-05</v>
       </c>
       <c r="V240">
-        <v>0.9998316037636559</v>
+        <v>-0.000168396236344126</v>
       </c>
       <c r="W240">
-        <v>0.9987361769352291</v>
+        <v>-0.001263823064770908</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -18361,7 +18361,7 @@
         <v>0.6482508696305517</v>
       </c>
       <c r="K241">
-        <v>39.32962400170638</v>
+        <v>-0.1067037599829362</v>
       </c>
       <c r="L241">
         <v>-0.008246346594953458</v>
@@ -18391,13 +18391,13 @@
         <v>-0.04625000000000767</v>
       </c>
       <c r="U241">
-        <v>0.9998948121344722</v>
+        <v>-0.0001051878655278227</v>
       </c>
       <c r="V241">
-        <v>0.9998736815511905</v>
+        <v>-0.0001263184488095037</v>
       </c>
       <c r="W241">
-        <v>1.000316355583676</v>
+        <v>0.0003163555836760423</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -18432,7 +18432,7 @@
         <v>0.6068627490072888</v>
       </c>
       <c r="K242">
-        <v>37.76693120692512</v>
+        <v>-0.1223306879307488</v>
       </c>
       <c r="L242">
         <v>-0.009064854871644077</v>
@@ -18462,13 +18462,13 @@
         <v>-0.0449999999999946</v>
       </c>
       <c r="U242">
-        <v>0.9998737612825854</v>
+        <v>-0.0001262387174145729</v>
       </c>
       <c r="V242">
-        <v>0.9998104983892363</v>
+        <v>-0.0001895016107636982</v>
       </c>
       <c r="W242">
-        <v>0.9996837444655281</v>
+        <v>-0.0003162555344718987</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -18503,7 +18503,7 @@
         <v>0.5050378135131183</v>
       </c>
       <c r="K243">
-        <v>33.55648668615437</v>
+        <v>-0.1644351331384563</v>
       </c>
       <c r="L243">
         <v>-0.01016333591250678</v>
@@ -18533,13 +18533,13 @@
         <v>-0.04500000000000881</v>
       </c>
       <c r="U243">
-        <v>0.999831660459146</v>
+        <v>-0.0001683395408540456</v>
       </c>
       <c r="V243">
-        <v>0.9997262235700448</v>
+        <v>-0.0002737764299551859</v>
       </c>
       <c r="W243">
-        <v>0.9990509332489718</v>
+        <v>-0.000949066751028238</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -18574,7 +18574,7 @@
         <v>0.5050378135131184</v>
       </c>
       <c r="K244">
-        <v>33.55648668615437</v>
+        <v>-0.1644351331384563</v>
       </c>
       <c r="L244">
         <v>-0.01132467569784714</v>
@@ -18604,13 +18604,13 @@
         <v>-0.04625000000000057</v>
       </c>
       <c r="U244">
-        <v>0.9998316321161739</v>
+        <v>-0.000168367883826126</v>
       </c>
       <c r="V244">
-        <v>0.9997261485959849</v>
+        <v>-0.0002738514040151463</v>
       </c>
       <c r="W244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -18645,7 +18645,7 @@
         <v>0.5670097687174396</v>
       </c>
       <c r="K245">
-        <v>36.18418851220842</v>
+        <v>-0.1381581148779158</v>
       </c>
       <c r="L245">
         <v>-0.01229414222823721</v>
@@ -18675,13 +18675,13 @@
         <v>-0.04874999999999119</v>
       </c>
       <c r="U245">
-        <v>0.9998526532931989</v>
+        <v>-0.0001473467068010548</v>
       </c>
       <c r="V245">
-        <v>0.9997682161068734</v>
+        <v>-0.0002317838931266136</v>
       </c>
       <c r="W245">
-        <v>1.000316656111463</v>
+        <v>0.0003166561114629207</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -18716,7 +18716,7 @@
         <v>0.6322434057746199</v>
       </c>
       <c r="K246">
-        <v>38.73462766262939</v>
+        <v>-0.1126537233737062</v>
       </c>
       <c r="L246">
         <v>-0.01292602376404172</v>
@@ -18746,13 +18746,13 @@
         <v>-0.04874999999999829</v>
       </c>
       <c r="U246">
-        <v>0.9998736842105264</v>
+        <v>-0.0001263157894736411</v>
       </c>
       <c r="V246">
-        <v>0.9998313908150147</v>
+        <v>-0.0001686091849852911</v>
       </c>
       <c r="W246">
-        <v>1.000316555872111</v>
+        <v>0.0003165558721114348</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -18787,7 +18787,7 @@
         <v>0.7009103921505749</v>
       </c>
       <c r="K247">
-        <v>41.20795518594998</v>
+        <v>-0.08792044814050021</v>
       </c>
       <c r="L247">
         <v>-0.0131511576317244</v>
@@ -18817,13 +18817,13 @@
         <v>-0.04999999999999716</v>
       </c>
       <c r="U247">
-        <v>0.9998736682528317</v>
+        <v>-0.0001263317471682512</v>
       </c>
       <c r="V247">
-        <v>0.9998735217858724</v>
+        <v>-0.00012647821412759</v>
       </c>
       <c r="W247">
-        <v>1.000316455696203</v>
+        <v>0.0003164556962025333</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18858,7 +18858,7 @@
         <v>0.5760071972997101</v>
       </c>
       <c r="K248">
-        <v>36.54851312142647</v>
+        <v>-0.1345148687857353</v>
       </c>
       <c r="L248">
         <v>-0.01341264761946388</v>
@@ -18888,13 +18888,13 @@
         <v>-0.04625000000000057</v>
       </c>
       <c r="U248">
-        <v>0.9998947102425876</v>
+        <v>-0.000105289757412419</v>
       </c>
       <c r="V248">
-        <v>0.9998735057871102</v>
+        <v>-0.0001264942128897939</v>
       </c>
       <c r="W248">
-        <v>0.9990509332489718</v>
+        <v>-0.000949066751028238</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18929,7 +18929,7 @@
         <v>0.5760071972997102</v>
       </c>
       <c r="K249">
-        <v>36.54851312142647</v>
+        <v>-0.1345148687857353</v>
       </c>
       <c r="L249">
         <v>-0.01363081557813891</v>
@@ -18959,13 +18959,13 @@
         <v>-0.04874999999999119</v>
       </c>
       <c r="U249">
-        <v>0.9998841690710361</v>
+        <v>-0.0001158309289639448</v>
       </c>
       <c r="V249">
-        <v>0.9998734897843</v>
+        <v>-0.000126510215699982</v>
       </c>
       <c r="W249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -19000,7 +19000,7 @@
         <v>0.6418248792513649</v>
       </c>
       <c r="K250">
-        <v>39.09216429611071</v>
+        <v>-0.1090783570388929</v>
       </c>
       <c r="L250">
         <v>-0.01364429775677516</v>
@@ -19030,13 +19030,13 @@
         <v>-0.04750000000000654</v>
       </c>
       <c r="U250">
-        <v>0.9998525617397714</v>
+        <v>-0.0001474382602285607</v>
       </c>
       <c r="V250">
-        <v>0.9998945614812004</v>
+        <v>-0.0001054385187996276</v>
       </c>
       <c r="W250">
-        <v>1.000316656111463</v>
+        <v>0.0003166561114629207</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -19071,7 +19071,7 @@
         <v>0.7111066497267911</v>
       </c>
       <c r="K251">
-        <v>41.5582891832214</v>
+        <v>-0.08441710816778603</v>
       </c>
       <c r="L251">
         <v>-0.0133682327514547</v>
@@ -19101,13 +19101,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U251">
-        <v>0.9998946714275181</v>
+        <v>-0.0001053285724819109</v>
       </c>
       <c r="V251">
-        <v>0.9998945503627467</v>
+        <v>-0.0001054496372533409</v>
       </c>
       <c r="W251">
-        <v>1.000316555872111</v>
+        <v>0.0003165558721114348</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -19142,7 +19142,7 @@
         <v>0.8569630086223992</v>
       </c>
       <c r="K252">
-        <v>46.14863110591218</v>
+        <v>-0.0385136889408782</v>
       </c>
       <c r="L252">
         <v>-0.01265551761808056</v>
@@ -19172,13 +19172,13 @@
         <v>-0.02374999999999972</v>
       </c>
       <c r="U252">
-        <v>0.9999051942990173</v>
+        <v>-9.480570098274743E-05</v>
       </c>
       <c r="V252">
-        <v>0.9999156313935585</v>
+        <v>-8.436860644145394E-05</v>
       </c>
       <c r="W252">
-        <v>1.000632911392405</v>
+        <v>0.0006329113924050667</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -19213,7 +19213,7 @@
         <v>0.7429028919554156</v>
       </c>
       <c r="K253">
-        <v>42.62445689799335</v>
+        <v>-0.07375543102006654</v>
       </c>
       <c r="L253">
         <v>-0.01190762791051072</v>
@@ -19243,13 +19243,13 @@
         <v>-0.01375000000000171</v>
       </c>
       <c r="U253">
-        <v>0.999905185310044</v>
+        <v>-9.481468995597986E-05</v>
       </c>
       <c r="V253">
-        <v>0.9998945303436201</v>
+        <v>-0.0001054696563799196</v>
       </c>
       <c r="W253">
-        <v>0.9993674889310563</v>
+        <v>-0.0006325110689436864</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -19284,7 +19284,7 @@
         <v>0.6942682796645462</v>
       </c>
       <c r="K254">
-        <v>40.97747021516609</v>
+        <v>-0.09022529784833916</v>
       </c>
       <c r="L254">
         <v>-0.01125781174419971</v>
@@ -19314,13 +19314,13 @@
         <v>-0.008749999999992042</v>
       </c>
       <c r="U254">
-        <v>0.9998946403548514</v>
+        <v>-0.0001053596451485728</v>
       </c>
       <c r="V254">
-        <v>0.999873423062318</v>
+        <v>-0.0001265769376820325</v>
       </c>
       <c r="W254">
-        <v>0.9996835443037975</v>
+        <v>-0.0003164556962025333</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -19355,7 +19355,7 @@
         <v>0.5753285415130996</v>
       </c>
       <c r="K255">
-        <v>36.52117804965926</v>
+        <v>-0.1347882195034074</v>
       </c>
       <c r="L255">
         <v>-0.01101317535064213</v>
@@ -19385,13 +19385,13 @@
         <v>-0.009999999999990905</v>
       </c>
       <c r="U255">
-        <v>0.9998630180289346</v>
+        <v>-0.0001369819710653752</v>
       </c>
       <c r="V255">
-        <v>0.9998945058654739</v>
+        <v>-0.0001054941345260962</v>
       </c>
       <c r="W255">
-        <v>0.9990503323836657</v>
+        <v>-0.0009496676163343043</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -19426,7 +19426,7 @@
         <v>0.6955507745576799</v>
       </c>
       <c r="K256">
-        <v>41.02211417049006</v>
+        <v>-0.08977885829509946</v>
       </c>
       <c r="L256">
         <v>-0.01075942063683746</v>
@@ -19456,13 +19456,13 @@
         <v>-0.006250000000001421</v>
       </c>
       <c r="U256">
-        <v>0.9998946148171568</v>
+        <v>-0.0001053851828431984</v>
       </c>
       <c r="V256">
-        <v>0.99991559578823</v>
+        <v>-8.440421177002833E-05</v>
       </c>
       <c r="W256">
-        <v>1.00063371356147</v>
+        <v>0.0006337135614702394</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -19497,7 +19497,7 @@
         <v>0.6955507745576799</v>
       </c>
       <c r="K257">
-        <v>41.02211417049006</v>
+        <v>-0.08977885829509946</v>
       </c>
       <c r="L257">
         <v>-0.01047717426166906</v>
@@ -19527,13 +19527,13 @@
         <v>-0.001250000000005969</v>
       </c>
       <c r="U257">
-        <v>0.9998735244519391</v>
+        <v>-0.0001264755480608892</v>
       </c>
       <c r="V257">
-        <v>0.9999366914976682</v>
+        <v>-6.330850233182694E-05</v>
       </c>
       <c r="W257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -19568,7 +19568,7 @@
         <v>0.6521164811665432</v>
       </c>
       <c r="K258">
-        <v>39.47158015796139</v>
+        <v>-0.1052841984203861</v>
       </c>
       <c r="L258">
         <v>-0.01027267270230174</v>
@@ -19598,13 +19598,13 @@
         <v>-0.001249999999998863</v>
       </c>
       <c r="U258">
-        <v>0.9998524265294937</v>
+        <v>-0.0001475734705063125</v>
       </c>
       <c r="V258">
-        <v>0.9999788958298158</v>
+        <v>-2.110417018419408E-05</v>
       </c>
       <c r="W258">
-        <v>0.9996833438885371</v>
+        <v>-0.0003166561114629207</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -19639,7 +19639,7 @@
         <v>0.8493140568368222</v>
       </c>
       <c r="K259">
-        <v>45.92589634502318</v>
+        <v>-0.04074103654976818</v>
       </c>
       <c r="L259">
         <v>-0.009745501868674006</v>
@@ -19669,13 +19669,13 @@
         <v>-0.003749999999996589</v>
       </c>
       <c r="U259">
-        <v>0.9998840323022752</v>
+        <v>-0.000115967697724817</v>
       </c>
       <c r="V259">
-        <v>1.000042209231159</v>
+        <v>4.22092311589406E-05</v>
       </c>
       <c r="W259">
-        <v>1.000950269242952</v>
+        <v>0.000950269242952162</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -19710,7 +19710,7 @@
         <v>0.794351203647334</v>
       </c>
       <c r="K260">
-        <v>44.26955002079167</v>
+        <v>-0.0573044997920833</v>
       </c>
       <c r="L260">
         <v>-0.009136049247385871</v>
@@ -19740,13 +19740,13 @@
         <v>-0.01250000000000284</v>
       </c>
       <c r="U260">
-        <v>0.9998840188522082</v>
+        <v>-0.000115981147791766</v>
       </c>
       <c r="V260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W260">
-        <v>0.9996835443037975</v>
+        <v>-0.0003164556962025333</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -19781,7 +19781,7 @@
         <v>0.8624716291490386</v>
       </c>
       <c r="K261">
-        <v>46.30790695819088</v>
+        <v>-0.03692093041809125</v>
       </c>
       <c r="L261">
         <v>-0.008367123638168879</v>
@@ -19811,13 +19811,13 @@
         <v>-0.01375000000000881</v>
       </c>
       <c r="U261">
-        <v>0.9999156402901975</v>
+        <v>-8.435970980247287E-05</v>
       </c>
       <c r="V261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W261">
-        <v>1.000316555872111</v>
+        <v>0.0003165558721114348</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19852,7 +19852,7 @@
         <v>0.7542968458005592</v>
       </c>
       <c r="K262">
-        <v>42.99710437296842</v>
+        <v>-0.07002895627031586</v>
       </c>
       <c r="L262">
         <v>-0.00775043504986552</v>
@@ -19882,13 +19882,13 @@
         <v>-0.01375000000000171</v>
       </c>
       <c r="U262">
-        <v>0.9999050873196659</v>
+        <v>-9.491268033412492E-05</v>
       </c>
       <c r="V262">
-        <v>0.9999366888255777</v>
+        <v>-6.331117442226475E-05</v>
       </c>
       <c r="W262">
-        <v>0.9993670886075948</v>
+        <v>-0.0006329113924051777</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19923,7 +19923,7 @@
         <v>0.6663249974058328</v>
       </c>
       <c r="K263">
-        <v>39.98769738455467</v>
+        <v>-0.1001230261544533</v>
       </c>
       <c r="L263">
         <v>-0.007467462707341249</v>
@@ -19953,13 +19953,13 @@
         <v>-0.007499999999993179</v>
       </c>
       <c r="U263">
-        <v>0.9999156251647945</v>
+        <v>-8.437483520551403E-05</v>
       </c>
       <c r="V263">
-        <v>0.9999577898780126</v>
+        <v>-4.221012198735163E-05</v>
       </c>
       <c r="W263">
-        <v>0.9993666877770742</v>
+        <v>-0.0006333122229258414</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19994,7 +19994,7 @@
         <v>0.5934674235907429</v>
       </c>
       <c r="K264">
-        <v>37.24377510356721</v>
+        <v>-0.1275622489643279</v>
       </c>
       <c r="L264">
         <v>-0.007607985311737314</v>
@@ -20024,13 +20024,13 @@
         <v>-0.01249999999999574</v>
       </c>
       <c r="U264">
-        <v>0.9998945225563515</v>
+        <v>-0.0001054774436485273</v>
       </c>
       <c r="V264">
-        <v>0.9999155761924863</v>
+        <v>-8.442380751372269E-05</v>
       </c>
       <c r="W264">
-        <v>0.9993662864385298</v>
+        <v>-0.0006337135614702394</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -20065,7 +20065,7 @@
         <v>0.5611727027269976</v>
       </c>
       <c r="K265">
-        <v>35.94558768205223</v>
+        <v>-0.1405441231794777</v>
       </c>
       <c r="L265">
         <v>-0.008083747689640054</v>
@@ -20095,13 +20095,13 @@
         <v>-0.01874999999999716</v>
       </c>
       <c r="U265">
-        <v>0.9998839625726552</v>
+        <v>-0.0001160374273447839</v>
       </c>
       <c r="V265">
-        <v>0.9998733535967578</v>
+        <v>-0.0001266464032422254</v>
       </c>
       <c r="W265">
-        <v>0.9996829422954978</v>
+        <v>-0.0003170577045021883</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -20136,7 +20136,7 @@
         <v>0.5034916338893598</v>
       </c>
       <c r="K266">
-        <v>33.488156670808</v>
+        <v>-0.1651184332919201</v>
       </c>
       <c r="L266">
         <v>-0.008933435614741924</v>
@@ -20166,13 +20166,13 @@
         <v>-0.02374999999999972</v>
       </c>
       <c r="U266">
-        <v>0.9998522988627013</v>
+        <v>-0.0001477011372986725</v>
       </c>
       <c r="V266">
-        <v>0.9998100063331223</v>
+        <v>-0.0001899936668776636</v>
       </c>
       <c r="W266">
-        <v>0.9993656834760546</v>
+        <v>-0.0006343165239454107</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -20207,7 +20207,7 @@
         <v>0.4776515255516915</v>
       </c>
       <c r="K267">
-        <v>32.32504533660986</v>
+        <v>-0.1767495466339014</v>
       </c>
       <c r="L267">
         <v>-0.01003841882353216</v>
@@ -20237,13 +20237,13 @@
         <v>-0.03625000000000256</v>
       </c>
       <c r="U267">
-        <v>0.9998311737644029</v>
+        <v>-0.0001688262355971082</v>
       </c>
       <c r="V267">
-        <v>0.9997466269715588</v>
+        <v>-0.000253373028441195</v>
       </c>
       <c r="W267">
-        <v>0.9996826404316089</v>
+        <v>-0.0003173595683910735</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -20278,7 +20278,7 @@
         <v>0.4776515255516915</v>
       </c>
       <c r="K268">
-        <v>32.32504533660986</v>
+        <v>-0.1767495466339014</v>
       </c>
       <c r="L268">
         <v>-0.01119134286298205</v>
@@ -20308,13 +20308,13 @@
         <v>-0.04375000000000284</v>
       </c>
       <c r="U268">
-        <v>0.9998416986787116</v>
+        <v>-0.0001583013212883566</v>
       </c>
       <c r="V268">
-        <v>0.999788802297831</v>
+        <v>-0.0002111977021690414</v>
       </c>
       <c r="W268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -20349,7 +20349,7 @@
         <v>0.5913840965099321</v>
       </c>
       <c r="K269">
-        <v>37.16161910923314</v>
+        <v>-0.1283838089076685</v>
       </c>
       <c r="L269">
         <v>-0.01202881699444111</v>
@@ -20379,13 +20379,13 @@
         <v>-0.05374999999999375</v>
       </c>
       <c r="U269">
-        <v>0.9998627838000443</v>
+        <v>-0.0001372161999556587</v>
       </c>
       <c r="V269">
-        <v>0.9998521303787575</v>
+        <v>-0.0001478696212424691</v>
       </c>
       <c r="W269">
-        <v>1.000634920634921</v>
+        <v>0.0006349206349205438</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -20420,7 +20420,7 @@
         <v>0.5281542626624064</v>
       </c>
       <c r="K270">
-        <v>34.56158030421854</v>
+        <v>-0.1543841969578146</v>
       </c>
       <c r="L270">
         <v>-0.01280866590168687</v>
@@ -20450,13 +20450,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U270">
-        <v>0.9998838780508402</v>
+        <v>-0.0001161219491597754</v>
       </c>
       <c r="V270">
-        <v>0.999873235865799</v>
+        <v>-0.0001267641342009851</v>
       </c>
       <c r="W270">
-        <v>0.9993654822335025</v>
+        <v>-0.0006345177664974777</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -20491,7 +20491,7 @@
         <v>0.4747259160019581</v>
       </c>
       <c r="K271">
-        <v>32.19078954609812</v>
+        <v>-0.1780921045390189</v>
       </c>
       <c r="L271">
         <v>-0.01368802468425239</v>
@@ -20521,13 +20521,13 @@
         <v>-0.07249999999999801</v>
       </c>
       <c r="U271">
-        <v>0.9998521912645036</v>
+        <v>-0.0001478087354963575</v>
       </c>
       <c r="V271">
-        <v>0.9997886996576935</v>
+        <v>-0.0002113003423065418</v>
       </c>
       <c r="W271">
-        <v>0.9993650793650793</v>
+        <v>-0.0006349206349206549</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -20562,7 +20562,7 @@
         <v>0.474725916001958</v>
       </c>
       <c r="K272">
-        <v>32.19078954609812</v>
+        <v>-0.1780921045390189</v>
       </c>
       <c r="L272">
         <v>-0.01452206467507134</v>
@@ -20592,13 +20592,13 @@
         <v>-0.07500000000000284</v>
       </c>
       <c r="U272">
-        <v>0.9998627287414338</v>
+        <v>-0.0001372712585662184</v>
       </c>
       <c r="V272">
-        <v>0.9997886550004228</v>
+        <v>-0.000211344999577201</v>
       </c>
       <c r="W272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -20633,7 +20633,7 @@
         <v>0.5307705115836187</v>
       </c>
       <c r="K273">
-        <v>34.67342149376289</v>
+        <v>-0.1532657850623711</v>
       </c>
       <c r="L273">
         <v>-0.01510754881028151</v>
@@ -20663,13 +20663,13 @@
         <v>-0.07375000000000398</v>
       </c>
       <c r="U273">
-        <v>0.9999049530045413</v>
+        <v>-9.504699545870299E-05</v>
       </c>
       <c r="V273">
-        <v>0.9998308882594175</v>
+        <v>-0.0001691117405825393</v>
       </c>
       <c r="W273">
-        <v>1.000317662007624</v>
+        <v>0.0003176620076237313</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -20704,7 +20704,7 @@
         <v>0.6487591338608412</v>
       </c>
       <c r="K274">
-        <v>39.34832690458944</v>
+        <v>-0.1065167309541056</v>
       </c>
       <c r="L274">
         <v>-0.01521960869084589</v>
@@ -20734,13 +20734,13 @@
         <v>-0.06624999999999659</v>
       </c>
       <c r="U274">
-        <v>0.9999260675320285</v>
+        <v>-7.393246797149367E-05</v>
       </c>
       <c r="V274">
-        <v>0.9998097171127743</v>
+        <v>-0.0001902828872256679</v>
       </c>
       <c r="W274">
-        <v>1.000635122261035</v>
+        <v>0.000635122261035459</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -20775,7 +20775,7 @@
         <v>0.7108584087435678</v>
       </c>
       <c r="K275">
-        <v>41.54980944715425</v>
+        <v>-0.08450190552845749</v>
       </c>
       <c r="L275">
         <v>-0.01486692943432177</v>
@@ -20805,13 +20805,13 @@
         <v>-0.05124999999999602</v>
       </c>
       <c r="U275">
-        <v>0.9999260620656145</v>
+        <v>-7.39379343854818E-05</v>
       </c>
       <c r="V275">
-        <v>0.999851974032016</v>
+        <v>-0.0001480259679840223</v>
       </c>
       <c r="W275">
-        <v>1.000317359568391</v>
+        <v>0.0003173595683909625</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20846,7 +20846,7 @@
         <v>0.6672423398234715</v>
       </c>
       <c r="K276">
-        <v>40.0207170778856</v>
+        <v>-0.09979282922114402</v>
       </c>
       <c r="L276">
         <v>-0.01431631653682529</v>
@@ -20876,13 +20876,13 @@
         <v>-0.03875000000000028</v>
       </c>
       <c r="U276">
-        <v>0.9999049299122186</v>
+        <v>-9.507008778142367E-05</v>
       </c>
       <c r="V276">
-        <v>0.999809652721966</v>
+        <v>-0.0001903472780340199</v>
       </c>
       <c r="W276">
-        <v>0.9996827411167514</v>
+        <v>-0.0003172588832486278</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20917,7 +20917,7 @@
         <v>0.5589424198757784</v>
       </c>
       <c r="K277">
-        <v>35.85394898166392</v>
+        <v>-0.1414605101833608</v>
       </c>
       <c r="L277">
         <v>-0.01397487656726559</v>
@@ -20947,13 +20947,13 @@
         <v>-0.03374999999999773</v>
       </c>
       <c r="U277">
-        <v>0.9998626634832768</v>
+        <v>-0.0001373365167232077</v>
       </c>
       <c r="V277">
-        <v>0.9997884627588688</v>
+        <v>-0.00021153724113121</v>
       </c>
       <c r="W277">
-        <v>0.999047921294827</v>
+        <v>-0.0009520787051729984</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20988,7 +20988,7 @@
         <v>0.4552378229044129</v>
       </c>
       <c r="K278">
-        <v>31.28270965331521</v>
+        <v>-0.1871729034668479</v>
       </c>
       <c r="L278">
         <v>-0.01419277531561951</v>
@@ -21018,13 +21018,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U278">
-        <v>0.9998520788208567</v>
+        <v>-0.0001479211791433066</v>
       </c>
       <c r="V278">
-        <v>0.9997461016016758</v>
+        <v>-0.0002538983983242371</v>
       </c>
       <c r="W278">
-        <v>0.9987293519695045</v>
+        <v>-0.00127064803049548</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -21059,7 +21059,7 @@
         <v>0.6993656833339493</v>
       </c>
       <c r="K279">
-        <v>41.15451372195999</v>
+        <v>-0.08845486278040016</v>
       </c>
       <c r="L279">
         <v>-0.01410723039980829</v>
@@ -21089,13 +21089,13 @@
         <v>-0.01999999999999602</v>
       </c>
       <c r="U279">
-        <v>0.9999048937451787</v>
+        <v>-9.510625482134216E-05</v>
       </c>
       <c r="V279">
-        <v>0.9998941821337115</v>
+        <v>-0.0001058178662884934</v>
       </c>
       <c r="W279">
-        <v>1.001590330788804</v>
+        <v>0.001590330788803884</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -21130,7 +21130,7 @@
         <v>0.6651786034870489</v>
       </c>
       <c r="K280">
-        <v>39.94638185321977</v>
+        <v>-0.1005361814678023</v>
       </c>
       <c r="L280">
         <v>-0.01390737001234445</v>
@@ -21160,13 +21160,13 @@
         <v>-0.01250000000000995</v>
       </c>
       <c r="U280">
-        <v>0.9998837479655894</v>
+        <v>-0.0001162520344105689</v>
       </c>
       <c r="V280">
-        <v>0.9998941709351054</v>
+        <v>-0.0001058290648946469</v>
       </c>
       <c r="W280">
-        <v>0.9996824388694825</v>
+        <v>-0.0003175611305175075</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -21201,7 +21201,7 @@
         <v>0.6651786034870488</v>
       </c>
       <c r="K281">
-        <v>39.94638185321977</v>
+        <v>-0.1005361814678023</v>
       </c>
       <c r="L281">
         <v>-0.0136003987973655</v>
@@ -21231,13 +21231,13 @@
         <v>-0.008749999999999147</v>
       </c>
       <c r="U281">
-        <v>0.9998731648539811</v>
+        <v>-0.0001268351460188555</v>
       </c>
       <c r="V281">
-        <v>0.9999364958404777</v>
+        <v>-6.350415952227628E-05</v>
       </c>
       <c r="W281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -21272,7 +21272,7 @@
         <v>0.6310010807869161</v>
       </c>
       <c r="K282">
-        <v>38.6879621491406</v>
+        <v>-0.113120378508594</v>
       </c>
       <c r="L282">
         <v>-0.01331407418463608</v>
@@ -21302,13 +21302,13 @@
         <v>-0.01375000000000881</v>
       </c>
       <c r="U282">
-        <v>0.9998414359559826</v>
+        <v>-0.000158564044017373</v>
       </c>
       <c r="V282">
-        <v>0.9999364918074432</v>
+        <v>-6.350819255684925E-05</v>
       </c>
       <c r="W282">
-        <v>0.999682337992376</v>
+        <v>-0.0003176620076239534</v>
       </c>
     </row>
   </sheetData>

--- a/data_clean/Storebrand 16.12.2020.xlsx
+++ b/data_clean/Storebrand 16.12.2020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="305">
   <si>
     <t>tid</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>open_15_sma</t>
+  </si>
+  <si>
+    <t>open_3_sma</t>
   </si>
   <si>
     <t>sma8-16</t>
@@ -1283,13 +1286,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W282"/>
+  <dimension ref="A1:X282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1359,10 +1362,13 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>62.68</v>
@@ -1419,7 +1425,7 @@
         <v>62.68</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>62.68</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1430,10 +1436,13 @@
       <c r="W2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>62.78</v>
@@ -1490,7 +1499,7 @@
         <v>62.73</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>62.73</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1501,10 +1510,13 @@
       <c r="W3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>62.68</v>
@@ -1561,21 +1573,24 @@
         <v>62.71333333333333</v>
       </c>
       <c r="T4">
+        <v>62.71333333333333</v>
+      </c>
+      <c r="U4">
         <v>0</v>
-      </c>
-      <c r="U4">
-        <v>-0.0002656889313992217</v>
       </c>
       <c r="V4">
         <v>-0.0002656889313992217</v>
       </c>
       <c r="W4">
+        <v>-0.0002656889313992217</v>
+      </c>
+      <c r="X4">
         <v>-0.001592863969417047</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>62.66</v>
@@ -1632,21 +1647,24 @@
         <v>62.7</v>
       </c>
       <c r="T5">
+        <v>62.70666666666667</v>
+      </c>
+      <c r="U5">
         <v>0</v>
-      </c>
-      <c r="U5">
-        <v>-0.0002126076326138815</v>
       </c>
       <c r="V5">
         <v>-0.0002126076326138815</v>
       </c>
       <c r="W5">
+        <v>-0.0002126076326138815</v>
+      </c>
+      <c r="X5">
         <v>-0.0003190810465858451</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>62.6</v>
@@ -1703,21 +1721,24 @@
         <v>62.67999999999999</v>
       </c>
       <c r="T6">
+        <v>62.64666666666667</v>
+      </c>
+      <c r="U6">
         <v>0</v>
-      </c>
-      <c r="U6">
-        <v>-0.0003189792663478297</v>
       </c>
       <c r="V6">
         <v>-0.0003189792663478297</v>
       </c>
       <c r="W6">
+        <v>-0.0003189792663478297</v>
+      </c>
+      <c r="X6">
         <v>-0.0009575486753908846</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>62.6</v>
@@ -1774,21 +1795,24 @@
         <v>62.66666666666666</v>
       </c>
       <c r="T7">
+        <v>62.62</v>
+      </c>
+      <c r="U7">
         <v>0</v>
-      </c>
-      <c r="U7">
-        <v>-0.0002127206977238227</v>
       </c>
       <c r="V7">
         <v>-0.0002127206977238227</v>
       </c>
       <c r="W7">
+        <v>-0.0002127206977238227</v>
+      </c>
+      <c r="X7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>62.64</v>
@@ -1845,21 +1869,24 @@
         <v>62.66285714285714</v>
       </c>
       <c r="T8">
+        <v>62.61333333333334</v>
+      </c>
+      <c r="U8">
         <v>0</v>
-      </c>
-      <c r="U8">
-        <v>-6.079027355621047E-05</v>
       </c>
       <c r="V8">
         <v>-6.079027355621047E-05</v>
       </c>
       <c r="W8">
+        <v>-6.079027355621047E-05</v>
+      </c>
+      <c r="X8">
         <v>0.0006389776357826893</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>62.7</v>
@@ -1916,21 +1943,24 @@
         <v>62.6675</v>
       </c>
       <c r="T9">
+        <v>62.64666666666667</v>
+      </c>
+      <c r="U9">
         <v>0</v>
-      </c>
-      <c r="U9">
-        <v>7.409265000912768E-05</v>
       </c>
       <c r="V9">
         <v>7.409265000912768E-05</v>
       </c>
       <c r="W9">
+        <v>7.409265000912768E-05</v>
+      </c>
+      <c r="X9">
         <v>0.0009578544061303873</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>62.76</v>
@@ -1987,21 +2017,24 @@
         <v>62.67777777777778</v>
       </c>
       <c r="T10">
+        <v>62.7</v>
+      </c>
+      <c r="U10">
         <v>-0.0002777777777751567</v>
-      </c>
-      <c r="U10">
-        <v>0.0001640049112821007</v>
       </c>
       <c r="V10">
         <v>0.0001640049112821007</v>
       </c>
       <c r="W10">
+        <v>0.0001640049112821007</v>
+      </c>
+      <c r="X10">
         <v>0.000956937799043045</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>62.78</v>
@@ -2058,21 +2091,24 @@
         <v>62.688</v>
       </c>
       <c r="T11">
+        <v>62.74666666666667</v>
+      </c>
+      <c r="U11">
         <v>-0.0105000000000004</v>
-      </c>
-      <c r="U11">
-        <v>0.0001630916504167246</v>
       </c>
       <c r="V11">
         <v>0.0001630916504167246</v>
       </c>
       <c r="W11">
+        <v>0.0001630916504167246</v>
+      </c>
+      <c r="X11">
         <v>0.0003186743148502202</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>62.8</v>
@@ -2129,21 +2165,24 @@
         <v>62.69818181818182</v>
       </c>
       <c r="T12">
+        <v>62.78</v>
+      </c>
+      <c r="U12">
         <v>-0.005681818181813014</v>
-      </c>
-      <c r="U12">
-        <v>0.0001624205299548542</v>
       </c>
       <c r="V12">
         <v>0.0001624205299548542</v>
       </c>
       <c r="W12">
+        <v>0.0001624205299548542</v>
+      </c>
+      <c r="X12">
         <v>0.0003185727938832539</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>62.8</v>
@@ -2200,21 +2239,24 @@
         <v>62.70666666666667</v>
       </c>
       <c r="T13">
+        <v>62.79333333333333</v>
+      </c>
+      <c r="U13">
         <v>0.003333333333330302</v>
-      </c>
-      <c r="U13">
-        <v>0.0001353284615088768</v>
       </c>
       <c r="V13">
         <v>0.0001353284615088768</v>
       </c>
       <c r="W13">
+        <v>0.0001353284615088768</v>
+      </c>
+      <c r="X13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>62.82</v>
@@ -2271,21 +2313,24 @@
         <v>62.71538461538461</v>
       </c>
       <c r="T14">
+        <v>62.80666666666667</v>
+      </c>
+      <c r="U14">
         <v>0.02211538461538964</v>
-      </c>
-      <c r="U14">
-        <v>0.0001390274620127752</v>
       </c>
       <c r="V14">
         <v>0.0001390274620127752</v>
       </c>
       <c r="W14">
+        <v>0.0001390274620127752</v>
+      </c>
+      <c r="X14">
         <v>0.0003184713375796733</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>62.8</v>
@@ -2342,21 +2387,24 @@
         <v>62.72142857142858</v>
       </c>
       <c r="T15">
+        <v>62.80666666666666</v>
+      </c>
+      <c r="U15">
         <v>0.04107142857142776</v>
-      </c>
-      <c r="U15">
-        <v>9.637118676741885E-05</v>
       </c>
       <c r="V15">
         <v>9.637118676741885E-05</v>
       </c>
       <c r="W15">
+        <v>9.637118676741885E-05</v>
+      </c>
+      <c r="X15">
         <v>-0.0003183699458771949</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>62.86</v>
@@ -2413,21 +2461,24 @@
         <v>62.73066666666667</v>
       </c>
       <c r="T16">
+        <v>62.82666666666668</v>
+      </c>
+      <c r="U16">
         <v>0.05933333333332769</v>
-      </c>
-      <c r="U16">
-        <v>0.0001472877045134435</v>
       </c>
       <c r="V16">
         <v>0.0001472877045134435</v>
       </c>
       <c r="W16">
+        <v>0.0001472877045134435</v>
+      </c>
+      <c r="X16">
         <v>0.0009554140127387978</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>62.9</v>
@@ -2484,21 +2535,24 @@
         <v>62.74533333333333</v>
       </c>
       <c r="T17">
+        <v>62.85333333333333</v>
+      </c>
+      <c r="U17">
         <v>0.07375000000000398</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>0.0001687106784560299</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>0.0002338037748681465</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>0.0006363347120585949</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>62.9</v>
@@ -2555,21 +2609,24 @@
         <v>62.75333333333333</v>
       </c>
       <c r="T18">
+        <v>62.88666666666666</v>
+      </c>
+      <c r="U18">
         <v>0.07749999999999346</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>0.000148837252909706</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>0.0001274995218767394</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>62.92</v>
@@ -2626,21 +2683,24 @@
         <v>62.76933333333333</v>
       </c>
       <c r="T19">
+        <v>62.90666666666667</v>
+      </c>
+      <c r="U19">
         <v>0.08625000000000682</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>0.0001499868761485335</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>0.0002549665356421649</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>0.0003179650238473997</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>62.94</v>
@@ -2697,21 +2757,24 @@
         <v>62.788</v>
       </c>
       <c r="T20">
+        <v>62.91999999999999</v>
+      </c>
+      <c r="U20">
         <v>0.08749999999999858</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.0001509509912445139</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.0002973851349916679</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.0003178639542276152</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>62.86</v>
@@ -2768,21 +2831,24 @@
         <v>62.80533333333334</v>
       </c>
       <c r="T21">
+        <v>62.90666666666667</v>
+      </c>
+      <c r="U21">
         <v>0.08249999999999602</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>7.211014405283933E-05</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.0002760612431249587</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>-0.001271051795360689</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>62.86</v>
@@ -2839,21 +2905,24 @@
         <v>62.82266666666667</v>
       </c>
       <c r="T22">
+        <v>62.88666666666666</v>
+      </c>
+      <c r="U22">
         <v>0.07124999999999204</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>6.523780697786918E-05</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.0002759850543478937</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>62.84</v>
@@ -2910,21 +2979,24 @@
         <v>62.836</v>
       </c>
       <c r="T23">
+        <v>62.85333333333333</v>
+      </c>
+      <c r="U23">
         <v>0.06125000000000824</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>4.482220754198352E-05</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0.000212237621240563</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>-0.0003181673560291864</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>62.86</v>
@@ -2981,21 +3053,24 @@
         <v>62.84666666666666</v>
       </c>
       <c r="T24">
+        <v>62.85333333333333</v>
+      </c>
+      <c r="U24">
         <v>0.04750000000000654</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>5.477358049854608E-05</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>0.0001697540687928267</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>0.0003182686187142014</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>62.88</v>
@@ -3052,21 +3127,24 @@
         <v>62.85466666666666</v>
       </c>
       <c r="T25">
+        <v>62.86000000000001</v>
+      </c>
+      <c r="U25">
         <v>0.03375000000000483</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>6.347931266903473E-05</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>0.0001272939429297626</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>0.0003181673560292975</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26">
         <v>62.84</v>
@@ -3123,21 +3201,24 @@
         <v>62.85866666666666</v>
       </c>
       <c r="T26">
+        <v>62.86000000000001</v>
+      </c>
+      <c r="U26">
         <v>0.02125000000000199</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>3.291481963207943E-05</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>6.363887062232898E-05</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>-0.0006361323155216203</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>62.86</v>
@@ -3194,21 +3275,24 @@
         <v>62.86266666666667</v>
       </c>
       <c r="T27">
+        <v>62.86000000000001</v>
+      </c>
+      <c r="U27">
         <v>0.008749999999999147</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>4.263268074300441E-05</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>6.363482097415663E-05</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>0.0003182686187142014</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>62.9</v>
@@ -3265,21 +3349,24 @@
         <v>62.86933333333333</v>
       </c>
       <c r="T28">
+        <v>62.86666666666667</v>
+      </c>
+      <c r="U28">
         <v>-0.002500000000004832</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>6.306609190320778E-05</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>0.0001060512864019536</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>0.0006363347120585949</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29">
         <v>63</v>
@@ -3336,21 +3423,24 @@
         <v>62.88133333333334</v>
       </c>
       <c r="T29">
+        <v>62.91999999999999</v>
+      </c>
+      <c r="U29">
         <v>0.002499999999997726</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>0.0001154302430605991</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>0.0001908720732950453</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>0.001589825119236998</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30">
         <v>63.02</v>
@@ -3407,21 +3497,24 @@
         <v>62.89599999999999</v>
       </c>
       <c r="T30">
+        <v>62.97333333333333</v>
+      </c>
+      <c r="U30">
         <v>0.01000000000000512</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>0.0001184381537138179</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0.0002332435698986224</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>0.0003174603174602719</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>63</v>
@@ -3478,21 +3571,24 @@
         <v>62.90533333333333</v>
       </c>
       <c r="T31">
+        <v>63.00666666666667</v>
+      </c>
+      <c r="U31">
         <v>0.0175000000000054</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>9.991545615251063E-05</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>0.0001483931145596085</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>-0.0003173595683910735</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32">
         <v>63</v>
@@ -3549,21 +3645,24 @@
         <v>62.912</v>
       </c>
       <c r="T32">
+        <v>63.00666666666667</v>
+      </c>
+      <c r="U32">
         <v>0.02625000000000455</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>0.0001698027104757305</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>0.0001059793552216082</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33">
         <v>62.98</v>
@@ -3620,21 +3719,24 @@
         <v>62.91733333333333</v>
       </c>
       <c r="T33">
+        <v>62.99333333333333</v>
+      </c>
+      <c r="U33">
         <v>0.03374999999999773</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>0.0001061086765064001</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>8.477449983046448E-05</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>-0.0003174603174603829</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34">
         <v>62.9</v>
@@ -3691,21 +3793,24 @@
         <v>62.916</v>
       </c>
       <c r="T34">
+        <v>62.96</v>
+      </c>
+      <c r="U34">
         <v>0.04125000000000512</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>0.0001167071605148173</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>-2.119182843085543E-05</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>-0.001270244522070474</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B35">
         <v>62.88</v>
@@ -3762,21 +3867,24 @@
         <v>62.912</v>
       </c>
       <c r="T35">
+        <v>62.91999999999999</v>
+      </c>
+      <c r="U35">
         <v>0.04625000000000057</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>0.0001166935415428672</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>-6.357683260227454E-05</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>-0.0003179650238472886</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36">
         <v>62.76</v>
@@ -3833,21 +3941,24 @@
         <v>62.90533333333333</v>
       </c>
       <c r="T36">
+        <v>62.84666666666666</v>
+      </c>
+      <c r="U36">
         <v>0.04000000000000625</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>8.485812781744428E-05</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>-0.0001059681247880251</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>-0.001908396946564972</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37">
         <v>62.88</v>
@@ -3904,21 +4015,24 @@
         <v>62.90666666666666</v>
       </c>
       <c r="T37">
+        <v>62.84</v>
+      </c>
+      <c r="U37">
         <v>0.02374999999999972</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>0.000148489123172002</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>2.119587104432163E-05</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>0.001912045889101321</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38">
         <v>62.92</v>
@@ -3975,21 +4089,24 @@
         <v>62.91200000000001</v>
       </c>
       <c r="T38">
+        <v>62.85333333333333</v>
+      </c>
+      <c r="U38">
         <v>0.007500000000000284</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>0.0001484670774254404</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>8.478168715586598E-05</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>0.0006361323155215093</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39">
         <v>62.86</v>
@@ -4046,21 +4163,24 @@
         <v>62.91200000000001</v>
       </c>
       <c r="T39">
+        <v>62.88666666666668</v>
+      </c>
+      <c r="U39">
         <v>-0.01125000000001108</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>8.482573612833555E-05</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>0</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>-0.0009535918626828455</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40">
         <v>62.88</v>
@@ -4117,21 +4237,24 @@
         <v>62.91200000000001</v>
       </c>
       <c r="T40">
+        <v>62.88666666666666</v>
+      </c>
+      <c r="U40">
         <v>-0.02750000000000341</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>6.36139059997376E-05</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>0</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>0.0003181673560292975</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41">
         <v>62.92</v>
@@ -4188,21 +4311,24 @@
         <v>62.91733333333333</v>
       </c>
       <c r="T41">
+        <v>62.88666666666666</v>
+      </c>
+      <c r="U41">
         <v>-0.03750000000000142</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>7.421150278297262E-05</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>8.477449983024243E-05</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>0.0006361323155215093</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B42">
         <v>62.92</v>
@@ -4259,21 +4385,24 @@
         <v>62.92133333333334</v>
       </c>
       <c r="T42">
+        <v>62.90666666666667</v>
+      </c>
+      <c r="U42">
         <v>-0.04000000000000625</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>6.360513929526412E-05</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>6.357548529289936E-05</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43">
         <v>62.92</v>
@@ -4330,21 +4459,24 @@
         <v>62.92266666666667</v>
       </c>
       <c r="T43">
+        <v>62.92000000000001</v>
+      </c>
+      <c r="U43">
         <v>-0.03875000000000028</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>6.360109393876989E-05</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>2.119048123594425E-05</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B44">
         <v>62.94</v>
@@ -4401,21 +4533,24 @@
         <v>62.91866666666667</v>
       </c>
       <c r="T44">
+        <v>62.92666666666667</v>
+      </c>
+      <c r="U44">
         <v>-0.01874999999999716</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>6.359704909697506E-05</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>-6.35700966266084E-05</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>0.0003178639542276152</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45">
         <v>62.88</v>
@@ -4472,21 +4607,24 @@
         <v>62.90933333333334</v>
       </c>
       <c r="T45">
+        <v>62.91333333333333</v>
+      </c>
+      <c r="U45">
         <v>-0.01125000000000398</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>4.239533651295702E-05</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>-0.0001483396554280425</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>-0.0009532888465204614</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B46">
         <v>62.88</v>
@@ -4543,21 +4681,24 @@
         <v>62.90133333333334</v>
       </c>
       <c r="T46">
+        <v>62.9</v>
+      </c>
+      <c r="U46">
         <v>-0.00750000000000739</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>1.059838480599318E-05</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>-0.0001271671400110419</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47">
         <v>62.9</v>
@@ -4614,21 +4755,24 @@
         <v>62.89466666666667</v>
       </c>
       <c r="T47">
+        <v>62.88666666666666</v>
+      </c>
+      <c r="U47">
         <v>0.003749999999996589</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>-0.0001059860946244218</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>0.0003180661577606436</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48">
         <v>62.92</v>
@@ -4685,21 +4829,24 @@
         <v>62.89066666666667</v>
       </c>
       <c r="T48">
+        <v>62.9</v>
+      </c>
+      <c r="U48">
         <v>0.0137499999999946</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>1.059827248162115E-05</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>-6.359839732050787E-05</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>0.0003179650238473997</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B49">
         <v>62.96</v>
@@ -4756,21 +4903,24 @@
         <v>62.89466666666667</v>
       </c>
       <c r="T49">
+        <v>62.92666666666667</v>
+      </c>
+      <c r="U49">
         <v>0.02000000000000313</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>2.11963203187171E-05</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>6.360244233394319E-05</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>0.0006357279084552303</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50">
         <v>62.96</v>
@@ -4827,21 +4977,24 @@
         <v>62.9</v>
       </c>
       <c r="T50">
+        <v>62.94666666666667</v>
+      </c>
+      <c r="U50">
         <v>0.02124999999999488</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>1.059793552227184E-05</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>8.479786309378845E-05</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51">
         <v>63</v>
@@ -4898,21 +5051,24 @@
         <v>62.916</v>
       </c>
       <c r="T51">
+        <v>62.97333333333334</v>
+      </c>
+      <c r="U51">
         <v>0.02374999999999972</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>7.418476244969163E-05</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>0.0002543720190779641</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>0.0006353240152476847</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52">
         <v>63.04</v>
@@ -4969,21 +5125,24 @@
         <v>62.92666666666666</v>
       </c>
       <c r="T52">
+        <v>63</v>
+      </c>
+      <c r="U52">
         <v>0.01874999999999716</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>9.537333361597788E-05</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>0.000169538220272436</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>0.0006349206349205438</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53">
         <v>63.06</v>
@@ -5040,21 +5199,24 @@
         <v>62.936</v>
       </c>
       <c r="T53">
+        <v>63.03333333333333</v>
+      </c>
+      <c r="U53">
         <v>0.03000000000000114</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>0.0001165562913907348</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>0.0001483207966945788</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <v>0.0003172588832487389</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54">
         <v>63.08</v>
@@ -5111,21 +5273,24 @@
         <v>62.95066666666666</v>
       </c>
       <c r="T54">
+        <v>63.06</v>
+      </c>
+      <c r="U54">
         <v>0.04500000000000171</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>0.0001165427076048609</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>0.0002330409728401595</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>0.0003171582619727609</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55">
         <v>63.14</v>
@@ -5182,21 +5347,24 @@
         <v>62.968</v>
       </c>
       <c r="T55">
+        <v>63.09333333333333</v>
+      </c>
+      <c r="U55">
         <v>0.05749999999999744</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>0.0001377162409823551</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>0.0002753478914705454</v>
       </c>
-      <c r="W55">
+      <c r="X55">
         <v>0.0009511731135067869</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56">
         <v>63.08</v>
@@ -5253,21 +5421,24 @@
         <v>62.97866666666667</v>
       </c>
       <c r="T56">
+        <v>63.1</v>
+      </c>
+      <c r="U56">
         <v>0.06499999999999773</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>0.0001271051795359579</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>0.0001693982128490035</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <v>-0.000950269242952162</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57">
         <v>63.04</v>
@@ -5324,21 +5495,24 @@
         <v>62.98666666666666</v>
       </c>
       <c r="T57">
+        <v>63.08666666666667</v>
+      </c>
+      <c r="U57">
         <v>0.06749999999999545</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>9.531676939689149E-05</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>0.0001270271414657298</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>-0.0006341154090043766</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B58">
         <v>63.1</v>
@@ -5395,21 +5569,24 @@
         <v>62.99866666666667</v>
       </c>
       <c r="T58">
+        <v>63.07333333333333</v>
+      </c>
+      <c r="U58">
         <v>0.07375000000000398</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>0.0001058974277514668</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>0.0001905165114310936</v>
       </c>
-      <c r="W58">
+      <c r="X58">
         <v>0.0009517766497462166</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B59">
         <v>63.14</v>
@@ -5466,21 +5643,24 @@
         <v>63.01200000000001</v>
       </c>
       <c r="T59">
+        <v>63.09333333333333</v>
+      </c>
+      <c r="U59">
         <v>0.07750000000000057</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>7.412035027165587E-05</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>0.0002116446908930758</v>
       </c>
-      <c r="W59">
+      <c r="X59">
         <v>0.0006339144215530279</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B60">
         <v>63.14</v>
@@ -5537,21 +5717,24 @@
         <v>63.02933333333333</v>
       </c>
       <c r="T60">
+        <v>63.12666666666667</v>
+      </c>
+      <c r="U60">
         <v>0.07749999999999346</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>6.35270201592153E-05</v>
       </c>
-      <c r="V60">
+      <c r="W60">
         <v>0.0002750798789645792</v>
       </c>
-      <c r="W60">
+      <c r="X60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B61">
         <v>63.16</v>
@@ -5608,21 +5791,24 @@
         <v>63.04799999999999</v>
       </c>
       <c r="T61">
+        <v>63.14666666666667</v>
+      </c>
+      <c r="U61">
         <v>0.07249999999999801</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>8.469731297755523E-05</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>0.000296158402437019</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>0.0003167564143173873</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62">
         <v>63.18</v>
@@ -5679,21 +5865,24 @@
         <v>63.06666666666667</v>
       </c>
       <c r="T62">
+        <v>63.16</v>
+      </c>
+      <c r="U62">
         <v>0.06625000000000369</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>9.527640744444454E-05</v>
       </c>
-      <c r="V62">
+      <c r="W62">
         <v>0.0002960707186061562</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>0.0003166561114629207</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63">
         <v>63.2</v>
@@ -5750,21 +5939,24 @@
         <v>63.08533333333333</v>
       </c>
       <c r="T63">
+        <v>63.18000000000001</v>
+      </c>
+      <c r="U63">
         <v>0.05500000000000682</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <v>0.0001164378486520068</v>
       </c>
-      <c r="V63">
+      <c r="W63">
         <v>0.0002959830866806623</v>
       </c>
-      <c r="W63">
+      <c r="X63">
         <v>0.0003165558721114348</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64">
         <v>63.16</v>
@@ -5821,21 +6013,24 @@
         <v>63.09866666666667</v>
       </c>
       <c r="T64">
+        <v>63.18000000000001</v>
+      </c>
+      <c r="U64">
         <v>0.04999999999999716</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <v>0.0001375923456317096</v>
       </c>
-      <c r="V64">
+      <c r="W64">
         <v>0.0002113539332966319</v>
       </c>
-      <c r="W64">
+      <c r="X64">
         <v>-0.0006329113924051777</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65">
         <v>63.16</v>
@@ -5892,21 +6087,24 @@
         <v>63.11199999999999</v>
       </c>
       <c r="T65">
+        <v>63.17333333333332</v>
+      </c>
+      <c r="U65">
         <v>0.05250000000000199</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <v>0.0001481559870892823</v>
       </c>
-      <c r="V65">
+      <c r="W65">
         <v>0.0002113092722508814</v>
       </c>
-      <c r="W65">
+      <c r="X65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66">
         <v>63.2</v>
@@ -5963,21 +6161,24 @@
         <v>63.12533333333334</v>
       </c>
       <c r="T66">
+        <v>63.17333333333332</v>
+      </c>
+      <c r="U66">
         <v>0.04999999999999005</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <v>0.0002327820630840804</v>
       </c>
-      <c r="V66">
+      <c r="W66">
         <v>0.0002112646300758136</v>
       </c>
-      <c r="W66">
+      <c r="X66">
         <v>0.0006333122229260635</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67">
         <v>63.2</v>
@@ -6034,21 +6235,24 @@
         <v>63.136</v>
       </c>
       <c r="T67">
+        <v>63.18666666666667</v>
+      </c>
+      <c r="U67">
         <v>0.0449999999999946</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <v>0.0001692566459678968</v>
       </c>
-      <c r="V67">
+      <c r="W67">
         <v>0.0001689760054071066</v>
       </c>
-      <c r="W67">
+      <c r="X67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68">
         <v>63.18</v>
@@ -6105,21 +6309,24 @@
         <v>63.14400000000001</v>
       </c>
       <c r="T68">
+        <v>63.19333333333334</v>
+      </c>
+      <c r="U68">
         <v>0.04124999999999801</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <v>0.0001374977524404297</v>
       </c>
-      <c r="V68">
+      <c r="W68">
         <v>0.000126710593005841</v>
       </c>
-      <c r="W68">
+      <c r="X68">
         <v>-0.0003164556962025333</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B69">
         <v>63.18</v>
@@ -6176,21 +6383,24 @@
         <v>63.15066666666667</v>
       </c>
       <c r="T69">
+        <v>63.18666666666667</v>
+      </c>
+      <c r="U69">
         <v>0.03624999999999545</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <v>0.0001692047377326311</v>
       </c>
-      <c r="V69">
+      <c r="W69">
         <v>0.0001055787828876387</v>
       </c>
-      <c r="W69">
+      <c r="X69">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70">
         <v>63.2</v>
@@ -6247,21 +6457,24 @@
         <v>63.15466666666667</v>
       </c>
       <c r="T70">
+        <v>63.18666666666667</v>
+      </c>
+      <c r="U70">
         <v>0.03124999999999289</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <v>0.0001691761123330249</v>
       </c>
-      <c r="V70">
+      <c r="W70">
         <v>6.334058231116657E-05</v>
       </c>
-      <c r="W70">
+      <c r="X70">
         <v>0.0003165558721114348</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71">
         <v>63.26</v>
@@ -6318,21 +6531,24 @@
         <v>63.16666666666666</v>
       </c>
       <c r="T71">
+        <v>63.21333333333333</v>
+      </c>
+      <c r="U71">
         <v>0.03124999999999289</v>
       </c>
-      <c r="U71">
+      <c r="V71">
         <v>0.0001797192151555826</v>
       </c>
-      <c r="V71">
+      <c r="W71">
         <v>0.0001900097116074306</v>
       </c>
-      <c r="W71">
+      <c r="X71">
         <v>0.0009493670886076</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72">
         <v>63.24</v>
@@ -6389,21 +6605,24 @@
         <v>63.18</v>
       </c>
       <c r="T72">
+        <v>63.23333333333333</v>
+      </c>
+      <c r="U72">
         <v>0.03125</v>
       </c>
-      <c r="U72">
+      <c r="V72">
         <v>0.0001691171030240302</v>
       </c>
-      <c r="V72">
+      <c r="W72">
         <v>0.000211081794195378</v>
       </c>
-      <c r="W72">
+      <c r="X72">
         <v>-0.0003161555485298173</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73">
         <v>63.24</v>
@@ -6460,21 +6679,24 @@
         <v>63.18933333333334</v>
       </c>
       <c r="T73">
+        <v>63.24666666666667</v>
+      </c>
+      <c r="U73">
         <v>0.02874999999999517</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <v>0.0001690885072656023</v>
       </c>
-      <c r="V73">
+      <c r="W73">
         <v>0.0001477260736519881</v>
       </c>
-      <c r="W73">
+      <c r="X73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74">
         <v>63.24</v>
@@ -6531,21 +6753,24 @@
         <v>63.19600000000001</v>
       </c>
       <c r="T74">
+        <v>63.24000000000001</v>
+      </c>
+      <c r="U74">
         <v>0.02500000000000568</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <v>0.0001584936761023226</v>
       </c>
-      <c r="V74">
+      <c r="W74">
         <v>0.0001055030384875533</v>
       </c>
-      <c r="W74">
+      <c r="X74">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B75">
         <v>63.24</v>
@@ -6602,21 +6827,24 @@
         <v>63.20266666666667</v>
       </c>
       <c r="T75">
+        <v>63.24</v>
+      </c>
+      <c r="U75">
         <v>0.02375000000000682</v>
       </c>
-      <c r="U75">
+      <c r="V75">
         <v>0.0001901622718052387</v>
       </c>
-      <c r="V75">
+      <c r="W75">
         <v>0.0001054919087704054</v>
       </c>
-      <c r="W75">
+      <c r="X75">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B76">
         <v>63.3</v>
@@ -6673,21 +6901,24 @@
         <v>63.212</v>
       </c>
       <c r="T76">
+        <v>63.26</v>
+      </c>
+      <c r="U76">
         <v>0.02875000000000227</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <v>0.0002218138031562233</v>
       </c>
-      <c r="V76">
+      <c r="W76">
         <v>0.0001476730939622417</v>
       </c>
-      <c r="W76">
+      <c r="X76">
         <v>0.0009487666034155851</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B77">
         <v>63.26</v>
@@ -6744,21 +6975,24 @@
         <v>63.21733333333334</v>
       </c>
       <c r="T77">
+        <v>63.26666666666667</v>
+      </c>
+      <c r="U77">
         <v>0.03249999999999886</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <v>0.0001900839537463117</v>
       </c>
-      <c r="V77">
+      <c r="W77">
         <v>8.437216562251493E-05</v>
       </c>
-      <c r="W77">
+      <c r="X77">
         <v>-0.0006319115323853985</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:24">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B78">
         <v>63.22</v>
@@ -6815,21 +7049,24 @@
         <v>63.21866666666667</v>
       </c>
       <c r="T78">
+        <v>63.25999999999999</v>
+      </c>
+      <c r="U78">
         <v>0.03249999999999886</v>
       </c>
-      <c r="U78">
+      <c r="V78">
         <v>0.0001583731905863139</v>
       </c>
-      <c r="V78">
+      <c r="W78">
         <v>2.109126189031585E-05</v>
       </c>
-      <c r="W78">
+      <c r="X78">
         <v>-0.0006323110970597456</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:24">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B79">
         <v>63.22</v>
@@ -6886,21 +7123,24 @@
         <v>63.22266666666666</v>
       </c>
       <c r="T79">
+        <v>63.23333333333333</v>
+      </c>
+      <c r="U79">
         <v>0.02625000000000455</v>
       </c>
-      <c r="U79">
+      <c r="V79">
         <v>0.000137235030825078</v>
       </c>
-      <c r="V79">
+      <c r="W79">
         <v>6.32724511746563E-05</v>
       </c>
-      <c r="W79">
+      <c r="X79">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:24">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B80">
         <v>63.2</v>
@@ -6957,21 +7197,24 @@
         <v>63.22533333333333</v>
       </c>
       <c r="T80">
+        <v>63.21333333333333</v>
+      </c>
+      <c r="U80">
         <v>0.01875000000000426</v>
       </c>
-      <c r="U80">
+      <c r="V80">
         <v>0.0001266611076513602</v>
       </c>
-      <c r="V80">
+      <c r="W80">
         <v>4.217896534997045E-05</v>
       </c>
-      <c r="W80">
+      <c r="X80">
         <v>-0.0003163555836760423</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:24">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B81">
         <v>63.22</v>
@@ -7028,21 +7271,24 @@
         <v>63.22666666666667</v>
       </c>
       <c r="T81">
+        <v>63.21333333333333</v>
+      </c>
+      <c r="U81">
         <v>0.01249999999999574</v>
       </c>
-      <c r="U81">
+      <c r="V81">
         <v>0.0001160913110931361</v>
       </c>
-      <c r="V81">
+      <c r="W81">
         <v>2.108859318017409E-05</v>
       </c>
-      <c r="W81">
+      <c r="X81">
         <v>0.0003164556962025333</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B82">
         <v>63.2</v>
@@ -7099,21 +7345,24 @@
         <v>63.22666666666667</v>
       </c>
       <c r="T82">
+        <v>63.20666666666667</v>
+      </c>
+      <c r="U82">
         <v>0.007500000000000284</v>
       </c>
-      <c r="U82">
+      <c r="V82">
         <v>8.442024397448122E-05</v>
       </c>
-      <c r="V82">
+      <c r="W82">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="W82">
+      <c r="X82">
         <v>-0.0003163555836760423</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83">
         <v>63.22</v>
@@ -7170,21 +7419,24 @@
         <v>63.22933333333333</v>
       </c>
       <c r="T83">
+        <v>63.21333333333333</v>
+      </c>
+      <c r="U83">
         <v>0.003749999999996589</v>
       </c>
-      <c r="U83">
+      <c r="V83">
         <v>8.441311779838756E-05</v>
       </c>
-      <c r="V83">
+      <c r="W83">
         <v>4.217629692115921E-05</v>
       </c>
-      <c r="W83">
+      <c r="X83">
         <v>0.0003164556962025333</v>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84">
         <v>63.18</v>
@@ -7241,21 +7493,24 @@
         <v>63.22933333333334</v>
       </c>
       <c r="T84">
+        <v>63.2</v>
+      </c>
+      <c r="U84">
         <v>-0.01125000000000398</v>
       </c>
-      <c r="U84">
+      <c r="V84">
         <v>5.27537455161653E-05</v>
       </c>
-      <c r="V84">
+      <c r="W84">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W84">
+      <c r="X84">
         <v>-0.0006327111673520847</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B85">
         <v>63.1</v>
@@ -7312,21 +7567,24 @@
         <v>63.22266666666666</v>
       </c>
       <c r="T85">
+        <v>63.16666666666666</v>
+      </c>
+      <c r="U85">
         <v>-0.02624999999999744</v>
       </c>
-      <c r="U85">
+      <c r="V85">
         <v>-2.110038508218448E-05</v>
       </c>
-      <c r="V85">
+      <c r="W85">
         <v>-0.0001054362953905041</v>
       </c>
-      <c r="W85">
+      <c r="X85">
         <v>-0.001266223488445739</v>
       </c>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86">
         <v>63.1</v>
@@ -7383,21 +7641,24 @@
         <v>63.212</v>
       </c>
       <c r="T86">
+        <v>63.12666666666667</v>
+      </c>
+      <c r="U86">
         <v>-0.03499999999999659</v>
       </c>
-      <c r="U86">
+      <c r="V86">
         <v>1.055041515907185E-05</v>
       </c>
-      <c r="V86">
+      <c r="W86">
         <v>-0.0001687158613998818</v>
       </c>
-      <c r="W86">
+      <c r="X86">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87">
         <v>63.14</v>
@@ -7454,21 +7715,24 @@
         <v>63.20533333333333</v>
       </c>
       <c r="T87">
+        <v>63.11333333333334</v>
+      </c>
+      <c r="U87">
         <v>-0.03749999999999432</v>
       </c>
-      <c r="U87">
+      <c r="V87">
         <v>5.275151924366561E-05</v>
       </c>
-      <c r="V87">
+      <c r="W87">
         <v>-0.0001054652070282547</v>
       </c>
-      <c r="W87">
+      <c r="X87">
         <v>0.0006339144215530279</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:24">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B88">
         <v>63.14</v>
@@ -7525,21 +7789,24 @@
         <v>63.19866666666666</v>
       </c>
       <c r="T88">
+        <v>63.12666666666667</v>
+      </c>
+      <c r="U88">
         <v>-0.03874999999999318</v>
       </c>
-      <c r="U88">
+      <c r="V88">
         <v>2.10994946672205E-05</v>
       </c>
-      <c r="V88">
+      <c r="W88">
         <v>-0.0001054763311113538</v>
       </c>
-      <c r="W88">
+      <c r="X88">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B89">
         <v>63.1</v>
@@ -7596,21 +7863,24 @@
         <v>63.18933333333334</v>
       </c>
       <c r="T89">
+        <v>63.12666666666667</v>
+      </c>
+      <c r="U89">
         <v>-0.04499999999998749</v>
       </c>
-      <c r="U89">
+      <c r="V89">
         <v>-2.109904948788266E-05</v>
       </c>
-      <c r="V89">
+      <c r="W89">
         <v>-0.0001476824405576282</v>
       </c>
-      <c r="W89">
+      <c r="X89">
         <v>-0.0006335128286347746</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B90">
         <v>63.1</v>
@@ -7667,21 +7937,24 @@
         <v>63.18</v>
       </c>
       <c r="T90">
+        <v>63.11333333333334</v>
+      </c>
+      <c r="U90">
         <v>-0.04874999999999829</v>
       </c>
-      <c r="U90">
+      <c r="V90">
         <v>-2.109949466710948E-05</v>
       </c>
-      <c r="V90">
+      <c r="W90">
         <v>-0.0001477042538825524</v>
       </c>
-      <c r="W90">
+      <c r="X90">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91">
         <v>63.1</v>
@@ -7738,21 +8011,24 @@
         <v>63.16666666666666</v>
       </c>
       <c r="T91">
+        <v>63.1</v>
+      </c>
+      <c r="U91">
         <v>-0.05499999999999972</v>
       </c>
-      <c r="U91">
+      <c r="V91">
         <v>-3.164990979764859E-05</v>
       </c>
-      <c r="V91">
+      <c r="W91">
         <v>-0.0002110372480743639</v>
       </c>
-      <c r="W91">
+      <c r="X91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B92">
         <v>63.1</v>
@@ -7809,21 +8085,24 @@
         <v>63.156</v>
       </c>
       <c r="T92">
+        <v>63.1</v>
+      </c>
+      <c r="U92">
         <v>-0.05250000000000199</v>
       </c>
-      <c r="U92">
+      <c r="V92">
         <v>-4.220121539522115E-05</v>
       </c>
-      <c r="V92">
+      <c r="W92">
         <v>-0.0001688654353562136</v>
       </c>
-      <c r="W92">
+      <c r="X92">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B93">
         <v>63.16</v>
@@ -7880,21 +8159,24 @@
         <v>63.152</v>
       </c>
       <c r="T93">
+        <v>63.12</v>
+      </c>
+      <c r="U93">
         <v>-0.03875000000000028</v>
       </c>
-      <c r="U93">
+      <c r="V93">
         <v>-2.110149820633289E-05</v>
       </c>
-      <c r="V93">
+      <c r="W93">
         <v>-6.333523339030478E-05</v>
       </c>
-      <c r="W93">
+      <c r="X93">
         <v>0.0009508716323296529</v>
       </c>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B94">
         <v>63.22</v>
@@ -7951,21 +8233,24 @@
         <v>63.15200000000001</v>
       </c>
       <c r="T94">
+        <v>63.16</v>
+      </c>
+      <c r="U94">
         <v>-0.02374999999999972</v>
       </c>
-      <c r="U94">
+      <c r="V94">
         <v>3.165291523354874E-05</v>
       </c>
-      <c r="V94">
+      <c r="W94">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W94">
+      <c r="X94">
         <v>0.0009499683343889842</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B95">
         <v>63.22</v>
@@ -8022,21 +8307,24 @@
         <v>63.15333333333333</v>
       </c>
       <c r="T95">
+        <v>63.2</v>
+      </c>
+      <c r="U95">
         <v>-0.01375000000000171</v>
       </c>
-      <c r="U95">
+      <c r="V95">
         <v>3.165191335829931E-05</v>
       </c>
-      <c r="V95">
+      <c r="W95">
         <v>2.111308166519166E-05</v>
       </c>
-      <c r="W95">
+      <c r="X95">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B96">
         <v>63.18</v>
@@ -8093,21 +8381,24 @@
         <v>63.15066666666667</v>
       </c>
       <c r="T96">
+        <v>63.20666666666667</v>
+      </c>
+      <c r="U96">
         <v>-0.007500000000000284</v>
       </c>
-      <c r="U96">
+      <c r="V96">
         <v>-1.055030384888855E-05</v>
       </c>
-      <c r="V96">
+      <c r="W96">
         <v>-4.222527182518032E-05</v>
       </c>
-      <c r="W96">
+      <c r="X96">
         <v>-0.0006327111673520847</v>
       </c>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:24">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B97">
         <v>63.18</v>
@@ -8164,21 +8455,24 @@
         <v>63.14933333333333</v>
       </c>
       <c r="T97">
+        <v>63.19333333333334</v>
+      </c>
+      <c r="U97">
         <v>0.005000000000009663</v>
       </c>
-      <c r="U97">
+      <c r="V97">
         <v>-1.05504151588498E-05</v>
       </c>
-      <c r="V97">
+      <c r="W97">
         <v>-2.111352743705552E-05</v>
       </c>
-      <c r="W97">
+      <c r="X97">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:24">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B98">
         <v>63.14</v>
@@ -8235,21 +8529,24 @@
         <v>63.144</v>
       </c>
       <c r="T98">
+        <v>63.16666666666666</v>
+      </c>
+      <c r="U98">
         <v>0.01375000000000171</v>
       </c>
-      <c r="U98">
+      <c r="V98">
         <v>-2.110105294239606E-05</v>
       </c>
-      <c r="V98">
+      <c r="W98">
         <v>-8.445589290995148E-05</v>
       </c>
-      <c r="W98">
+      <c r="X98">
         <v>-0.0006331117442228695</v>
       </c>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:24">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B99">
         <v>63.14</v>
@@ -8306,21 +8603,24 @@
         <v>63.14133333333334</v>
       </c>
       <c r="T99">
+        <v>63.15333333333334</v>
+      </c>
+      <c r="U99">
         <v>0.02374999999999261</v>
       </c>
-      <c r="U99">
+      <c r="V99">
         <v>-2.110149820655494E-05</v>
       </c>
-      <c r="V99">
+      <c r="W99">
         <v>-4.223151315507767E-05</v>
       </c>
-      <c r="W99">
+      <c r="X99">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B100">
         <v>63.14</v>
@@ -8377,21 +8677,24 @@
         <v>63.14400000000001</v>
       </c>
       <c r="T100">
+        <v>63.13999999999999</v>
+      </c>
+      <c r="U100">
         <v>0.03125</v>
       </c>
-      <c r="U100">
+      <c r="V100">
         <v>-3.165291523354874E-05</v>
       </c>
-      <c r="V100">
+      <c r="W100">
         <v>4.223329673114229E-05</v>
       </c>
-      <c r="W100">
+      <c r="X100">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:24">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B101">
         <v>63.06</v>
@@ -8448,21 +8751,24 @@
         <v>63.14133333333334</v>
       </c>
       <c r="T101">
+        <v>63.11333333333334</v>
+      </c>
+      <c r="U101">
         <v>0.02124999999999488</v>
       </c>
-      <c r="U101">
+      <c r="V101">
         <v>-0.0001055130572408247</v>
       </c>
-      <c r="V101">
+      <c r="W101">
         <v>-4.223151315518869E-05</v>
       </c>
-      <c r="W101">
+      <c r="X101">
         <v>-0.001267025657269549</v>
       </c>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:24">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B102">
         <v>63.1</v>
@@ -8519,21 +8825,24 @@
         <v>63.13866666666667</v>
       </c>
       <c r="T102">
+        <v>63.1</v>
+      </c>
+      <c r="U102">
         <v>0.006250000000001421</v>
       </c>
-      <c r="U102">
+      <c r="V102">
         <v>-7.386693399458188E-05</v>
       </c>
-      <c r="V102">
+      <c r="W102">
         <v>-4.223329673103127E-05</v>
       </c>
-      <c r="W102">
+      <c r="X102">
         <v>0.0006343165239455217</v>
       </c>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:24">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B103">
         <v>63.06</v>
@@ -8590,21 +8899,24 @@
         <v>63.13333333333333</v>
       </c>
       <c r="T103">
+        <v>63.07333333333334</v>
+      </c>
+      <c r="U103">
         <v>-0.008750000000006253</v>
       </c>
-      <c r="U103">
+      <c r="V103">
         <v>-9.497878807052107E-05</v>
       </c>
-      <c r="V103">
+      <c r="W103">
         <v>-8.447016091572834E-05</v>
       </c>
-      <c r="W103">
+      <c r="X103">
         <v>-0.0006339144215530279</v>
       </c>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:24">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B104">
         <v>63.1</v>
@@ -8661,21 +8973,24 @@
         <v>63.13333333333333</v>
       </c>
       <c r="T104">
+        <v>63.08666666666667</v>
+      </c>
+      <c r="U104">
         <v>-0.01624999999999943</v>
       </c>
-      <c r="U104">
+      <c r="V104">
         <v>-7.387940769831847E-05</v>
       </c>
-      <c r="V104">
+      <c r="W104">
         <v>0</v>
       </c>
-      <c r="W104">
+      <c r="X104">
         <v>0.0006343165239455217</v>
       </c>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:24">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B105">
         <v>63.14</v>
@@ -8732,21 +9047,24 @@
         <v>63.136</v>
       </c>
       <c r="T105">
+        <v>63.1</v>
+      </c>
+      <c r="U105">
         <v>-0.02374999999999972</v>
       </c>
-      <c r="U105">
+      <c r="V105">
         <v>-5.277490447741506E-05</v>
       </c>
-      <c r="V105">
+      <c r="W105">
         <v>4.223864836316871E-05</v>
       </c>
-      <c r="W105">
+      <c r="X105">
         <v>0.0006339144215530279</v>
       </c>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:24">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B106">
         <v>63.14</v>
@@ -8803,21 +9121,24 @@
         <v>63.13866666666667</v>
       </c>
       <c r="T106">
+        <v>63.12666666666667</v>
+      </c>
+      <c r="U106">
         <v>-0.02625000000000455</v>
       </c>
-      <c r="U106">
+      <c r="V106">
         <v>-8.444430370402323E-05</v>
       </c>
-      <c r="V106">
+      <c r="W106">
         <v>4.223686433535434E-05</v>
       </c>
-      <c r="W106">
+      <c r="X106">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:23">
+    <row r="107" spans="1:24">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B107">
         <v>63.16</v>
@@ -8874,21 +9195,24 @@
         <v>63.14266666666666</v>
       </c>
       <c r="T107">
+        <v>63.14666666666667</v>
+      </c>
+      <c r="U107">
         <v>-0.02749999999999631</v>
       </c>
-      <c r="U107">
+      <c r="V107">
         <v>-5.278214696657901E-05</v>
       </c>
-      <c r="V107">
+      <c r="W107">
         <v>6.335262068657421E-05</v>
       </c>
-      <c r="W107">
+      <c r="X107">
         <v>0.0003167564143173873</v>
       </c>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:24">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B108">
         <v>63.2</v>
@@ -8945,21 +9269,24 @@
         <v>63.14533333333333</v>
       </c>
       <c r="T108">
+        <v>63.16666666666666</v>
+      </c>
+      <c r="U108">
         <v>-0.02624999999999034</v>
       </c>
-      <c r="U108">
+      <c r="V108">
         <v>-1.055698661367455E-05</v>
       </c>
-      <c r="V108">
+      <c r="W108">
         <v>4.22324049242917E-05</v>
       </c>
-      <c r="W108">
+      <c r="X108">
         <v>0.0006333122229260635</v>
       </c>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:24">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B109">
         <v>63.2</v>
@@ -9016,21 +9343,24 @@
         <v>63.144</v>
       </c>
       <c r="T109">
+        <v>63.18666666666667</v>
+      </c>
+      <c r="U109">
         <v>-0.01124999999999687</v>
       </c>
-      <c r="U109">
+      <c r="V109">
         <v>-1.055709806485616E-05</v>
       </c>
-      <c r="V109">
+      <c r="W109">
         <v>-2.111531071180561E-05</v>
       </c>
-      <c r="W109">
+      <c r="X109">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:24">
       <c r="A110" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B110">
         <v>63.16</v>
@@ -9087,21 +9417,24 @@
         <v>63.14</v>
       </c>
       <c r="T110">
+        <v>63.18666666666667</v>
+      </c>
+      <c r="U110">
         <v>7.105427357601002E-15</v>
       </c>
-      <c r="U110">
+      <c r="V110">
         <v>-2.11144190367385E-05</v>
       </c>
-      <c r="V110">
+      <c r="W110">
         <v>-6.334726973267202E-05</v>
       </c>
-      <c r="W110">
+      <c r="X110">
         <v>-0.0006329113924051777</v>
       </c>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:24">
       <c r="A111" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B111">
         <v>63.14</v>
@@ -9158,21 +9491,24 @@
         <v>63.13733333333333</v>
       </c>
       <c r="T111">
+        <v>63.16666666666666</v>
+      </c>
+      <c r="U111">
         <v>0.01500000000000057</v>
       </c>
-      <c r="U111">
+      <c r="V111">
         <v>-4.222972972967032E-05</v>
       </c>
-      <c r="V111">
+      <c r="W111">
         <v>-4.223418857574046E-05</v>
       </c>
-      <c r="W111">
+      <c r="X111">
         <v>-0.0003166561114629207</v>
       </c>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:24">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B112">
         <v>63.2</v>
@@ -9229,21 +9565,24 @@
         <v>63.13866666666667</v>
       </c>
       <c r="T112">
+        <v>63.16666666666666</v>
+      </c>
+      <c r="U112">
         <v>0.02624999999999744</v>
       </c>
-      <c r="U112">
+      <c r="V112">
         <v>0</v>
       </c>
-      <c r="V112">
+      <c r="W112">
         <v>2.111798618886773E-05</v>
       </c>
-      <c r="W112">
+      <c r="X112">
         <v>0.000950269242952162</v>
       </c>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:24">
       <c r="A113" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B113">
         <v>63.2</v>
@@ -9300,21 +9639,24 @@
         <v>63.14266666666667</v>
       </c>
       <c r="T113">
+        <v>63.18000000000001</v>
+      </c>
+      <c r="U113">
         <v>0.03249999999999176</v>
       </c>
-      <c r="U113">
+      <c r="V113">
         <v>-1.055787828885268E-05</v>
       </c>
-      <c r="V113">
+      <c r="W113">
         <v>6.335262068679626E-05</v>
       </c>
-      <c r="W113">
+      <c r="X113">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B114">
         <v>63.18</v>
@@ -9371,21 +9713,24 @@
         <v>63.14533333333333</v>
       </c>
       <c r="T114">
+        <v>63.19333333333333</v>
+      </c>
+      <c r="U114">
         <v>0.03499999999999659</v>
       </c>
-      <c r="U114">
+      <c r="V114">
         <v>0</v>
       </c>
-      <c r="V114">
+      <c r="W114">
         <v>4.22324049242917E-05</v>
       </c>
-      <c r="W114">
+      <c r="X114">
         <v>-0.0003164556962025333</v>
       </c>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:24">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B115">
         <v>63.2</v>
@@ -9442,21 +9787,24 @@
         <v>63.14933333333333</v>
       </c>
       <c r="T115">
+        <v>63.19333333333334</v>
+      </c>
+      <c r="U115">
         <v>0.03625000000000256</v>
       </c>
-      <c r="U115">
+      <c r="V115">
         <v>5.278994879387433E-05</v>
       </c>
-      <c r="V115">
+      <c r="W115">
         <v>6.334593213530582E-05</v>
       </c>
-      <c r="W115">
+      <c r="X115">
         <v>0.0003165558721114348</v>
       </c>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:24">
       <c r="A116" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B116">
         <v>63.16</v>
@@ -9513,21 +9861,24 @@
         <v>63.156</v>
       </c>
       <c r="T116">
+        <v>63.18</v>
+      </c>
+      <c r="U116">
         <v>0.03000000000000114</v>
       </c>
-      <c r="U116">
+      <c r="V116">
         <v>3.167229729728049E-05</v>
       </c>
-      <c r="V116">
+      <c r="W116">
         <v>0.0001055698661374116</v>
       </c>
-      <c r="W116">
+      <c r="X116">
         <v>-0.0006329113924051777</v>
       </c>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:24">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B117">
         <v>63.14</v>
@@ -9584,21 +9935,24 @@
         <v>63.15866666666667</v>
       </c>
       <c r="T117">
+        <v>63.16666666666666</v>
+      </c>
+      <c r="U117">
         <v>0.01749999999999829</v>
       </c>
-      <c r="U117">
+      <c r="V117">
         <v>0</v>
       </c>
-      <c r="V117">
+      <c r="W117">
         <v>4.222348892701788E-05</v>
       </c>
-      <c r="W117">
+      <c r="X117">
         <v>-0.0003166561114629207</v>
       </c>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:24">
       <c r="A118" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B118">
         <v>63.22</v>
@@ -9655,21 +10009,24 @@
         <v>63.16933333333333</v>
       </c>
       <c r="T118">
+        <v>63.17333333333332</v>
+      </c>
+      <c r="U118">
         <v>0.01749999999999829</v>
       </c>
-      <c r="U118">
+      <c r="V118">
         <v>4.222839225942465E-05</v>
       </c>
-      <c r="V118">
+      <c r="W118">
         <v>0.0001688868247164965</v>
       </c>
-      <c r="W118">
+      <c r="X118">
         <v>0.001267025657269549</v>
       </c>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:24">
       <c r="A119" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B119">
         <v>63.22</v>
@@ -9726,21 +10083,24 @@
         <v>63.17733333333334</v>
       </c>
       <c r="T119">
+        <v>63.19333333333333</v>
+      </c>
+      <c r="U119">
         <v>0.01749999999999829</v>
       </c>
-      <c r="U119">
+      <c r="V119">
         <v>6.333991364670943E-05</v>
       </c>
-      <c r="V119">
+      <c r="W119">
         <v>0.0001266437300799783</v>
       </c>
-      <c r="W119">
+      <c r="X119">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:24">
       <c r="A120" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B120">
         <v>63.2</v>
@@ -9797,21 +10157,24 @@
         <v>63.18133333333333</v>
       </c>
       <c r="T120">
+        <v>63.21333333333333</v>
+      </c>
+      <c r="U120">
         <v>0.01124999999999687</v>
       </c>
-      <c r="U120">
+      <c r="V120">
         <v>5.277991829655271E-05</v>
       </c>
-      <c r="V120">
+      <c r="W120">
         <v>6.331384673829987E-05</v>
       </c>
-      <c r="W120">
+      <c r="X120">
         <v>-0.0003163555836760423</v>
       </c>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:24">
       <c r="A121" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B121">
         <v>63.1</v>
@@ -9868,21 +10231,24 @@
         <v>63.17866666666666</v>
       </c>
       <c r="T121">
+        <v>63.17333333333334</v>
+      </c>
+      <c r="U121">
         <v>0.001249999999998863</v>
       </c>
-      <c r="U121">
+      <c r="V121">
         <v>0</v>
       </c>
-      <c r="V121">
+      <c r="W121">
         <v>-4.22065588993048E-05</v>
       </c>
-      <c r="W121">
+      <c r="X121">
         <v>-0.001582278481012667</v>
       </c>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:24">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B122">
         <v>63.1</v>
@@ -9939,21 +10305,24 @@
         <v>63.17466666666667</v>
       </c>
       <c r="T122">
+        <v>63.13333333333333</v>
+      </c>
+      <c r="U122">
         <v>-0.006249999999994316</v>
       </c>
-      <c r="U122">
+      <c r="V122">
         <v>0</v>
       </c>
-      <c r="V122">
+      <c r="W122">
         <v>-6.331251055202713E-05</v>
       </c>
-      <c r="W122">
+      <c r="X122">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" spans="1:24">
       <c r="A123" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B123">
         <v>63.1</v>
@@ -10010,21 +10379,24 @@
         <v>63.16800000000001</v>
       </c>
       <c r="T123">
+        <v>63.1</v>
+      </c>
+      <c r="U123">
         <v>-0.01500000000000767</v>
       </c>
-      <c r="U123">
+      <c r="V123">
         <v>-3.166627963435698E-05</v>
       </c>
-      <c r="V123">
+      <c r="W123">
         <v>-0.0001055275321329985</v>
       </c>
-      <c r="W123">
+      <c r="X123">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:24">
       <c r="A124" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B124">
         <v>63.18</v>
@@ -10081,21 +10453,24 @@
         <v>63.16666666666666</v>
       </c>
       <c r="T124">
+        <v>63.12666666666667</v>
+      </c>
+      <c r="U124">
         <v>-0.01125000000000398</v>
       </c>
-      <c r="U124">
+      <c r="V124">
         <v>-2.11115216128821E-05</v>
       </c>
-      <c r="V124">
+      <c r="W124">
         <v>-2.110773387387077E-05</v>
       </c>
-      <c r="W124">
+      <c r="X124">
         <v>0.001267828843106056</v>
       </c>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:24">
       <c r="A125" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B125">
         <v>63.18</v>
@@ -10152,21 +10527,24 @@
         <v>63.16800000000001</v>
       </c>
       <c r="T125">
+        <v>63.15333333333334</v>
+      </c>
+      <c r="U125">
         <v>-0.005000000000002558</v>
       </c>
-      <c r="U125">
+      <c r="V125">
         <v>-2.111196731879872E-05</v>
       </c>
-      <c r="V125">
+      <c r="W125">
         <v>2.110817941969323E-05</v>
       </c>
-      <c r="W125">
+      <c r="X125">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:24">
       <c r="A126" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B126">
         <v>63.08</v>
@@ -10223,21 +10601,24 @@
         <v>63.164</v>
       </c>
       <c r="T126">
+        <v>63.14666666666667</v>
+      </c>
+      <c r="U126">
         <v>-0.0175000000000054</v>
       </c>
-      <c r="U126">
+      <c r="V126">
         <v>-5.278103260797362E-05</v>
       </c>
-      <c r="V126">
+      <c r="W126">
         <v>-6.332320162116822E-05</v>
       </c>
-      <c r="W126">
+      <c r="X126">
         <v>-0.001582779360557174</v>
       </c>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:24">
       <c r="A127" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B127">
         <v>62.98</v>
@@ -10294,21 +10675,24 @@
         <v>63.14933333333333</v>
       </c>
       <c r="T127">
+        <v>63.08000000000001</v>
+      </c>
+      <c r="U127">
         <v>-0.03750000000000142</v>
       </c>
-      <c r="U127">
+      <c r="V127">
         <v>-0.0001055676371851666</v>
       </c>
-      <c r="V127">
+      <c r="W127">
         <v>-0.000232199776243891</v>
       </c>
-      <c r="W127">
+      <c r="X127">
         <v>-0.001585288522511163</v>
       </c>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:24">
       <c r="A128" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B128">
         <v>63</v>
@@ -10365,21 +10749,24 @@
         <v>63.136</v>
       </c>
       <c r="T128">
+        <v>63.02</v>
+      </c>
+      <c r="U128">
         <v>-0.04999999999999716</v>
       </c>
-      <c r="U128">
+      <c r="V128">
         <v>-7.390514802163572E-05</v>
       </c>
-      <c r="V128">
+      <c r="W128">
         <v>-0.0002111397322748232</v>
       </c>
-      <c r="W128">
+      <c r="X128">
         <v>0.0003175611305177295</v>
       </c>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:24">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B129">
         <v>63.04</v>
@@ -10436,21 +10823,24 @@
         <v>63.12666666666667</v>
       </c>
       <c r="T129">
+        <v>63.00666666666667</v>
+      </c>
+      <c r="U129">
         <v>-0.04749999999999233</v>
       </c>
-      <c r="U129">
+      <c r="V129">
         <v>-5.279329313989667E-05</v>
       </c>
-      <c r="V129">
+      <c r="W129">
         <v>-0.0001478290251730741</v>
       </c>
-      <c r="W129">
+      <c r="X129">
         <v>0.0006349206349205438</v>
       </c>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:24">
       <c r="A130" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B130">
         <v>63.08</v>
@@ -10507,21 +10897,24 @@
         <v>63.11866666666666</v>
       </c>
       <c r="T130">
+        <v>63.04</v>
+      </c>
+      <c r="U130">
         <v>-0.04375000000000284</v>
       </c>
-      <c r="U130">
+      <c r="V130">
         <v>-3.167764825140473E-05</v>
       </c>
-      <c r="V130">
+      <c r="W130">
         <v>-0.0001267293272785297</v>
       </c>
-      <c r="W130">
+      <c r="X130">
         <v>0.0006345177664974777</v>
       </c>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:24">
       <c r="A131" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B131">
         <v>63.08</v>
@@ -10578,21 +10971,24 @@
         <v>63.11333333333334</v>
       </c>
       <c r="T131">
+        <v>63.06666666666666</v>
+      </c>
+      <c r="U131">
         <v>-0.03875000000000028</v>
       </c>
-      <c r="U131">
+      <c r="V131">
         <v>1.055955058548719E-05</v>
       </c>
-      <c r="V131">
+      <c r="W131">
         <v>-8.449692642420459E-05</v>
       </c>
-      <c r="W131">
+      <c r="X131">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:24">
       <c r="A132" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B132">
         <v>63.08</v>
@@ -10649,21 +11045,24 @@
         <v>63.10933333333333</v>
       </c>
       <c r="T132">
+        <v>63.08000000000001</v>
+      </c>
+      <c r="U132">
         <v>-0.04625000000000057</v>
       </c>
-      <c r="U132">
+      <c r="V132">
         <v>-1.055943908245816E-05</v>
       </c>
-      <c r="V132">
+      <c r="W132">
         <v>-6.337805006872976E-05</v>
       </c>
-      <c r="W132">
+      <c r="X132">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:24">
       <c r="A133" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B133">
         <v>63.1</v>
@@ -10720,21 +11119,24 @@
         <v>63.10133333333333</v>
       </c>
       <c r="T133">
+        <v>63.08666666666667</v>
+      </c>
+      <c r="U133">
         <v>-0.05375000000000085</v>
       </c>
-      <c r="U133">
+      <c r="V133">
         <v>2.111910117075233E-05</v>
       </c>
-      <c r="V133">
+      <c r="W133">
         <v>-0.0001267641342009851</v>
       </c>
-      <c r="W133">
+      <c r="X133">
         <v>0.0003170577045021883</v>
       </c>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:24">
       <c r="A134" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B134">
         <v>63.1</v>
@@ -10791,21 +11193,24 @@
         <v>63.09333333333333</v>
       </c>
       <c r="T134">
+        <v>63.09333333333333</v>
+      </c>
+      <c r="U134">
         <v>-0.04374999999999574</v>
       </c>
-      <c r="U134">
+      <c r="V134">
         <v>0</v>
       </c>
-      <c r="V134">
+      <c r="W134">
         <v>-0.0001267802053838141</v>
       </c>
-      <c r="W134">
+      <c r="X134">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:24">
       <c r="A135" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B135">
         <v>63.1</v>
@@ -10862,21 +11267,24 @@
         <v>63.08666666666667</v>
       </c>
       <c r="T135">
+        <v>63.1</v>
+      </c>
+      <c r="U135">
         <v>-0.02125000000000199</v>
       </c>
-      <c r="U135">
+      <c r="V135">
         <v>-2.111865516396527E-05</v>
       </c>
-      <c r="V135">
+      <c r="W135">
         <v>-0.0001056635672019857</v>
       </c>
-      <c r="W135">
+      <c r="X135">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:24">
       <c r="A136" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B136">
         <v>63.14</v>
@@ -10933,21 +11341,24 @@
         <v>63.08933333333334</v>
       </c>
       <c r="T136">
-        <v>0</v>
+        <v>63.11333333333334</v>
       </c>
       <c r="U136">
         <v>0</v>
       </c>
       <c r="V136">
+        <v>0</v>
+      </c>
+      <c r="W136">
         <v>4.226989326849839E-05</v>
       </c>
-      <c r="W136">
+      <c r="X136">
         <v>0.0006339144215530279</v>
       </c>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:24">
       <c r="A137" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B137">
         <v>63.04</v>
@@ -11004,21 +11415,24 @@
         <v>63.08533333333333</v>
       </c>
       <c r="T137">
+        <v>63.09333333333333</v>
+      </c>
+      <c r="U137">
         <v>0.003749999999996589</v>
       </c>
-      <c r="U137">
+      <c r="V137">
         <v>-6.335730351314517E-05</v>
       </c>
-      <c r="V137">
+      <c r="W137">
         <v>-6.34021599003054E-05</v>
       </c>
-      <c r="W137">
+      <c r="X137">
         <v>-0.001583782071586937</v>
       </c>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:24">
       <c r="A138" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B138">
         <v>63</v>
@@ -11075,21 +11489,24 @@
         <v>63.07866666666666</v>
       </c>
       <c r="T138">
+        <v>63.06</v>
+      </c>
+      <c r="U138">
         <v>0</v>
       </c>
-      <c r="U138">
+      <c r="V138">
         <v>-0.000105602196525667</v>
       </c>
-      <c r="V138">
+      <c r="W138">
         <v>-0.0001056769666483159</v>
       </c>
-      <c r="W138">
+      <c r="X138">
         <v>-0.0006345177664974777</v>
       </c>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:24">
       <c r="A139" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B139">
         <v>63.02</v>
@@ -11146,21 +11563,24 @@
         <v>63.068</v>
       </c>
       <c r="T139">
+        <v>63.02</v>
+      </c>
+      <c r="U139">
         <v>-0.002499999999990621</v>
       </c>
-      <c r="U139">
+      <c r="V139">
         <v>-9.505201457460366E-05</v>
       </c>
-      <c r="V139">
+      <c r="W139">
         <v>-0.0001691010167198526</v>
       </c>
-      <c r="W139">
+      <c r="X139">
         <v>0.0003174603174602719</v>
       </c>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:24">
       <c r="A140" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B140">
         <v>63.04</v>
@@ -11217,21 +11637,24 @@
         <v>63.05866666666667</v>
       </c>
       <c r="T140">
+        <v>63.02</v>
+      </c>
+      <c r="U140">
         <v>0.001249999999998863</v>
       </c>
-      <c r="U140">
+      <c r="V140">
         <v>-6.337403354594873E-05</v>
       </c>
-      <c r="V140">
+      <c r="W140">
         <v>-0.0001479884146211585</v>
       </c>
-      <c r="W140">
+      <c r="X140">
         <v>0.0003173595683909625</v>
       </c>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:24">
       <c r="A141" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B141">
         <v>63.08</v>
@@ -11288,21 +11711,24 @@
         <v>63.05866666666667</v>
       </c>
       <c r="T141">
+        <v>63.04666666666667</v>
+      </c>
+      <c r="U141">
         <v>0.005000000000002558</v>
       </c>
-      <c r="U141">
+      <c r="V141">
         <v>-3.16890250344759E-05</v>
       </c>
-      <c r="V141">
+      <c r="W141">
         <v>0</v>
       </c>
-      <c r="W141">
+      <c r="X141">
         <v>0.0006345177664974777</v>
       </c>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:24">
       <c r="A142" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B142">
         <v>63.02</v>
@@ -11359,21 +11785,24 @@
         <v>63.06133333333333</v>
       </c>
       <c r="T142">
+        <v>63.04666666666666</v>
+      </c>
+      <c r="U142">
         <v>-0.001249999999998863</v>
       </c>
-      <c r="U142">
+      <c r="V142">
         <v>-9.507008778142367E-05</v>
       </c>
-      <c r="V142">
+      <c r="W142">
         <v>4.228866240962859E-05</v>
       </c>
-      <c r="W142">
+      <c r="X142">
         <v>-0.0009511731135065649</v>
       </c>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:24">
       <c r="A143" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B143">
         <v>63.12</v>
@@ -11430,21 +11859,24 @@
         <v>63.06933333333333</v>
       </c>
       <c r="T143">
+        <v>63.07333333333333</v>
+      </c>
+      <c r="U143">
         <v>-0.007499999999993179</v>
       </c>
-      <c r="U143">
+      <c r="V143">
         <v>-4.225738976082472E-05</v>
       </c>
-      <c r="V143">
+      <c r="W143">
         <v>0.000126860622462921</v>
       </c>
-      <c r="W143">
+      <c r="X143">
         <v>0.001586797841954812</v>
       </c>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:24">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B144">
         <v>63.12</v>
@@ -11501,21 +11933,24 @@
         <v>63.07466666666667</v>
       </c>
       <c r="T144">
+        <v>63.08666666666667</v>
+      </c>
+      <c r="U144">
         <v>-0.01749999999999119</v>
       </c>
-      <c r="U144">
+      <c r="V144">
         <v>-3.169438164263294E-05</v>
       </c>
-      <c r="V144">
+      <c r="W144">
         <v>8.456302059101084E-05</v>
       </c>
-      <c r="W144">
+      <c r="X144">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:24">
       <c r="A145" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B145">
         <v>63.12</v>
@@ -11572,21 +12007,24 @@
         <v>63.07733333333333</v>
       </c>
       <c r="T145">
+        <v>63.12</v>
+      </c>
+      <c r="U145">
         <v>-0.01250000000000284</v>
       </c>
-      <c r="U145">
+      <c r="V145">
         <v>-4.22605149443811E-05</v>
       </c>
-      <c r="V145">
+      <c r="W145">
         <v>4.227793514566258E-05</v>
       </c>
-      <c r="W145">
+      <c r="X145">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:24">
       <c r="A146" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B146">
         <v>63.14</v>
@@ -11643,21 +12081,24 @@
         <v>63.08133333333333</v>
       </c>
       <c r="T146">
+        <v>63.12666666666667</v>
+      </c>
+      <c r="U146">
         <v>0.001250000000005969</v>
       </c>
-      <c r="U146">
+      <c r="V146">
         <v>-1.056557524259372E-05</v>
       </c>
-      <c r="V146">
+      <c r="W146">
         <v>6.341422169597877E-05</v>
       </c>
-      <c r="W146">
+      <c r="X146">
         <v>0.0003168567807352307</v>
       </c>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:24">
       <c r="A147" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B147">
         <v>63.16</v>
@@ -11714,21 +12155,24 @@
         <v>63.08666666666667</v>
       </c>
       <c r="T147">
+        <v>63.13999999999999</v>
+      </c>
+      <c r="U147">
         <v>0.0137499999999946</v>
       </c>
-      <c r="U147">
+      <c r="V147">
         <v>1.056568687518578E-05</v>
       </c>
-      <c r="V147">
+      <c r="W147">
         <v>8.454693411708014E-05</v>
       </c>
-      <c r="W147">
+      <c r="X147">
         <v>0.0003167564143173873</v>
       </c>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:24">
       <c r="A148" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B148">
         <v>63.14</v>
@@ -11785,21 +12229,24 @@
         <v>63.08933333333334</v>
       </c>
       <c r="T148">
+        <v>63.14666666666667</v>
+      </c>
+      <c r="U148">
         <v>0.02249999999999375</v>
       </c>
-      <c r="U148">
+      <c r="V148">
         <v>-4.2262300971041E-05</v>
       </c>
-      <c r="V148">
+      <c r="W148">
         <v>4.226989326849839E-05</v>
       </c>
-      <c r="W148">
+      <c r="X148">
         <v>-0.0003166561114629207</v>
       </c>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:24">
       <c r="A149" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B149">
         <v>63.22</v>
@@ -11856,21 +12303,24 @@
         <v>63.09733333333333</v>
       </c>
       <c r="T149">
+        <v>63.17333333333334</v>
+      </c>
+      <c r="U149">
         <v>0.03250000000000597</v>
       </c>
-      <c r="U149">
+      <c r="V149">
         <v>0</v>
       </c>
-      <c r="V149">
+      <c r="W149">
         <v>0.0001268043198003888</v>
       </c>
-      <c r="W149">
+      <c r="X149">
         <v>0.001267025657269549</v>
       </c>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:24">
       <c r="A150" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B150">
         <v>63.24</v>
@@ -11927,21 +12377,24 @@
         <v>63.10666666666666</v>
       </c>
       <c r="T150">
+        <v>63.20000000000001</v>
+      </c>
+      <c r="U150">
         <v>0.05125000000000313</v>
       </c>
-      <c r="U150">
+      <c r="V150">
         <v>2.113204357434562E-05</v>
       </c>
-      <c r="V150">
+      <c r="W150">
         <v>0.0001479196162541552</v>
       </c>
-      <c r="W150">
+      <c r="X150">
         <v>0.0003163555836760423</v>
       </c>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:24">
       <c r="A151" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B151">
         <v>63.3</v>
@@ -11998,21 +12451,24 @@
         <v>63.11733333333333</v>
       </c>
       <c r="T151">
+        <v>63.25333333333333</v>
+      </c>
+      <c r="U151">
         <v>0.06124999999999403</v>
       </c>
-      <c r="U151">
+      <c r="V151">
         <v>0.0001056579851022033</v>
       </c>
-      <c r="V151">
+      <c r="W151">
         <v>0.0001690259877458189</v>
       </c>
-      <c r="W151">
+      <c r="X151">
         <v>0.0009487666034155851</v>
       </c>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" spans="1:24">
       <c r="A152" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B152">
         <v>63.3</v>
@@ -12069,21 +12525,24 @@
         <v>63.13466666666667</v>
       </c>
       <c r="T152">
+        <v>63.27999999999999</v>
+      </c>
+      <c r="U152">
         <v>0.07374999999999687</v>
       </c>
-      <c r="U152">
+      <c r="V152">
         <v>0.0001056468226718899</v>
       </c>
-      <c r="V152">
+      <c r="W152">
         <v>0.0002746208120325555</v>
       </c>
-      <c r="W152">
+      <c r="X152">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:23">
+    <row r="153" spans="1:24">
       <c r="A153" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B153">
         <v>63.28</v>
@@ -12140,21 +12599,24 @@
         <v>63.15333333333333</v>
       </c>
       <c r="T153">
+        <v>63.29333333333333</v>
+      </c>
+      <c r="U153">
         <v>0.07875000000000654</v>
       </c>
-      <c r="U153">
+      <c r="V153">
         <v>9.507209633952129E-05</v>
       </c>
-      <c r="V153">
+      <c r="W153">
         <v>0.0002956642943126031</v>
       </c>
-      <c r="W153">
+      <c r="X153">
         <v>-0.0003159557661926993</v>
       </c>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:24">
       <c r="A154" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B154">
         <v>63.24</v>
@@ -12211,21 +12673,24 @@
         <v>63.168</v>
       </c>
       <c r="T154">
+        <v>63.27333333333333</v>
+      </c>
+      <c r="U154">
         <v>0.07625000000000171</v>
       </c>
-      <c r="U154">
+      <c r="V154">
         <v>3.16876861652382E-05</v>
       </c>
-      <c r="V154">
+      <c r="W154">
         <v>0.0002322389950386583</v>
       </c>
-      <c r="W154">
+      <c r="X154">
         <v>-0.0006321112515802474</v>
       </c>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:24">
       <c r="A155" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B155">
         <v>63.3</v>
@@ -12282,21 +12747,24 @@
         <v>63.18533333333333</v>
       </c>
       <c r="T155">
+        <v>63.27333333333333</v>
+      </c>
+      <c r="U155">
         <v>0.0762499999999946</v>
       </c>
-      <c r="U155">
+      <c r="V155">
         <v>6.337336417505668E-05</v>
       </c>
-      <c r="V155">
+      <c r="W155">
         <v>0.0002744005403578775</v>
       </c>
-      <c r="W155">
+      <c r="X155">
         <v>0.0009487666034155851</v>
       </c>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:24">
       <c r="A156" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B156">
         <v>63.32</v>
@@ -12353,21 +12821,24 @@
         <v>63.20133333333333</v>
       </c>
       <c r="T156">
+        <v>63.28666666666667</v>
+      </c>
+      <c r="U156">
         <v>0.08125000000001137</v>
       </c>
-      <c r="U156">
+      <c r="V156">
         <v>0.0001267386964924899</v>
       </c>
-      <c r="V156">
+      <c r="W156">
         <v>0.0002532233218679458</v>
       </c>
-      <c r="W156">
+      <c r="X156">
         <v>0.0003159557661926993</v>
       </c>
     </row>
-    <row r="157" spans="1:23">
+    <row r="157" spans="1:24">
       <c r="A157" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B157">
         <v>63.32</v>
@@ -12424,21 +12895,24 @@
         <v>63.22133333333333</v>
       </c>
       <c r="T157">
+        <v>63.31333333333333</v>
+      </c>
+      <c r="U157">
         <v>0.07874999999999943</v>
       </c>
-      <c r="U157">
+      <c r="V157">
         <v>0.0001795237340938005</v>
       </c>
-      <c r="V157">
+      <c r="W157">
         <v>0.0003164490200628922</v>
       </c>
-      <c r="W157">
+      <c r="X157">
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:24">
       <c r="A158" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B158">
         <v>63.32</v>
@@ -12495,21 +12969,24 @@
         <v>63.23466666666666</v>
       </c>
       <c r="T158">
+        <v>63.32</v>
+      </c>
+      <c r="U158">
         <v>0.07000000000000028</v>
       </c>
-      <c r="U158">
+      <c r="V158">
         <v>0.0001689331869245692</v>
       </c>
-      <c r="V158">
+      <c r="W158">
         <v>0.0002108992745064597</v>
       </c>
-      <c r="W158">
+      <c r="X158">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:24">
       <c r="A159" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B159">
         <v>63.34</v>
@@ -12566,21 +13043,24 @@
         <v>63.24933333333333</v>
       </c>
       <c r="T159">
+        <v>63.32666666666668</v>
+      </c>
+      <c r="U159">
         <v>0.06125000000000114</v>
       </c>
-      <c r="U159">
+      <c r="V159">
         <v>0.0001583481124904917</v>
       </c>
-      <c r="V159">
+      <c r="W159">
         <v>0.0002319402859192188</v>
       </c>
-      <c r="W159">
+      <c r="X159">
         <v>0.0003158559696778696</v>
       </c>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:24">
       <c r="A160" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B160">
         <v>63.3</v>
@@ -12637,21 +13117,24 @@
         <v>63.26133333333334</v>
       </c>
       <c r="T160">
+        <v>63.32</v>
+      </c>
+      <c r="U160">
         <v>0.05000000000000426</v>
       </c>
-      <c r="U160">
+      <c r="V160">
         <v>0.0001161035643795216</v>
       </c>
-      <c r="V160">
+      <c r="W160">
         <v>0.0001897253198981375</v>
       </c>
-      <c r="W160">
+      <c r="X160">
         <v>-0.000631512472371476</v>
       </c>
     </row>
-    <row r="161" spans="1:23">
+    <row r="161" spans="1:24">
       <c r="A161" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B161">
         <v>63.3</v>
@@ -12708,21 +13191,24 @@
         <v>63.27200000000001</v>
       </c>
       <c r="T161">
+        <v>63.31333333333333</v>
+      </c>
+      <c r="U161">
         <v>0.04124999999999801</v>
       </c>
-      <c r="U161">
+      <c r="V161">
         <v>0.0001160900859065173</v>
       </c>
-      <c r="V161">
+      <c r="W161">
         <v>0.0001686127386923975</v>
       </c>
-      <c r="W161">
+      <c r="X161">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:24">
       <c r="A162" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B162">
         <v>63.34</v>
@@ -12779,21 +13265,24 @@
         <v>63.284</v>
       </c>
       <c r="T162">
+        <v>63.31333333333333</v>
+      </c>
+      <c r="U162">
         <v>0.04124999999999091</v>
       </c>
-      <c r="U162">
+      <c r="V162">
         <v>0.0001371814488471124</v>
       </c>
-      <c r="V162">
+      <c r="W162">
         <v>0.0001896573523831879</v>
       </c>
-      <c r="W162">
+      <c r="X162">
         <v>0.0006319115323856206</v>
       </c>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" spans="1:24">
       <c r="A163" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B163">
         <v>63.3</v>
@@ -12850,21 +13339,24 @@
         <v>63.29466666666666</v>
       </c>
       <c r="T163">
+        <v>63.31333333333333</v>
+      </c>
+      <c r="U163">
         <v>0.03250000000000597</v>
       </c>
-      <c r="U163">
+      <c r="V163">
         <v>0.0001055097174449404</v>
       </c>
-      <c r="V163">
+      <c r="W163">
         <v>0.0001685523460379645</v>
       </c>
-      <c r="W163">
+      <c r="X163">
         <v>-0.000631512472371476</v>
       </c>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:24">
       <c r="A164" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B164">
         <v>63.26</v>
@@ -12921,21 +13413,24 @@
         <v>63.29733333333333</v>
       </c>
       <c r="T164">
+        <v>63.3</v>
+      </c>
+      <c r="U164">
         <v>0.0175000000000054</v>
       </c>
-      <c r="U164">
+      <c r="V164">
         <v>8.43988690550912E-05</v>
       </c>
-      <c r="V164">
+      <c r="W164">
         <v>4.213098523320191E-05</v>
       </c>
-      <c r="W164">
+      <c r="X164">
         <v>-0.0006319115323853985</v>
       </c>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:24">
       <c r="A165" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B165">
         <v>63.26</v>
@@ -12992,21 +13487,24 @@
         <v>63.29866666666667</v>
       </c>
       <c r="T165">
+        <v>63.27333333333333</v>
+      </c>
+      <c r="U165">
         <v>0.007499999999993179</v>
       </c>
-      <c r="U165">
+      <c r="V165">
         <v>8.439174648722236E-05</v>
       </c>
-      <c r="V165">
+      <c r="W165">
         <v>2.106460514395003E-05</v>
       </c>
-      <c r="W165">
+      <c r="X165">
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:24">
       <c r="A166" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B166">
         <v>63.24</v>
@@ -13063,21 +13561,24 @@
         <v>63.29466666666666</v>
       </c>
       <c r="T166">
+        <v>63.25333333333333</v>
+      </c>
+      <c r="U166">
         <v>-0.002500000000004832</v>
       </c>
-      <c r="U166">
+      <c r="V166">
         <v>5.274039070091163E-05</v>
       </c>
-      <c r="V166">
+      <c r="W166">
         <v>-6.319248430730617E-05</v>
       </c>
-      <c r="W166">
+      <c r="X166">
         <v>-0.0003161555485298173</v>
       </c>
     </row>
-    <row r="167" spans="1:23">
+    <row r="167" spans="1:24">
       <c r="A167" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B167">
         <v>63.24</v>
@@ -13134,21 +13635,24 @@
         <v>63.29066666666667</v>
       </c>
       <c r="T167">
+        <v>63.24666666666667</v>
+      </c>
+      <c r="U167">
         <v>-0.01124999999999687</v>
       </c>
-      <c r="U167">
+      <c r="V167">
         <v>0.000105475218597384</v>
       </c>
-      <c r="V167">
+      <c r="W167">
         <v>-6.319647784958082E-05</v>
       </c>
-      <c r="W167">
+      <c r="X167">
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:23">
+    <row r="168" spans="1:24">
       <c r="A168" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B168">
         <v>63.26</v>
@@ -13205,21 +13709,24 @@
         <v>63.28933333333334</v>
       </c>
       <c r="T168">
+        <v>63.24666666666667</v>
+      </c>
+      <c r="U168">
         <v>-0.01375000000000171</v>
       </c>
-      <c r="U168">
+      <c r="V168">
         <v>0.0001371033231736263</v>
       </c>
-      <c r="V168">
+      <c r="W168">
         <v>-2.106682396552095E-05</v>
       </c>
-      <c r="W168">
+      <c r="X168">
         <v>0.0003162555344717877</v>
       </c>
     </row>
-    <row r="169" spans="1:23">
+    <row r="169" spans="1:24">
       <c r="A169" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B169">
         <v>63.3</v>
@@ -13276,21 +13783,24 @@
         <v>63.29333333333333</v>
       </c>
       <c r="T169">
+        <v>63.26666666666666</v>
+      </c>
+      <c r="U169">
         <v>-0.01500000000000057</v>
       </c>
-      <c r="U169">
+      <c r="V169">
         <v>0.0001476294921545218</v>
       </c>
-      <c r="V169">
+      <c r="W169">
         <v>6.320180335794845E-05</v>
       </c>
-      <c r="W169">
+      <c r="X169">
         <v>0.0006323110970596346</v>
       </c>
     </row>
-    <row r="170" spans="1:23">
+    <row r="170" spans="1:24">
       <c r="A170" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B170">
         <v>63.28</v>
@@ -13347,21 +13857,24 @@
         <v>63.292</v>
       </c>
       <c r="T170">
+        <v>63.28</v>
+      </c>
+      <c r="U170">
         <v>-0.02500000000000568</v>
       </c>
-      <c r="U170">
+      <c r="V170">
         <v>0.0001265208864895673</v>
       </c>
-      <c r="V170">
+      <c r="W170">
         <v>-2.10659363807375E-05</v>
       </c>
-      <c r="W170">
+      <c r="X170">
         <v>-0.0003159557661926993</v>
       </c>
     </row>
-    <row r="171" spans="1:23">
+    <row r="171" spans="1:24">
       <c r="A171" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B171">
         <v>63.26</v>
@@ -13418,21 +13931,24 @@
         <v>63.288</v>
       </c>
       <c r="T171">
+        <v>63.28</v>
+      </c>
+      <c r="U171">
         <v>-0.02749999999999631</v>
       </c>
-      <c r="U171">
+      <c r="V171">
         <v>9.487866073509821E-05</v>
       </c>
-      <c r="V171">
+      <c r="W171">
         <v>-6.319914049168762E-05</v>
       </c>
-      <c r="W171">
+      <c r="X171">
         <v>-0.0003160556257901792</v>
       </c>
     </row>
-    <row r="172" spans="1:23">
+    <row r="172" spans="1:24">
       <c r="A172" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B172">
         <v>63.28</v>
@@ -13489,21 +14005,24 @@
         <v>63.28533333333333</v>
       </c>
       <c r="T172">
+        <v>63.27333333333333</v>
+      </c>
+      <c r="U172">
         <v>-0.02250000000000085</v>
       </c>
-      <c r="U172">
+      <c r="V172">
         <v>0.0001370339527970721</v>
       </c>
-      <c r="V172">
+      <c r="W172">
         <v>-4.213542325037789E-05</v>
       </c>
-      <c r="W172">
+      <c r="X172">
         <v>0.0003161555485298173</v>
       </c>
     </row>
-    <row r="173" spans="1:23">
+    <row r="173" spans="1:24">
       <c r="A173" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B173">
         <v>63.3</v>
@@ -13560,21 +14079,24 @@
         <v>63.284</v>
       </c>
       <c r="T173">
+        <v>63.27999999999999</v>
+      </c>
+      <c r="U173">
         <v>-0.01624999999999233</v>
       </c>
-      <c r="U173">
+      <c r="V173">
         <v>9.485666104547263E-05</v>
       </c>
-      <c r="V173">
+      <c r="W173">
         <v>-2.106859935957495E-05</v>
       </c>
-      <c r="W173">
+      <c r="X173">
         <v>0.0003160556257901792</v>
       </c>
     </row>
-    <row r="174" spans="1:23">
+    <row r="174" spans="1:24">
       <c r="A174" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B174">
         <v>63.28</v>
@@ -13631,21 +14153,24 @@
         <v>63.28</v>
       </c>
       <c r="T174">
+        <v>63.28666666666667</v>
+      </c>
+      <c r="U174">
         <v>-0.008750000000006253</v>
       </c>
-      <c r="U174">
+      <c r="V174">
         <v>8.430903476708274E-05</v>
       </c>
-      <c r="V174">
+      <c r="W174">
         <v>-6.320712976415344E-05</v>
       </c>
-      <c r="W174">
+      <c r="X174">
         <v>-0.0003159557661926993</v>
       </c>
     </row>
-    <row r="175" spans="1:23">
+    <row r="175" spans="1:24">
       <c r="A175" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B175">
         <v>63.28</v>
@@ -13702,21 +14227,24 @@
         <v>63.27866666666667</v>
       </c>
       <c r="T175">
+        <v>63.28666666666667</v>
+      </c>
+      <c r="U175">
         <v>0</v>
       </c>
-      <c r="U175">
+      <c r="V175">
         <v>8.430192735264797E-05</v>
       </c>
-      <c r="V175">
+      <c r="W175">
         <v>-2.1070375052612E-05</v>
       </c>
-      <c r="W175">
+      <c r="X175">
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:23">
+    <row r="176" spans="1:24">
       <c r="A176" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B176">
         <v>63.32</v>
@@ -13773,21 +14301,24 @@
         <v>63.27999999999999</v>
       </c>
       <c r="T176">
+        <v>63.29333333333333</v>
+      </c>
+      <c r="U176">
         <v>0.006250000000001421</v>
       </c>
-      <c r="U176">
+      <c r="V176">
         <v>9.483167377899449E-05</v>
       </c>
-      <c r="V176">
+      <c r="W176">
         <v>2.107081902247288E-05</v>
       </c>
-      <c r="W176">
+      <c r="X176">
         <v>0.0006321112515803584</v>
       </c>
     </row>
-    <row r="177" spans="1:23">
+    <row r="177" spans="1:24">
       <c r="A177" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B177">
         <v>63.34</v>
@@ -13844,21 +14375,24 @@
         <v>63.27999999999999</v>
       </c>
       <c r="T177">
+        <v>63.31333333333333</v>
+      </c>
+      <c r="U177">
         <v>0.008749999999999147</v>
       </c>
-      <c r="U177">
+      <c r="V177">
         <v>9.482268158556018E-05</v>
       </c>
-      <c r="V177">
+      <c r="W177">
         <v>0</v>
       </c>
-      <c r="W177">
+      <c r="X177">
         <v>0.0003158559696778696</v>
       </c>
     </row>
-    <row r="178" spans="1:23">
+    <row r="178" spans="1:24">
       <c r="A178" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B178">
         <v>63.36</v>
@@ -13915,21 +14449,24 @@
         <v>63.284</v>
       </c>
       <c r="T178">
+        <v>63.34</v>
+      </c>
+      <c r="U178">
         <v>0.0175000000000054</v>
       </c>
-      <c r="U178">
+      <c r="V178">
         <v>0.0001158834002297215</v>
       </c>
-      <c r="V178">
+      <c r="W178">
         <v>6.321112515816907E-05</v>
       </c>
-      <c r="W178">
+      <c r="X178">
         <v>0.000315756236185516</v>
       </c>
     </row>
-    <row r="179" spans="1:23">
+    <row r="179" spans="1:24">
       <c r="A179" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B179">
         <v>63.4</v>
@@ -13986,21 +14523,24 @@
         <v>63.29333333333333</v>
       </c>
       <c r="T179">
+        <v>63.36666666666667</v>
+      </c>
+      <c r="U179">
         <v>0.02874999999999517</v>
       </c>
-      <c r="U179">
+      <c r="V179">
         <v>9.480270503714472E-05</v>
       </c>
-      <c r="V179">
+      <c r="W179">
         <v>0.0001474833027832467</v>
       </c>
-      <c r="W179">
+      <c r="X179">
         <v>0.0006313131313131493</v>
       </c>
     </row>
-    <row r="180" spans="1:23">
+    <row r="180" spans="1:24">
       <c r="A180" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B180">
         <v>63.4</v>
@@ -14057,21 +14597,24 @@
         <v>63.30266666666667</v>
       </c>
       <c r="T180">
+        <v>63.38666666666666</v>
+      </c>
+      <c r="U180">
         <v>0.03500000000000369</v>
       </c>
-      <c r="U180">
+      <c r="V180">
         <v>8.426108296544221E-05</v>
       </c>
-      <c r="V180">
+      <c r="W180">
         <v>0.0001474615546661617</v>
       </c>
-      <c r="W180">
+      <c r="X180">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:23">
+    <row r="181" spans="1:24">
       <c r="A181" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B181">
         <v>63.36</v>
@@ -14128,21 +14671,24 @@
         <v>63.31066666666666</v>
       </c>
       <c r="T181">
+        <v>63.38666666666666</v>
+      </c>
+      <c r="U181">
         <v>0.03625000000000256</v>
       </c>
-      <c r="U181">
+      <c r="V181">
         <v>3.159524386275869E-05</v>
       </c>
-      <c r="V181">
+      <c r="W181">
         <v>0.0001263769825388117</v>
       </c>
-      <c r="W181">
+      <c r="X181">
         <v>-0.0006309148264984632</v>
       </c>
     </row>
-    <row r="182" spans="1:23">
+    <row r="182" spans="1:24">
       <c r="A182" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B182">
         <v>63.36</v>
@@ -14199,21 +14745,24 @@
         <v>63.31866666666667</v>
       </c>
       <c r="T182">
+        <v>63.37333333333333</v>
+      </c>
+      <c r="U182">
         <v>0.03875000000000028</v>
       </c>
-      <c r="U182">
+      <c r="V182">
         <v>3.15942456345919E-05</v>
       </c>
-      <c r="V182">
+      <c r="W182">
         <v>0.0001263610134154547</v>
       </c>
-      <c r="W182">
+      <c r="X182">
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:23">
+    <row r="183" spans="1:24">
       <c r="A183" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B183">
         <v>63.4</v>
@@ -14270,21 +14819,24 @@
         <v>63.328</v>
       </c>
       <c r="T183">
+        <v>63.37333333333333</v>
+      </c>
+      <c r="U183">
         <v>0.04375000000000284</v>
       </c>
-      <c r="U183">
+      <c r="V183">
         <v>6.318649493985973E-05</v>
       </c>
-      <c r="V183">
+      <c r="W183">
         <v>0.0001474025563814596</v>
       </c>
-      <c r="W183">
+      <c r="X183">
         <v>0.0006313131313131493</v>
       </c>
     </row>
-    <row r="184" spans="1:23">
+    <row r="184" spans="1:24">
       <c r="A184" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B184">
         <v>63.38</v>
@@ -14341,21 +14893,24 @@
         <v>63.33333333333334</v>
       </c>
       <c r="T184">
+        <v>63.38</v>
+      </c>
+      <c r="U184">
         <v>0.04375000000000284</v>
       </c>
-      <c r="U184">
+      <c r="V184">
         <v>7.371291976854266E-05</v>
       </c>
-      <c r="V184">
+      <c r="W184">
         <v>8.421761832577701E-05</v>
       </c>
-      <c r="W184">
+      <c r="X184">
         <v>-0.0003154574132491206</v>
       </c>
     </row>
-    <row r="185" spans="1:23">
+    <row r="185" spans="1:24">
       <c r="A185" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B185">
         <v>63.38</v>
@@ -14412,21 +14967,24 @@
         <v>63.34</v>
       </c>
       <c r="T185">
+        <v>63.38666666666666</v>
+      </c>
+      <c r="U185">
         <v>0.04374999999999574</v>
       </c>
-      <c r="U185">
+      <c r="V185">
         <v>4.211856375713197E-05</v>
       </c>
-      <c r="V185">
+      <c r="W185">
         <v>0.0001052631578946084</v>
       </c>
-      <c r="W185">
+      <c r="X185">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:23">
+    <row r="186" spans="1:24">
       <c r="A186" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B186">
         <v>63.38</v>
@@ -14483,21 +15041,24 @@
         <v>63.348</v>
       </c>
       <c r="T186">
+        <v>63.38</v>
+      </c>
+      <c r="U186">
         <v>0.03999999999999915</v>
       </c>
-      <c r="U186">
+      <c r="V186">
         <v>3.158759239374476E-05</v>
       </c>
-      <c r="V186">
+      <c r="W186">
         <v>0.0001263024944742064</v>
       </c>
-      <c r="W186">
+      <c r="X186">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:23">
+    <row r="187" spans="1:24">
       <c r="A187" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B187">
         <v>63.34</v>
@@ -14554,21 +15115,24 @@
         <v>63.352</v>
       </c>
       <c r="T187">
+        <v>63.36666666666667</v>
+      </c>
+      <c r="U187">
         <v>0.02750000000000341</v>
       </c>
-      <c r="U187">
+      <c r="V187">
         <v>1.052886488328575E-05</v>
       </c>
-      <c r="V187">
+      <c r="W187">
         <v>6.314327208434278E-05</v>
       </c>
-      <c r="W187">
+      <c r="X187">
         <v>-0.000631113916061854</v>
       </c>
     </row>
-    <row r="188" spans="1:23">
+    <row r="188" spans="1:24">
       <c r="A188" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B188">
         <v>63.28</v>
@@ -14625,21 +15189,24 @@
         <v>63.35066666666668</v>
       </c>
       <c r="T188">
+        <v>63.33333333333334</v>
+      </c>
+      <c r="U188">
         <v>0.01249999999999574</v>
       </c>
-      <c r="U188">
+      <c r="V188">
         <v>-2.105750805458939E-05</v>
       </c>
-      <c r="V188">
+      <c r="W188">
         <v>-2.10464284209344E-05</v>
       </c>
-      <c r="W188">
+      <c r="X188">
         <v>-0.000947268708556992</v>
       </c>
     </row>
-    <row r="189" spans="1:23">
+    <row r="189" spans="1:24">
       <c r="A189" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B189">
         <v>63.4</v>
@@ -14696,21 +15263,24 @@
         <v>63.35866666666666</v>
       </c>
       <c r="T189">
+        <v>63.34</v>
+      </c>
+      <c r="U189">
         <v>0.01124999999998977</v>
       </c>
-      <c r="U189">
+      <c r="V189">
         <v>3.158692722382561E-05</v>
       </c>
-      <c r="V189">
+      <c r="W189">
         <v>0.0001262812282951664</v>
       </c>
-      <c r="W189">
+      <c r="X189">
         <v>0.001896333754740853</v>
       </c>
     </row>
-    <row r="190" spans="1:23">
+    <row r="190" spans="1:24">
       <c r="A190" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B190">
         <v>63.36</v>
@@ -14767,21 +15337,24 @@
         <v>63.364</v>
       </c>
       <c r="T190">
+        <v>63.34666666666667</v>
+      </c>
+      <c r="U190">
         <v>0.006250000000001421</v>
       </c>
-      <c r="U190">
+      <c r="V190">
         <v>3.15859295212384E-05</v>
       </c>
-      <c r="V190">
+      <c r="W190">
         <v>8.417685557371435E-05</v>
       </c>
-      <c r="W190">
+      <c r="X190">
         <v>-0.0006309148264984632</v>
       </c>
     </row>
-    <row r="191" spans="1:23">
+    <row r="191" spans="1:24">
       <c r="A191" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B191">
         <v>63.34</v>
@@ -14838,21 +15411,24 @@
         <v>63.36533333333333</v>
       </c>
       <c r="T191">
+        <v>63.36666666666667</v>
+      </c>
+      <c r="U191">
         <v>-0.004999999999995453</v>
       </c>
-      <c r="U191">
+      <c r="V191">
         <v>2.10566212546226E-05</v>
       </c>
-      <c r="V191">
+      <c r="W191">
         <v>2.104244260658916E-05</v>
       </c>
-      <c r="W191">
+      <c r="X191">
         <v>-0.0003156565656564636</v>
       </c>
     </row>
-    <row r="192" spans="1:23">
+    <row r="192" spans="1:24">
       <c r="A192" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B192">
         <v>63.3</v>
@@ -14909,21 +15485,24 @@
         <v>63.36266666666667</v>
       </c>
       <c r="T192">
+        <v>63.33333333333334</v>
+      </c>
+      <c r="U192">
         <v>-0.01375000000000881</v>
       </c>
-      <c r="U192">
+      <c r="V192">
         <v>-2.105617788272784E-05</v>
       </c>
-      <c r="V192">
+      <c r="W192">
         <v>-4.208399966332266E-05</v>
       </c>
-      <c r="W192">
+      <c r="X192">
         <v>-0.000631512472371476</v>
       </c>
     </row>
-    <row r="193" spans="1:23">
+    <row r="193" spans="1:24">
       <c r="A193" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B193">
         <v>63.32</v>
@@ -14980,21 +15559,24 @@
         <v>63.36</v>
       </c>
       <c r="T193">
+        <v>63.32</v>
+      </c>
+      <c r="U193">
         <v>-0.01999999999999602</v>
       </c>
-      <c r="U193">
+      <c r="V193">
         <v>1.05283106273113E-05</v>
       </c>
-      <c r="V193">
+      <c r="W193">
         <v>-4.20857708008926E-05</v>
       </c>
-      <c r="W193">
+      <c r="X193">
         <v>0.0003159557661926993</v>
       </c>
     </row>
-    <row r="194" spans="1:23">
+    <row r="194" spans="1:24">
       <c r="A194" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B194">
         <v>63.34</v>
@@ -15051,21 +15633,24 @@
         <v>63.356</v>
       </c>
       <c r="T194">
+        <v>63.32</v>
+      </c>
+      <c r="U194">
         <v>-0.02374999999999972</v>
       </c>
-      <c r="U194">
+      <c r="V194">
         <v>4.211279913235444E-05</v>
       </c>
-      <c r="V194">
+      <c r="W194">
         <v>-6.313131313129272E-05</v>
       </c>
-      <c r="W194">
+      <c r="X194">
         <v>0.0003158559696778696</v>
       </c>
     </row>
-    <row r="195" spans="1:23">
+    <row r="195" spans="1:24">
       <c r="A195" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B195">
         <v>63.32</v>
@@ -15122,21 +15707,24 @@
         <v>63.35066666666668</v>
       </c>
       <c r="T195">
+        <v>63.32666666666668</v>
+      </c>
+      <c r="U195">
         <v>-0.02125000000000909</v>
       </c>
-      <c r="U195">
+      <c r="V195">
         <v>3.158326928942579E-05</v>
       </c>
-      <c r="V195">
+      <c r="W195">
         <v>-8.418039859403592E-05</v>
       </c>
-      <c r="W195">
+      <c r="X195">
         <v>-0.000315756236185738</v>
       </c>
     </row>
-    <row r="196" spans="1:23">
+    <row r="196" spans="1:24">
       <c r="A196" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B196">
         <v>63.32</v>
@@ -15193,21 +15781,24 @@
         <v>63.348</v>
       </c>
       <c r="T196">
+        <v>63.32666666666668</v>
+      </c>
+      <c r="U196">
         <v>-0.01125000000000398</v>
       </c>
-      <c r="U196">
+      <c r="V196">
         <v>4.210969575746404E-05</v>
       </c>
-      <c r="V196">
+      <c r="W196">
         <v>-4.209374276531452E-05</v>
       </c>
-      <c r="W196">
+      <c r="X196">
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:23">
+    <row r="197" spans="1:24">
       <c r="A197" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B197">
         <v>63.34</v>
@@ -15264,21 +15855,24 @@
         <v>63.34666666666667</v>
       </c>
       <c r="T197">
+        <v>63.32666666666668</v>
+      </c>
+      <c r="U197">
         <v>-0.0175000000000054</v>
       </c>
-      <c r="U197">
+      <c r="V197">
         <v>5.263490325702058E-05</v>
       </c>
-      <c r="V197">
+      <c r="W197">
         <v>-2.104775736133657E-05</v>
       </c>
-      <c r="W197">
+      <c r="X197">
         <v>0.0003158559696778696</v>
       </c>
     </row>
-    <row r="198" spans="1:23">
+    <row r="198" spans="1:24">
       <c r="A198" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B198">
         <v>63.3</v>
@@ -15335,21 +15929,24 @@
         <v>63.34</v>
       </c>
       <c r="T198">
+        <v>63.32</v>
+      </c>
+      <c r="U198">
         <v>-0.02124999999999488</v>
       </c>
-      <c r="U198">
+      <c r="V198">
         <v>2.105285318787509E-05</v>
       </c>
-      <c r="V198">
+      <c r="W198">
         <v>-0.0001052410018943517</v>
       </c>
-      <c r="W198">
+      <c r="X198">
         <v>-0.000631512472371476</v>
       </c>
     </row>
-    <row r="199" spans="1:23">
+    <row r="199" spans="1:24">
       <c r="A199" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B199">
         <v>63.34</v>
@@ -15406,21 +16003,24 @@
         <v>63.33733333333334</v>
       </c>
       <c r="T199">
+        <v>63.32666666666668</v>
+      </c>
+      <c r="U199">
         <v>-0.0175000000000054</v>
       </c>
-      <c r="U199">
+      <c r="V199">
         <v>2.105240997485325E-05</v>
       </c>
-      <c r="V199">
+      <c r="W199">
         <v>-4.210083149136512E-05</v>
       </c>
-      <c r="W199">
+      <c r="X199">
         <v>0.0006319115323856206</v>
       </c>
     </row>
-    <row r="200" spans="1:23">
+    <row r="200" spans="1:24">
       <c r="A200" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B200">
         <v>63.34</v>
@@ -15477,21 +16077,24 @@
         <v>63.33466666666667</v>
       </c>
       <c r="T200">
+        <v>63.32666666666668</v>
+      </c>
+      <c r="U200">
         <v>-0.01000000000000512</v>
       </c>
-      <c r="U200">
+      <c r="V200">
         <v>3.15779501700586E-05</v>
       </c>
-      <c r="V200">
+      <c r="W200">
         <v>-4.210260404613475E-05</v>
       </c>
-      <c r="W200">
+      <c r="X200">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:23">
+    <row r="201" spans="1:24">
       <c r="A201" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B201">
         <v>63.32</v>
@@ -15548,21 +16151,24 @@
         <v>63.33066666666666</v>
       </c>
       <c r="T201">
+        <v>63.33333333333334</v>
+      </c>
+      <c r="U201">
         <v>-0.006249999999994316</v>
       </c>
-      <c r="U201">
+      <c r="V201">
         <v>3.157695303457331E-05</v>
       </c>
-      <c r="V201">
+      <c r="W201">
         <v>-6.315656512512202E-05</v>
       </c>
-      <c r="W201">
+      <c r="X201">
         <v>-0.000315756236185738</v>
       </c>
     </row>
-    <row r="202" spans="1:23">
+    <row r="202" spans="1:24">
       <c r="A202" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B202">
         <v>63.36</v>
@@ -15619,21 +16225,24 @@
         <v>63.332</v>
       </c>
       <c r="T202">
+        <v>63.34</v>
+      </c>
+      <c r="U202">
         <v>-0.002499999999997726</v>
       </c>
-      <c r="U202">
+      <c r="V202">
         <v>4.210127461612423E-05</v>
       </c>
-      <c r="V202">
+      <c r="W202">
         <v>2.105351804293498E-05</v>
       </c>
-      <c r="W202">
+      <c r="X202">
         <v>0.0006317119393557391</v>
       </c>
     </row>
-    <row r="203" spans="1:23">
+    <row r="203" spans="1:24">
       <c r="A203" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B203">
         <v>63.34</v>
@@ -15690,21 +16299,24 @@
         <v>63.336</v>
       </c>
       <c r="T203">
+        <v>63.34</v>
+      </c>
+      <c r="U203">
         <v>0</v>
       </c>
-      <c r="U203">
+      <c r="V203">
         <v>2.104975108663254E-05</v>
       </c>
-      <c r="V203">
+      <c r="W203">
         <v>6.315922440469635E-05</v>
       </c>
-      <c r="W203">
+      <c r="X203">
         <v>-0.0003156565656564636</v>
       </c>
     </row>
-    <row r="204" spans="1:23">
+    <row r="204" spans="1:24">
       <c r="A204" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B204">
         <v>63.34</v>
@@ -15761,21 +16373,24 @@
         <v>63.332</v>
       </c>
       <c r="T204">
+        <v>63.34666666666667</v>
+      </c>
+      <c r="U204">
         <v>-0.001249999999991758</v>
       </c>
-      <c r="U204">
+      <c r="V204">
         <v>3.15739620058153E-05</v>
       </c>
-      <c r="V204">
+      <c r="W204">
         <v>-6.315523556899016E-05</v>
       </c>
-      <c r="W204">
+      <c r="X204">
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:23">
+    <row r="205" spans="1:24">
       <c r="A205" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B205">
         <v>63.36</v>
@@ -15832,21 +16447,24 @@
         <v>63.332</v>
       </c>
       <c r="T205">
+        <v>63.34666666666667</v>
+      </c>
+      <c r="U205">
         <v>0.003749999999996589</v>
       </c>
-      <c r="U205">
+      <c r="V205">
         <v>4.20972868300229E-05</v>
       </c>
-      <c r="V205">
+      <c r="W205">
         <v>0</v>
       </c>
-      <c r="W205">
+      <c r="X205">
         <v>0.000315756236185516</v>
       </c>
     </row>
-    <row r="206" spans="1:23">
+    <row r="206" spans="1:24">
       <c r="A206" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B206">
         <v>63.34</v>
@@ -15903,21 +16521,24 @@
         <v>63.332</v>
       </c>
       <c r="T206">
+        <v>63.34666666666667</v>
+      </c>
+      <c r="U206">
         <v>0.01000000000000512</v>
       </c>
-      <c r="U206">
+      <c r="V206">
         <v>1.05238786807238E-05</v>
       </c>
-      <c r="V206">
+      <c r="W206">
         <v>0</v>
       </c>
-      <c r="W206">
+      <c r="X206">
         <v>-0.0003156565656564636</v>
       </c>
     </row>
-    <row r="207" spans="1:23">
+    <row r="207" spans="1:24">
       <c r="A207" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B207">
         <v>63.38</v>
@@ -15974,21 +16595,24 @@
         <v>63.33733333333333</v>
       </c>
       <c r="T207">
+        <v>63.36000000000001</v>
+      </c>
+      <c r="U207">
         <v>0.01250000000000284</v>
       </c>
-      <c r="U207">
+      <c r="V207">
         <v>2.104753585974173E-05</v>
       </c>
-      <c r="V207">
+      <c r="W207">
         <v>8.421229920618778E-05</v>
       </c>
-      <c r="W207">
+      <c r="X207">
         <v>0.000631512472371254</v>
       </c>
     </row>
-    <row r="208" spans="1:23">
+    <row r="208" spans="1:24">
       <c r="A208" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B208">
         <v>63.38</v>
@@ -16045,21 +16669,24 @@
         <v>63.34133333333334</v>
       </c>
       <c r="T208">
+        <v>63.36666666666667</v>
+      </c>
+      <c r="U208">
         <v>0.01249999999999574</v>
       </c>
-      <c r="U208">
+      <c r="V208">
         <v>1.05235464351594E-05</v>
       </c>
-      <c r="V208">
+      <c r="W208">
         <v>6.315390606936866E-05</v>
       </c>
-      <c r="W208">
+      <c r="X208">
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:23">
+    <row r="209" spans="1:24">
       <c r="A209" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B209">
         <v>63.4</v>
@@ -16116,21 +16743,24 @@
         <v>63.34533333333334</v>
       </c>
       <c r="T209">
+        <v>63.38666666666666</v>
+      </c>
+      <c r="U209">
         <v>0.01749999999999119</v>
       </c>
-      <c r="U209">
+      <c r="V209">
         <v>0</v>
       </c>
-      <c r="V209">
+      <c r="W209">
         <v>6.314991790512536E-05</v>
       </c>
-      <c r="W209">
+      <c r="X209">
         <v>0.0003155569580308715</v>
       </c>
     </row>
-    <row r="210" spans="1:23">
+    <row r="210" spans="1:24">
       <c r="A210" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B210">
         <v>63.4</v>
@@ -16187,21 +16817,24 @@
         <v>63.35066666666667</v>
       </c>
       <c r="T210">
+        <v>63.39333333333334</v>
+      </c>
+      <c r="U210">
         <v>0.01874999999999716</v>
       </c>
-      <c r="U210">
+      <c r="V210">
         <v>0</v>
       </c>
-      <c r="V210">
+      <c r="W210">
         <v>8.419457365982375E-05</v>
       </c>
-      <c r="W210">
+      <c r="X210">
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:23">
+    <row r="211" spans="1:24">
       <c r="A211" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B211">
         <v>63.44</v>
@@ -16258,21 +16891,24 @@
         <v>63.35866666666666</v>
       </c>
       <c r="T211">
+        <v>63.41333333333333</v>
+      </c>
+      <c r="U211">
         <v>0.02375000000000682</v>
       </c>
-      <c r="U211">
+      <c r="V211">
         <v>4.209374276498146E-05</v>
       </c>
-      <c r="V211">
+      <c r="W211">
         <v>0.0001262812282953885</v>
       </c>
-      <c r="W211">
+      <c r="X211">
         <v>0.0006309148264984632</v>
       </c>
     </row>
-    <row r="212" spans="1:23">
+    <row r="212" spans="1:24">
       <c r="A212" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B212">
         <v>63.46</v>
@@ -16329,21 +16965,24 @@
         <v>63.36666666666667</v>
       </c>
       <c r="T212">
+        <v>63.43333333333333</v>
+      </c>
+      <c r="U212">
         <v>0.03000000000000114</v>
       </c>
-      <c r="U212">
+      <c r="V212">
         <v>5.261496369568519E-05</v>
       </c>
-      <c r="V212">
+      <c r="W212">
         <v>0.0001262652833604605</v>
       </c>
-      <c r="W212">
+      <c r="X212">
         <v>0.0003152585119798879</v>
       </c>
     </row>
-    <row r="213" spans="1:23">
+    <row r="213" spans="1:24">
       <c r="A213" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B213">
         <v>63.48</v>
@@ -16400,21 +17039,24 @@
         <v>63.37866666666667</v>
       </c>
       <c r="T213">
+        <v>63.46</v>
+      </c>
+      <c r="U213">
         <v>0.03625000000000256</v>
       </c>
-      <c r="U213">
+      <c r="V213">
         <v>4.208975640551671E-05</v>
       </c>
-      <c r="V213">
+      <c r="W213">
         <v>0.0001893740136769129</v>
       </c>
-      <c r="W213">
+      <c r="X213">
         <v>0.0003151591553733901</v>
       </c>
     </row>
-    <row r="214" spans="1:23">
+    <row r="214" spans="1:24">
       <c r="A214" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B214">
         <v>63.48</v>
@@ -16471,21 +17113,24 @@
         <v>63.38800000000001</v>
       </c>
       <c r="T214">
+        <v>63.47333333333333</v>
+      </c>
+      <c r="U214">
         <v>0.04249999999998977</v>
       </c>
-      <c r="U214">
+      <c r="V214">
         <v>5.2609981165741E-05</v>
       </c>
-      <c r="V214">
+      <c r="W214">
         <v>0.0001472630117389517</v>
       </c>
-      <c r="W214">
+      <c r="X214">
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:23">
+    <row r="215" spans="1:24">
       <c r="A215" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B215">
         <v>63.46</v>
@@ -16542,21 +17187,24 @@
         <v>63.39599999999999</v>
       </c>
       <c r="T215">
+        <v>63.47333333333333</v>
+      </c>
+      <c r="U215">
         <v>0.04500000000000171</v>
       </c>
-      <c r="U215">
+      <c r="V215">
         <v>4.208577080078157E-05</v>
       </c>
-      <c r="V215">
+      <c r="W215">
         <v>0.0001262068530318849</v>
       </c>
-      <c r="W215">
+      <c r="X215">
         <v>-0.00031505986137359</v>
       </c>
     </row>
-    <row r="216" spans="1:23">
+    <row r="216" spans="1:24">
       <c r="A216" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B216">
         <v>63.44</v>
@@ -16613,21 +17261,24 @@
         <v>63.404</v>
       </c>
       <c r="T216">
+        <v>63.46</v>
+      </c>
+      <c r="U216">
         <v>0.04625000000000057</v>
       </c>
-      <c r="U216">
+      <c r="V216">
         <v>3.156299974760302E-05</v>
       </c>
-      <c r="V216">
+      <c r="W216">
         <v>0.0001261909268726047</v>
       </c>
-      <c r="W216">
+      <c r="X216">
         <v>-0.0003151591553735011</v>
       </c>
     </row>
-    <row r="217" spans="1:23">
+    <row r="217" spans="1:24">
       <c r="A217" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B217">
         <v>63.46</v>
@@ -16684,21 +17335,24 @@
         <v>63.41066666666667</v>
       </c>
       <c r="T217">
+        <v>63.45333333333334</v>
+      </c>
+      <c r="U217">
         <v>0.0449999999999946</v>
       </c>
-      <c r="U217">
+      <c r="V217">
         <v>6.312400711183663E-05</v>
       </c>
-      <c r="V217">
+      <c r="W217">
         <v>0.000105145837276277</v>
       </c>
-      <c r="W217">
+      <c r="X217">
         <v>0.0003152585119798879</v>
       </c>
     </row>
-    <row r="218" spans="1:23">
+    <row r="218" spans="1:24">
       <c r="A218" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B218">
         <v>63.36</v>
@@ -16755,21 +17409,24 @@
         <v>63.412</v>
       </c>
       <c r="T218">
+        <v>63.41999999999999</v>
+      </c>
+      <c r="U218">
         <v>0.03999999999999915</v>
       </c>
-      <c r="U218">
+      <c r="V218">
         <v>4.208001514882653E-05</v>
       </c>
-      <c r="V218">
+      <c r="W218">
         <v>2.102695655814557E-05</v>
       </c>
-      <c r="W218">
+      <c r="X218">
         <v>-0.001575795776867395</v>
       </c>
     </row>
-    <row r="219" spans="1:23">
+    <row r="219" spans="1:24">
       <c r="A219" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B219">
         <v>63.38</v>
@@ -16826,21 +17483,24 @@
         <v>63.41466666666667</v>
       </c>
       <c r="T219">
+        <v>63.4</v>
+      </c>
+      <c r="U219">
         <v>0.03000000000000114</v>
       </c>
-      <c r="U219">
+      <c r="V219">
         <v>-1.051956112396724E-05</v>
       </c>
-      <c r="V219">
+      <c r="W219">
         <v>4.205302886939322E-05</v>
       </c>
-      <c r="W219">
+      <c r="X219">
         <v>0.0003156565656565746</v>
       </c>
     </row>
-    <row r="220" spans="1:23">
+    <row r="220" spans="1:24">
       <c r="A220" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B220">
         <v>63.46</v>
@@ -16897,21 +17557,24 @@
         <v>63.42133333333333</v>
       </c>
       <c r="T220">
+        <v>63.4</v>
+      </c>
+      <c r="U220">
         <v>0.02250000000000085</v>
       </c>
-      <c r="U220">
+      <c r="V220">
         <v>5.259835893123288E-05</v>
       </c>
-      <c r="V220">
+      <c r="W220">
         <v>0.0001051281512163271</v>
       </c>
-      <c r="W220">
+      <c r="X220">
         <v>0.001262227832123708</v>
       </c>
     </row>
-    <row r="221" spans="1:23">
+    <row r="221" spans="1:24">
       <c r="A221" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B221">
         <v>63.4</v>
@@ -16968,21 +17631,24 @@
         <v>63.42533333333333</v>
       </c>
       <c r="T221">
+        <v>63.41333333333333</v>
+      </c>
+      <c r="U221">
         <v>0.01000000000000512</v>
       </c>
-      <c r="U221">
+      <c r="V221">
         <v>3.155735549364991E-05</v>
       </c>
-      <c r="V221">
+      <c r="W221">
         <v>6.307026026997065E-05</v>
       </c>
-      <c r="W221">
+      <c r="X221">
         <v>-0.0009454774661203924</v>
       </c>
     </row>
-    <row r="222" spans="1:23">
+    <row r="222" spans="1:24">
       <c r="A222" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B222">
         <v>63.42</v>
@@ -17039,21 +17705,24 @@
         <v>63.428</v>
       </c>
       <c r="T222">
+        <v>63.42666666666667</v>
+      </c>
+      <c r="U222">
         <v>-0.002500000000004832</v>
       </c>
-      <c r="U222">
+      <c r="V222">
         <v>6.31127193166936E-05</v>
       </c>
-      <c r="V222">
+      <c r="W222">
         <v>4.204418844211411E-05</v>
       </c>
-      <c r="W222">
+      <c r="X222">
         <v>0.0003154574132493426</v>
       </c>
     </row>
-    <row r="223" spans="1:23">
+    <row r="223" spans="1:24">
       <c r="A223" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B223">
         <v>63.38</v>
@@ -17110,21 +17779,24 @@
         <v>63.428</v>
       </c>
       <c r="T223">
+        <v>63.4</v>
+      </c>
+      <c r="U223">
         <v>-0.01250000000000284</v>
       </c>
-      <c r="U223">
+      <c r="V223">
         <v>3.155436817636748E-05</v>
       </c>
-      <c r="V223">
+      <c r="W223">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="W223">
+      <c r="X223">
         <v>-0.0006307158625039611</v>
       </c>
     </row>
-    <row r="224" spans="1:23">
+    <row r="224" spans="1:24">
       <c r="A224" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B224">
         <v>63.38</v>
@@ -17181,21 +17853,24 @@
         <v>63.42666666666666</v>
       </c>
       <c r="T224">
+        <v>63.39333333333334</v>
+      </c>
+      <c r="U224">
         <v>-0.02000000000000313</v>
       </c>
-      <c r="U224">
+      <c r="V224">
         <v>2.103558168631281E-05</v>
       </c>
-      <c r="V224">
+      <c r="W224">
         <v>-2.102121040137295E-05</v>
       </c>
-      <c r="W224">
+      <c r="X224">
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:23">
+    <row r="225" spans="1:24">
       <c r="A225" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B225">
         <v>63.38</v>
@@ -17252,21 +17927,24 @@
         <v>63.42533333333333</v>
       </c>
       <c r="T225">
+        <v>63.38</v>
+      </c>
+      <c r="U225">
         <v>-0.02874999999999517</v>
       </c>
-      <c r="U225">
+      <c r="V225">
         <v>3.155270880017547E-05</v>
       </c>
-      <c r="V225">
+      <c r="W225">
         <v>-2.10216523017781E-05</v>
       </c>
-      <c r="W225">
+      <c r="X225">
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:23">
+    <row r="226" spans="1:24">
       <c r="A226" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B226">
         <v>63.36</v>
@@ -17323,21 +18001,24 @@
         <v>63.42</v>
       </c>
       <c r="T226">
+        <v>63.37333333333333</v>
+      </c>
+      <c r="U226">
         <v>-0.02624999999999744</v>
       </c>
-      <c r="U226">
+      <c r="V226">
         <v>2.103447550516613E-05</v>
       </c>
-      <c r="V226">
+      <c r="W226">
         <v>-8.408837688411719E-05</v>
       </c>
-      <c r="W226">
+      <c r="X226">
         <v>-0.0003155569580309825</v>
       </c>
     </row>
-    <row r="227" spans="1:23">
+    <row r="227" spans="1:24">
       <c r="A227" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B227">
         <v>63.4</v>
@@ -17394,21 +18075,24 @@
         <v>63.416</v>
       </c>
       <c r="T227">
+        <v>63.38</v>
+      </c>
+      <c r="U227">
         <v>-0.02125000000000199</v>
       </c>
-      <c r="U227">
+      <c r="V227">
         <v>3.155104959851052E-05</v>
       </c>
-      <c r="V227">
+      <c r="W227">
         <v>-6.307158625040721E-05</v>
       </c>
-      <c r="W227">
+      <c r="X227">
         <v>0.0006313131313131493</v>
       </c>
     </row>
-    <row r="228" spans="1:23">
+    <row r="228" spans="1:24">
       <c r="A228" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B228">
         <v>63.42</v>
@@ -17465,21 +18149,24 @@
         <v>63.412</v>
       </c>
       <c r="T228">
+        <v>63.39333333333334</v>
+      </c>
+      <c r="U228">
         <v>-0.02374999999999261</v>
       </c>
-      <c r="U228">
+      <c r="V228">
         <v>6.310010832200064E-05</v>
       </c>
-      <c r="V228">
+      <c r="W228">
         <v>-6.307556452633811E-05</v>
       </c>
-      <c r="W228">
+      <c r="X228">
         <v>0.0003154574132493426</v>
       </c>
     </row>
-    <row r="229" spans="1:23">
+    <row r="229" spans="1:24">
       <c r="A229" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B229">
         <v>63.42</v>
@@ -17536,21 +18223,24 @@
         <v>63.408</v>
       </c>
       <c r="T229">
+        <v>63.41333333333333</v>
+      </c>
+      <c r="U229">
         <v>-0.0175000000000054</v>
       </c>
-      <c r="U229">
+      <c r="V229">
         <v>4.206408463280908E-05</v>
       </c>
-      <c r="V229">
+      <c r="W229">
         <v>-6.307954330408982E-05</v>
       </c>
-      <c r="W229">
+      <c r="X229">
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:23">
+    <row r="230" spans="1:24">
       <c r="A230" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B230">
         <v>63.4</v>
@@ -17607,21 +18297,24 @@
         <v>63.404</v>
       </c>
       <c r="T230">
+        <v>63.41333333333333</v>
+      </c>
+      <c r="U230">
         <v>-0.01499999999999346</v>
       </c>
-      <c r="U230">
+      <c r="V230">
         <v>3.154673649019557E-05</v>
       </c>
-      <c r="V230">
+      <c r="W230">
         <v>-6.308352258388439E-05</v>
       </c>
-      <c r="W230">
+      <c r="X230">
         <v>-0.000315357931252036</v>
       </c>
     </row>
-    <row r="231" spans="1:23">
+    <row r="231" spans="1:24">
       <c r="A231" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B231">
         <v>63.36</v>
@@ -17678,21 +18371,24 @@
         <v>63.39866666666667</v>
       </c>
       <c r="T231">
+        <v>63.39333333333334</v>
+      </c>
+      <c r="U231">
         <v>-0.01125000000000398</v>
       </c>
-      <c r="U231">
+      <c r="V231">
         <v>2.103049421653402E-05</v>
       </c>
-      <c r="V231">
+      <c r="W231">
         <v>-8.411666982099941E-05</v>
       </c>
-      <c r="W231">
+      <c r="X231">
         <v>-0.0006309148264984632</v>
       </c>
     </row>
-    <row r="232" spans="1:23">
+    <row r="232" spans="1:24">
       <c r="A232" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B232">
         <v>63.34</v>
@@ -17749,21 +18445,24 @@
         <v>63.39066666666667</v>
       </c>
       <c r="T232">
+        <v>63.36666666666667</v>
+      </c>
+      <c r="U232">
         <v>-0.01000000000000512</v>
       </c>
-      <c r="U232">
+      <c r="V232">
         <v>-1.051502597215759E-05</v>
       </c>
-      <c r="V232">
+      <c r="W232">
         <v>-0.000126185619045649</v>
       </c>
-      <c r="W232">
+      <c r="X232">
         <v>-0.0003156565656564636</v>
       </c>
     </row>
-    <row r="233" spans="1:23">
+    <row r="233" spans="1:24">
       <c r="A233" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B233">
         <v>63.28</v>
@@ -17820,21 +18519,24 @@
         <v>63.38533333333334</v>
       </c>
       <c r="T233">
+        <v>63.32666666666666</v>
+      </c>
+      <c r="U233">
         <v>-0.01124999999999687</v>
       </c>
-      <c r="U233">
+      <c r="V233">
         <v>-3.154540961702867E-05</v>
       </c>
-      <c r="V233">
+      <c r="W233">
         <v>-8.413436257692641E-05</v>
       </c>
-      <c r="W233">
+      <c r="X233">
         <v>-0.000947268708556992</v>
       </c>
     </row>
-    <row r="234" spans="1:23">
+    <row r="234" spans="1:24">
       <c r="A234" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B234">
         <v>63.28</v>
@@ -17891,21 +18593,24 @@
         <v>63.37866666666667</v>
       </c>
       <c r="T234">
+        <v>63.3</v>
+      </c>
+      <c r="U234">
         <v>-0.01625000000000654</v>
       </c>
-      <c r="U234">
+      <c r="V234">
         <v>-3.154640476143999E-05</v>
       </c>
-      <c r="V234">
+      <c r="W234">
         <v>-0.0001051768022046762</v>
       </c>
-      <c r="W234">
+      <c r="X234">
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:23">
+    <row r="235" spans="1:24">
       <c r="A235" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B235">
         <v>63.28</v>
@@ -17962,21 +18667,24 @@
         <v>63.36666666666667</v>
       </c>
       <c r="T235">
+        <v>63.28</v>
+      </c>
+      <c r="U235">
         <v>-0.02499999999999858</v>
       </c>
-      <c r="U235">
+      <c r="V235">
         <v>-4.206319995803121E-05</v>
       </c>
-      <c r="V235">
+      <c r="W235">
         <v>-0.0001893381579500808</v>
       </c>
-      <c r="W235">
+      <c r="X235">
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:23">
+    <row r="236" spans="1:24">
       <c r="A236" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B236">
         <v>63.3</v>
@@ -18033,21 +18741,24 @@
         <v>63.36000000000001</v>
       </c>
       <c r="T236">
+        <v>63.28666666666667</v>
+      </c>
+      <c r="U236">
         <v>-0.03000000000000824</v>
       </c>
-      <c r="U236">
+      <c r="V236">
         <v>-2.103248467255625E-05</v>
       </c>
-      <c r="V236">
+      <c r="W236">
         <v>-0.000105207785376038</v>
       </c>
-      <c r="W236">
+      <c r="X236">
         <v>0.0003160556257901792</v>
       </c>
     </row>
-    <row r="237" spans="1:23">
+    <row r="237" spans="1:24">
       <c r="A237" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B237">
         <v>63.32</v>
@@ -18104,21 +18815,24 @@
         <v>63.35333333333333</v>
       </c>
       <c r="T237">
+        <v>63.3</v>
+      </c>
+      <c r="U237">
         <v>-0.03749999999999432</v>
       </c>
-      <c r="U237">
+      <c r="V237">
         <v>-3.154939057081751E-05</v>
       </c>
-      <c r="V237">
+      <c r="W237">
         <v>-0.0001052188552189692</v>
       </c>
-      <c r="W237">
+      <c r="X237">
         <v>0.0003159557661926993</v>
       </c>
     </row>
-    <row r="238" spans="1:23">
+    <row r="238" spans="1:24">
       <c r="A238" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B238">
         <v>63.3</v>
@@ -18175,21 +18889,24 @@
         <v>63.348</v>
       </c>
       <c r="T238">
+        <v>63.30666666666667</v>
+      </c>
+      <c r="U238">
         <v>-0.04250000000000398</v>
       </c>
-      <c r="U238">
+      <c r="V238">
         <v>-4.20671812884077E-05</v>
       </c>
-      <c r="V238">
+      <c r="W238">
         <v>-8.418394191311851E-05</v>
       </c>
-      <c r="W238">
+      <c r="X238">
         <v>-0.0003158559696778696</v>
       </c>
     </row>
-    <row r="239" spans="1:23">
+    <row r="239" spans="1:24">
       <c r="A239" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B239">
         <v>63.3</v>
@@ -18246,21 +18963,24 @@
         <v>63.34266666666667</v>
       </c>
       <c r="T239">
+        <v>63.30666666666666</v>
+      </c>
+      <c r="U239">
         <v>-0.04500000000000171</v>
       </c>
-      <c r="U239">
+      <c r="V239">
         <v>-5.258618876347043E-05</v>
       </c>
-      <c r="V239">
+      <c r="W239">
         <v>-8.419102944579038E-05</v>
       </c>
-      <c r="W239">
+      <c r="X239">
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:23">
+    <row r="240" spans="1:24">
       <c r="A240" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B240">
         <v>63.22</v>
@@ -18317,21 +19037,24 @@
         <v>63.332</v>
       </c>
       <c r="T240">
+        <v>63.27333333333333</v>
+      </c>
+      <c r="U240">
         <v>-0.05000000000000426</v>
       </c>
-      <c r="U240">
+      <c r="V240">
         <v>-9.466011758885173E-05</v>
       </c>
-      <c r="V240">
+      <c r="W240">
         <v>-0.000168396236344126</v>
       </c>
-      <c r="W240">
+      <c r="X240">
         <v>-0.001263823064770908</v>
       </c>
     </row>
-    <row r="241" spans="1:23">
+    <row r="241" spans="1:24">
       <c r="A241" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B241">
         <v>63.24</v>
@@ -18388,21 +19111,24 @@
         <v>63.324</v>
       </c>
       <c r="T241">
+        <v>63.25333333333333</v>
+      </c>
+      <c r="U241">
         <v>-0.04625000000000767</v>
       </c>
-      <c r="U241">
+      <c r="V241">
         <v>-0.0001051878655278227</v>
       </c>
-      <c r="V241">
+      <c r="W241">
         <v>-0.0001263184488095037</v>
       </c>
-      <c r="W241">
+      <c r="X241">
         <v>0.0003163555836760423</v>
       </c>
     </row>
-    <row r="242" spans="1:23">
+    <row r="242" spans="1:24">
       <c r="A242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B242">
         <v>63.22</v>
@@ -18459,21 +19185,24 @@
         <v>63.312</v>
       </c>
       <c r="T242">
+        <v>63.22666666666667</v>
+      </c>
+      <c r="U242">
         <v>-0.0449999999999946</v>
       </c>
-      <c r="U242">
+      <c r="V242">
         <v>-0.0001262387174145729</v>
       </c>
-      <c r="V242">
+      <c r="W242">
         <v>-0.0001895016107636982</v>
       </c>
-      <c r="W242">
+      <c r="X242">
         <v>-0.0003162555344718987</v>
       </c>
     </row>
-    <row r="243" spans="1:23">
+    <row r="243" spans="1:24">
       <c r="A243" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B243">
         <v>63.16</v>
@@ -18530,21 +19259,24 @@
         <v>63.29466666666667</v>
       </c>
       <c r="T243">
+        <v>63.20666666666667</v>
+      </c>
+      <c r="U243">
         <v>-0.04500000000000881</v>
       </c>
-      <c r="U243">
+      <c r="V243">
         <v>-0.0001683395408540456</v>
       </c>
-      <c r="V243">
+      <c r="W243">
         <v>-0.0002737764299551859</v>
       </c>
-      <c r="W243">
+      <c r="X243">
         <v>-0.000949066751028238</v>
       </c>
     </row>
-    <row r="244" spans="1:23">
+    <row r="244" spans="1:24">
       <c r="A244" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B244">
         <v>63.16</v>
@@ -18601,21 +19333,24 @@
         <v>63.27733333333333</v>
       </c>
       <c r="T244">
+        <v>63.18</v>
+      </c>
+      <c r="U244">
         <v>-0.04625000000000057</v>
       </c>
-      <c r="U244">
+      <c r="V244">
         <v>-0.000168367883826126</v>
       </c>
-      <c r="V244">
+      <c r="W244">
         <v>-0.0002738514040151463</v>
       </c>
-      <c r="W244">
+      <c r="X244">
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:23">
+    <row r="245" spans="1:24">
       <c r="A245" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B245">
         <v>63.18</v>
@@ -18672,21 +19407,24 @@
         <v>63.26266666666666</v>
       </c>
       <c r="T245">
+        <v>63.16666666666666</v>
+      </c>
+      <c r="U245">
         <v>-0.04874999999999119</v>
       </c>
-      <c r="U245">
+      <c r="V245">
         <v>-0.0001473467068010548</v>
       </c>
-      <c r="V245">
+      <c r="W245">
         <v>-0.0002317838931266136</v>
       </c>
-      <c r="W245">
+      <c r="X245">
         <v>0.0003166561114629207</v>
       </c>
     </row>
-    <row r="246" spans="1:23">
+    <row r="246" spans="1:24">
       <c r="A246" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B246">
         <v>63.2</v>
@@ -18743,21 +19481,24 @@
         <v>63.252</v>
       </c>
       <c r="T246">
+        <v>63.18</v>
+      </c>
+      <c r="U246">
         <v>-0.04874999999999829</v>
       </c>
-      <c r="U246">
+      <c r="V246">
         <v>-0.0001263157894736411</v>
       </c>
-      <c r="V246">
+      <c r="W246">
         <v>-0.0001686091849852911</v>
       </c>
-      <c r="W246">
+      <c r="X246">
         <v>0.0003165558721114348</v>
       </c>
     </row>
-    <row r="247" spans="1:23">
+    <row r="247" spans="1:24">
       <c r="A247" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B247">
         <v>63.22</v>
@@ -18814,21 +19555,24 @@
         <v>63.244</v>
       </c>
       <c r="T247">
+        <v>63.2</v>
+      </c>
+      <c r="U247">
         <v>-0.04999999999999716</v>
       </c>
-      <c r="U247">
+      <c r="V247">
         <v>-0.0001263317471682512</v>
       </c>
-      <c r="V247">
+      <c r="W247">
         <v>-0.00012647821412759</v>
       </c>
-      <c r="W247">
+      <c r="X247">
         <v>0.0003164556962025333</v>
       </c>
     </row>
-    <row r="248" spans="1:23">
+    <row r="248" spans="1:24">
       <c r="A248" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B248">
         <v>63.16</v>
@@ -18885,21 +19629,24 @@
         <v>63.236</v>
       </c>
       <c r="T248">
+        <v>63.19333333333333</v>
+      </c>
+      <c r="U248">
         <v>-0.04625000000000057</v>
       </c>
-      <c r="U248">
+      <c r="V248">
         <v>-0.000105289757412419</v>
       </c>
-      <c r="V248">
+      <c r="W248">
         <v>-0.0001264942128897939</v>
       </c>
-      <c r="W248">
+      <c r="X248">
         <v>-0.000949066751028238</v>
       </c>
     </row>
-    <row r="249" spans="1:23">
+    <row r="249" spans="1:24">
       <c r="A249" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B249">
         <v>63.16</v>
@@ -18956,21 +19703,24 @@
         <v>63.22799999999999</v>
       </c>
       <c r="T249">
+        <v>63.18</v>
+      </c>
+      <c r="U249">
         <v>-0.04874999999999119</v>
       </c>
-      <c r="U249">
+      <c r="V249">
         <v>-0.0001158309289639448</v>
       </c>
-      <c r="V249">
+      <c r="W249">
         <v>-0.000126510215699982</v>
       </c>
-      <c r="W249">
+      <c r="X249">
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:23">
+    <row r="250" spans="1:24">
       <c r="A250" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B250">
         <v>63.18</v>
@@ -19027,21 +19777,24 @@
         <v>63.22133333333333</v>
       </c>
       <c r="T250">
+        <v>63.16666666666666</v>
+      </c>
+      <c r="U250">
         <v>-0.04750000000000654</v>
       </c>
-      <c r="U250">
+      <c r="V250">
         <v>-0.0001474382602285607</v>
       </c>
-      <c r="V250">
+      <c r="W250">
         <v>-0.0001054385187996276</v>
       </c>
-      <c r="W250">
+      <c r="X250">
         <v>0.0003166561114629207</v>
       </c>
     </row>
-    <row r="251" spans="1:23">
+    <row r="251" spans="1:24">
       <c r="A251" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B251">
         <v>63.2</v>
@@ -19098,21 +19851,24 @@
         <v>63.21466666666666</v>
       </c>
       <c r="T251">
+        <v>63.18</v>
+      </c>
+      <c r="U251">
         <v>-0.03749999999999432</v>
       </c>
-      <c r="U251">
+      <c r="V251">
         <v>-0.0001053285724819109</v>
       </c>
-      <c r="V251">
+      <c r="W251">
         <v>-0.0001054496372533409</v>
       </c>
-      <c r="W251">
+      <c r="X251">
         <v>0.0003165558721114348</v>
       </c>
     </row>
-    <row r="252" spans="1:23">
+    <row r="252" spans="1:24">
       <c r="A252" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B252">
         <v>63.24</v>
@@ -19169,21 +19925,24 @@
         <v>63.20933333333333</v>
       </c>
       <c r="T252">
+        <v>63.20666666666667</v>
+      </c>
+      <c r="U252">
         <v>-0.02374999999999972</v>
       </c>
-      <c r="U252">
+      <c r="V252">
         <v>-9.480570098274743E-05</v>
       </c>
-      <c r="V252">
+      <c r="W252">
         <v>-8.436860644145394E-05</v>
       </c>
-      <c r="W252">
+      <c r="X252">
         <v>0.0006329113924050667</v>
       </c>
     </row>
-    <row r="253" spans="1:23">
+    <row r="253" spans="1:24">
       <c r="A253" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B253">
         <v>63.2</v>
@@ -19240,21 +19999,24 @@
         <v>63.20266666666667</v>
       </c>
       <c r="T253">
+        <v>63.21333333333333</v>
+      </c>
+      <c r="U253">
         <v>-0.01375000000000171</v>
       </c>
-      <c r="U253">
+      <c r="V253">
         <v>-9.481468995597986E-05</v>
       </c>
-      <c r="V253">
+      <c r="W253">
         <v>-0.0001054696563799196</v>
       </c>
-      <c r="W253">
+      <c r="X253">
         <v>-0.0006325110689436864</v>
       </c>
     </row>
-    <row r="254" spans="1:23">
+    <row r="254" spans="1:24">
       <c r="A254" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B254">
         <v>63.18</v>
@@ -19311,21 +20073,24 @@
         <v>63.19466666666666</v>
       </c>
       <c r="T254">
+        <v>63.20666666666667</v>
+      </c>
+      <c r="U254">
         <v>-0.008749999999992042</v>
       </c>
-      <c r="U254">
+      <c r="V254">
         <v>-0.0001053596451485728</v>
       </c>
-      <c r="V254">
+      <c r="W254">
         <v>-0.0001265769376820325</v>
       </c>
-      <c r="W254">
+      <c r="X254">
         <v>-0.0003164556962025333</v>
       </c>
     </row>
-    <row r="255" spans="1:23">
+    <row r="255" spans="1:24">
       <c r="A255" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B255">
         <v>63.12</v>
@@ -19382,21 +20147,24 @@
         <v>63.188</v>
       </c>
       <c r="T255">
+        <v>63.16666666666666</v>
+      </c>
+      <c r="U255">
         <v>-0.009999999999990905</v>
       </c>
-      <c r="U255">
+      <c r="V255">
         <v>-0.0001369819710653752</v>
       </c>
-      <c r="V255">
+      <c r="W255">
         <v>-0.0001054941345260962</v>
       </c>
-      <c r="W255">
+      <c r="X255">
         <v>-0.0009496676163343043</v>
       </c>
     </row>
-    <row r="256" spans="1:23">
+    <row r="256" spans="1:24">
       <c r="A256" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B256">
         <v>63.16</v>
@@ -19453,21 +20221,24 @@
         <v>63.18266666666667</v>
       </c>
       <c r="T256">
+        <v>63.15333333333333</v>
+      </c>
+      <c r="U256">
         <v>-0.006250000000001421</v>
       </c>
-      <c r="U256">
+      <c r="V256">
         <v>-0.0001053851828431984</v>
       </c>
-      <c r="V256">
+      <c r="W256">
         <v>-8.440421177002833E-05</v>
       </c>
-      <c r="W256">
+      <c r="X256">
         <v>0.0006337135614702394</v>
       </c>
     </row>
-    <row r="257" spans="1:23">
+    <row r="257" spans="1:24">
       <c r="A257" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B257">
         <v>63.16</v>
@@ -19524,21 +20295,24 @@
         <v>63.17866666666667</v>
       </c>
       <c r="T257">
+        <v>63.14666666666667</v>
+      </c>
+      <c r="U257">
         <v>-0.001250000000005969</v>
       </c>
-      <c r="U257">
+      <c r="V257">
         <v>-0.0001264755480608892</v>
       </c>
-      <c r="V257">
+      <c r="W257">
         <v>-6.330850233182694E-05</v>
       </c>
-      <c r="W257">
+      <c r="X257">
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:23">
+    <row r="258" spans="1:24">
       <c r="A258" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B258">
         <v>63.14</v>
@@ -19595,21 +20369,24 @@
         <v>63.17733333333333</v>
       </c>
       <c r="T258">
+        <v>63.15333333333333</v>
+      </c>
+      <c r="U258">
         <v>-0.001249999999998863</v>
       </c>
-      <c r="U258">
+      <c r="V258">
         <v>-0.0001475734705063125</v>
       </c>
-      <c r="V258">
+      <c r="W258">
         <v>-2.110417018419408E-05</v>
       </c>
-      <c r="W258">
+      <c r="X258">
         <v>-0.0003166561114629207</v>
       </c>
     </row>
-    <row r="259" spans="1:23">
+    <row r="259" spans="1:24">
       <c r="A259" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B259">
         <v>63.2</v>
@@ -19666,21 +20443,24 @@
         <v>63.18</v>
       </c>
       <c r="T259">
+        <v>63.16666666666666</v>
+      </c>
+      <c r="U259">
         <v>-0.003749999999996589</v>
       </c>
-      <c r="U259">
+      <c r="V259">
         <v>-0.000115967697724817</v>
       </c>
-      <c r="V259">
+      <c r="W259">
         <v>4.22092311589406E-05</v>
       </c>
-      <c r="W259">
+      <c r="X259">
         <v>0.000950269242952162</v>
       </c>
     </row>
-    <row r="260" spans="1:23">
+    <row r="260" spans="1:24">
       <c r="A260" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B260">
         <v>63.18</v>
@@ -19737,21 +20517,24 @@
         <v>63.18</v>
       </c>
       <c r="T260">
+        <v>63.17333333333334</v>
+      </c>
+      <c r="U260">
         <v>-0.01250000000000284</v>
       </c>
-      <c r="U260">
+      <c r="V260">
         <v>-0.000115981147791766</v>
       </c>
-      <c r="V260">
+      <c r="W260">
         <v>0</v>
       </c>
-      <c r="W260">
+      <c r="X260">
         <v>-0.0003164556962025333</v>
       </c>
     </row>
-    <row r="261" spans="1:23">
+    <row r="261" spans="1:24">
       <c r="A261" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B261">
         <v>63.2</v>
@@ -19808,21 +20591,24 @@
         <v>63.18</v>
       </c>
       <c r="T261">
+        <v>63.19333333333334</v>
+      </c>
+      <c r="U261">
         <v>-0.01375000000000881</v>
       </c>
-      <c r="U261">
+      <c r="V261">
         <v>-8.435970980247287E-05</v>
       </c>
-      <c r="V261">
+      <c r="W261">
         <v>0</v>
       </c>
-      <c r="W261">
+      <c r="X261">
         <v>0.0003165558721114348</v>
       </c>
     </row>
-    <row r="262" spans="1:23">
+    <row r="262" spans="1:24">
       <c r="A262" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B262">
         <v>63.16</v>
@@ -19879,21 +20665,24 @@
         <v>63.176</v>
       </c>
       <c r="T262">
+        <v>63.18</v>
+      </c>
+      <c r="U262">
         <v>-0.01375000000000171</v>
       </c>
-      <c r="U262">
+      <c r="V262">
         <v>-9.491268033412492E-05</v>
       </c>
-      <c r="V262">
+      <c r="W262">
         <v>-6.331117442226475E-05</v>
       </c>
-      <c r="W262">
+      <c r="X262">
         <v>-0.0006329113924051777</v>
       </c>
     </row>
-    <row r="263" spans="1:23">
+    <row r="263" spans="1:24">
       <c r="A263" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B263">
         <v>63.12</v>
@@ -19950,21 +20739,24 @@
         <v>63.17333333333333</v>
       </c>
       <c r="T263">
+        <v>63.16</v>
+      </c>
+      <c r="U263">
         <v>-0.007499999999993179</v>
       </c>
-      <c r="U263">
+      <c r="V263">
         <v>-8.437483520551403E-05</v>
       </c>
-      <c r="V263">
+      <c r="W263">
         <v>-4.221012198735163E-05</v>
       </c>
-      <c r="W263">
+      <c r="X263">
         <v>-0.0006333122229258414</v>
       </c>
     </row>
-    <row r="264" spans="1:23">
+    <row r="264" spans="1:24">
       <c r="A264" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B264">
         <v>63.08</v>
@@ -20021,21 +20813,24 @@
         <v>63.168</v>
       </c>
       <c r="T264">
+        <v>63.12</v>
+      </c>
+      <c r="U264">
         <v>-0.01249999999999574</v>
       </c>
-      <c r="U264">
+      <c r="V264">
         <v>-0.0001054774436485273</v>
       </c>
-      <c r="V264">
+      <c r="W264">
         <v>-8.442380751372269E-05</v>
       </c>
-      <c r="W264">
+      <c r="X264">
         <v>-0.0006337135614702394</v>
       </c>
     </row>
-    <row r="265" spans="1:23">
+    <row r="265" spans="1:24">
       <c r="A265" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B265">
         <v>63.06</v>
@@ -20092,21 +20887,24 @@
         <v>63.16</v>
       </c>
       <c r="T265">
+        <v>63.08666666666667</v>
+      </c>
+      <c r="U265">
         <v>-0.01874999999999716</v>
       </c>
-      <c r="U265">
+      <c r="V265">
         <v>-0.0001160374273447839</v>
       </c>
-      <c r="V265">
+      <c r="W265">
         <v>-0.0001266464032422254</v>
       </c>
-      <c r="W265">
+      <c r="X265">
         <v>-0.0003170577045021883</v>
       </c>
     </row>
-    <row r="266" spans="1:23">
+    <row r="266" spans="1:24">
       <c r="A266" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B266">
         <v>63.02</v>
@@ -20163,21 +20961,24 @@
         <v>63.148</v>
       </c>
       <c r="T266">
+        <v>63.05333333333333</v>
+      </c>
+      <c r="U266">
         <v>-0.02374999999999972</v>
       </c>
-      <c r="U266">
+      <c r="V266">
         <v>-0.0001477011372986725</v>
       </c>
-      <c r="V266">
+      <c r="W266">
         <v>-0.0001899936668776636</v>
       </c>
-      <c r="W266">
+      <c r="X266">
         <v>-0.0006343165239454107</v>
       </c>
     </row>
-    <row r="267" spans="1:23">
+    <row r="267" spans="1:24">
       <c r="A267" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B267">
         <v>63</v>
@@ -20234,21 +21035,24 @@
         <v>63.132</v>
       </c>
       <c r="T267">
+        <v>63.02666666666667</v>
+      </c>
+      <c r="U267">
         <v>-0.03625000000000256</v>
       </c>
-      <c r="U267">
+      <c r="V267">
         <v>-0.0001688262355971082</v>
       </c>
-      <c r="V267">
+      <c r="W267">
         <v>-0.000253373028441195</v>
       </c>
-      <c r="W267">
+      <c r="X267">
         <v>-0.0003173595683910735</v>
       </c>
     </row>
-    <row r="268" spans="1:23">
+    <row r="268" spans="1:24">
       <c r="A268" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B268">
         <v>63</v>
@@ -20305,21 +21109,24 @@
         <v>63.11866666666666</v>
       </c>
       <c r="T268">
+        <v>63.00666666666667</v>
+      </c>
+      <c r="U268">
         <v>-0.04375000000000284</v>
       </c>
-      <c r="U268">
+      <c r="V268">
         <v>-0.0001583013212883566</v>
       </c>
-      <c r="V268">
+      <c r="W268">
         <v>-0.0002111977021690414</v>
       </c>
-      <c r="W268">
+      <c r="X268">
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:23">
+    <row r="269" spans="1:24">
       <c r="A269" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B269">
         <v>63.04</v>
@@ -20376,21 +21183,24 @@
         <v>63.10933333333333</v>
       </c>
       <c r="T269">
+        <v>63.01333333333333</v>
+      </c>
+      <c r="U269">
         <v>-0.05374999999999375</v>
       </c>
-      <c r="U269">
+      <c r="V269">
         <v>-0.0001372161999556587</v>
       </c>
-      <c r="V269">
+      <c r="W269">
         <v>-0.0001478696212424691</v>
       </c>
-      <c r="W269">
+      <c r="X269">
         <v>0.0006349206349205438</v>
       </c>
     </row>
-    <row r="270" spans="1:23">
+    <row r="270" spans="1:24">
       <c r="A270" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B270">
         <v>63</v>
@@ -20447,21 +21257,24 @@
         <v>63.10133333333333</v>
       </c>
       <c r="T270">
+        <v>63.01333333333333</v>
+      </c>
+      <c r="U270">
         <v>-0.0625</v>
       </c>
-      <c r="U270">
+      <c r="V270">
         <v>-0.0001161219491597754</v>
       </c>
-      <c r="V270">
+      <c r="W270">
         <v>-0.0001267641342009851</v>
       </c>
-      <c r="W270">
+      <c r="X270">
         <v>-0.0006345177664974777</v>
       </c>
     </row>
-    <row r="271" spans="1:23">
+    <row r="271" spans="1:24">
       <c r="A271" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B271">
         <v>62.96</v>
@@ -20518,21 +21331,24 @@
         <v>63.08799999999999</v>
       </c>
       <c r="T271">
+        <v>63</v>
+      </c>
+      <c r="U271">
         <v>-0.07249999999999801</v>
       </c>
-      <c r="U271">
+      <c r="V271">
         <v>-0.0001478087354963575</v>
       </c>
-      <c r="V271">
+      <c r="W271">
         <v>-0.0002113003423065418</v>
       </c>
-      <c r="W271">
+      <c r="X271">
         <v>-0.0006349206349206549</v>
       </c>
     </row>
-    <row r="272" spans="1:23">
+    <row r="272" spans="1:24">
       <c r="A272" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B272">
         <v>62.96</v>
@@ -20589,21 +21405,24 @@
         <v>63.07466666666667</v>
       </c>
       <c r="T272">
+        <v>62.97333333333334</v>
+      </c>
+      <c r="U272">
         <v>-0.07500000000000284</v>
       </c>
-      <c r="U272">
+      <c r="V272">
         <v>-0.0001372712585662184</v>
       </c>
-      <c r="V272">
+      <c r="W272">
         <v>-0.000211344999577201</v>
       </c>
-      <c r="W272">
+      <c r="X272">
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:23">
+    <row r="273" spans="1:24">
       <c r="A273" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B273">
         <v>62.98</v>
@@ -20660,21 +21479,24 @@
         <v>63.064</v>
       </c>
       <c r="T273">
+        <v>62.96666666666667</v>
+      </c>
+      <c r="U273">
         <v>-0.07375000000000398</v>
       </c>
-      <c r="U273">
+      <c r="V273">
         <v>-9.504699545870299E-05</v>
       </c>
-      <c r="V273">
+      <c r="W273">
         <v>-0.0001691117405825393</v>
       </c>
-      <c r="W273">
+      <c r="X273">
         <v>0.0003176620076237313</v>
       </c>
     </row>
-    <row r="274" spans="1:23">
+    <row r="274" spans="1:24">
       <c r="A274" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B274">
         <v>63.02</v>
@@ -20731,21 +21553,24 @@
         <v>63.052</v>
       </c>
       <c r="T274">
+        <v>62.98666666666666</v>
+      </c>
+      <c r="U274">
         <v>-0.06624999999999659</v>
       </c>
-      <c r="U274">
+      <c r="V274">
         <v>-7.393246797149367E-05</v>
       </c>
-      <c r="V274">
+      <c r="W274">
         <v>-0.0001902828872256679</v>
       </c>
-      <c r="W274">
+      <c r="X274">
         <v>0.000635122261035459</v>
       </c>
     </row>
-    <row r="275" spans="1:23">
+    <row r="275" spans="1:24">
       <c r="A275" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B275">
         <v>63.04</v>
@@ -20802,21 +21627,24 @@
         <v>63.04266666666667</v>
       </c>
       <c r="T275">
+        <v>63.01333333333333</v>
+      </c>
+      <c r="U275">
         <v>-0.05124999999999602</v>
       </c>
-      <c r="U275">
+      <c r="V275">
         <v>-7.39379343854818E-05</v>
       </c>
-      <c r="V275">
+      <c r="W275">
         <v>-0.0001480259679840223</v>
       </c>
-      <c r="W275">
+      <c r="X275">
         <v>0.0003173595683909625</v>
       </c>
     </row>
-    <row r="276" spans="1:23">
+    <row r="276" spans="1:24">
       <c r="A276" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B276">
         <v>63.02</v>
@@ -20873,21 +21701,24 @@
         <v>63.03066666666666</v>
       </c>
       <c r="T276">
+        <v>63.02666666666667</v>
+      </c>
+      <c r="U276">
         <v>-0.03875000000000028</v>
       </c>
-      <c r="U276">
+      <c r="V276">
         <v>-9.507008778142367E-05</v>
       </c>
-      <c r="V276">
+      <c r="W276">
         <v>-0.0001903472780340199</v>
       </c>
-      <c r="W276">
+      <c r="X276">
         <v>-0.0003172588832486278</v>
       </c>
     </row>
-    <row r="277" spans="1:23">
+    <row r="277" spans="1:24">
       <c r="A277" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B277">
         <v>62.96</v>
@@ -20944,21 +21775,24 @@
         <v>63.01733333333333</v>
       </c>
       <c r="T277">
+        <v>63.00666666666667</v>
+      </c>
+      <c r="U277">
         <v>-0.03374999999999773</v>
       </c>
-      <c r="U277">
+      <c r="V277">
         <v>-0.0001373365167232077</v>
       </c>
-      <c r="V277">
+      <c r="W277">
         <v>-0.00021153724113121</v>
       </c>
-      <c r="W277">
+      <c r="X277">
         <v>-0.0009520787051729984</v>
       </c>
     </row>
-    <row r="278" spans="1:23">
+    <row r="278" spans="1:24">
       <c r="A278" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B278">
         <v>62.88</v>
@@ -21015,21 +21849,24 @@
         <v>63.00133333333333</v>
       </c>
       <c r="T278">
+        <v>62.95333333333334</v>
+      </c>
+      <c r="U278">
         <v>-0.03125</v>
       </c>
-      <c r="U278">
+      <c r="V278">
         <v>-0.0001479211791433066</v>
       </c>
-      <c r="V278">
+      <c r="W278">
         <v>-0.0002538983983242371</v>
       </c>
-      <c r="W278">
+      <c r="X278">
         <v>-0.00127064803049548</v>
       </c>
     </row>
-    <row r="279" spans="1:23">
+    <row r="279" spans="1:24">
       <c r="A279" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B279">
         <v>62.98</v>
@@ -21086,21 +21923,24 @@
         <v>62.99466666666667</v>
       </c>
       <c r="T279">
+        <v>62.94</v>
+      </c>
+      <c r="U279">
         <v>-0.01999999999999602</v>
       </c>
-      <c r="U279">
+      <c r="V279">
         <v>-9.510625482134216E-05</v>
       </c>
-      <c r="V279">
+      <c r="W279">
         <v>-0.0001058178662884934</v>
       </c>
-      <c r="W279">
+      <c r="X279">
         <v>0.001590330788803884</v>
       </c>
     </row>
-    <row r="280" spans="1:23">
+    <row r="280" spans="1:24">
       <c r="A280" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B280">
         <v>62.96</v>
@@ -21157,21 +21997,24 @@
         <v>62.98799999999999</v>
       </c>
       <c r="T280">
+        <v>62.94</v>
+      </c>
+      <c r="U280">
         <v>-0.01250000000000995</v>
       </c>
-      <c r="U280">
+      <c r="V280">
         <v>-0.0001162520344105689</v>
       </c>
-      <c r="V280">
+      <c r="W280">
         <v>-0.0001058290648946469</v>
       </c>
-      <c r="W280">
+      <c r="X280">
         <v>-0.0003175611305175075</v>
       </c>
     </row>
-    <row r="281" spans="1:23">
+    <row r="281" spans="1:24">
       <c r="A281" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B281">
         <v>62.96</v>
@@ -21228,21 +22071,24 @@
         <v>62.984</v>
       </c>
       <c r="T281">
+        <v>62.96666666666667</v>
+      </c>
+      <c r="U281">
         <v>-0.008749999999999147</v>
       </c>
-      <c r="U281">
+      <c r="V281">
         <v>-0.0001268351460188555</v>
       </c>
-      <c r="V281">
+      <c r="W281">
         <v>-6.350415952227628E-05</v>
       </c>
-      <c r="W281">
+      <c r="X281">
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:23">
+    <row r="282" spans="1:24">
       <c r="A282" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B282">
         <v>62.94</v>
@@ -21299,15 +22145,18 @@
         <v>62.98</v>
       </c>
       <c r="T282">
+        <v>62.95333333333334</v>
+      </c>
+      <c r="U282">
         <v>-0.01375000000000881</v>
       </c>
-      <c r="U282">
+      <c r="V282">
         <v>-0.000158564044017373</v>
       </c>
-      <c r="V282">
+      <c r="W282">
         <v>-6.350819255684925E-05</v>
       </c>
-      <c r="W282">
+      <c r="X282">
         <v>-0.0003176620076239534</v>
       </c>
     </row>
